--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09404419073303846</v>
+        <v>0.09404280246217274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01039082095632183</v>
+        <v>0.01591575075190601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02157116063290238</v>
+        <v>0.0580620297493454</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07002695303361321</v>
+        <v>0.06947730865821743</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02449371393130823</v>
+        <v>0.01455321806900694</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003735388384285042</v>
+        <v>0.01515876027092202</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01150065123560468</v>
+        <v>0.008073134592603523</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00470356769202157</v>
+        <v>0.01227673701835814</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05144052448093898</v>
+        <v>0.01201762043986058</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04614501679338943</v>
+        <v>0.06400092858704347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03827995683220656</v>
+        <v>0.02181561771164014</v>
       </c>
       <c r="P2" t="n">
-        <v>0.009027710396776139</v>
+        <v>0.0523301560781925</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005274606271894388</v>
+        <v>0.03907067287863179</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0161638589490016</v>
+        <v>0.01181322720233537</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04512587911959041</v>
+        <v>0.002890120578204009</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07060516438306437</v>
+        <v>0.07904930988096368</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06722566570096526</v>
+        <v>0.0567540214236461</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06785079415959805</v>
+        <v>0.07506578488298379</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00795950494064524</v>
+        <v>0.03789097201066965</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03836914415562627</v>
+        <v>0.06701426617895576</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05503846774199982</v>
+        <v>0.01772539339414458</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01021667757382609</v>
+        <v>0.0005803201748046985</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006581097647708952</v>
+        <v>0.01590956157026395</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06978453576137389</v>
+        <v>0.06970243302053643</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04150948933459787</v>
+        <v>0.004028253464922099</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04231601786898166</v>
+        <v>0.03830265581280325</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05912764403480326</v>
+        <v>0.07598199287228144</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.06083702764632515</v>
+        <v>0.01518869465190735</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04469896034062965</v>
+        <v>0.04935105807484983</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03675549274335915</v>
+        <v>0.03208162110170181</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1103871623193868</v>
+        <v>0.1129460989148425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008014795999666115</v>
+        <v>0.001035156101934546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04131474306970481</v>
+        <v>0.007725403636804589</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04474159082597718</v>
+        <v>0.04325815084674677</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008375876920062279</v>
+        <v>0.0284617661211871</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04912619621742715</v>
+        <v>0.02215438895816073</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02823254817976489</v>
+        <v>0.07090405967336856</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04645796740817578</v>
+        <v>0.04059701436745024</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05690791003967865</v>
+        <v>0.04430405212014097</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06056546910331646</v>
+        <v>0.06154107137809869</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0677982594116725</v>
+        <v>0.08178947410014675</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006113466330286755</v>
+        <v>0.01890070669581682</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05076992521856545</v>
+        <v>0.00540424938847098</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008849452470109051</v>
+        <v>0.01589278385536353</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0114687036435248</v>
+        <v>0.003730886446497494</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01283139397184987</v>
+        <v>0.03632448312612213</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05504969130873783</v>
+        <v>0.05560886619014455</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06700416836636691</v>
+        <v>0.0478269813290005</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06633836288903688</v>
+        <v>0.04182825082676214</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004788188746659467</v>
+        <v>0.06373099852315076</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05013725857526681</v>
+        <v>0.07239860888579673</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.009615132669810776</v>
+        <v>0.001338728512534855</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05832357297743781</v>
+        <v>0.06305523489586178</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.06298210802670284</v>
+        <v>0.08490441582703316</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03285653412525581</v>
+        <v>0.02029465339838119</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0403285110860333</v>
+        <v>0.02338278373035472</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03816834752422866</v>
+        <v>0.02835285959885196</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01196381686725472</v>
+        <v>0.01075200199819845</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0008760080274265028</v>
+        <v>0.004501969467619077</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07085165158483006</v>
+        <v>0.06687162342617554</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.09186217853726987</v>
+        <v>0.09092736409613292</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01790369517407703</v>
+        <v>0.002807748927545603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04349275356831965</v>
+        <v>0.003241054592342353</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04379597393386368</v>
+        <v>0.03953809860661747</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03575001899151371</v>
+        <v>0.04055748442597483</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004112668444980438</v>
+        <v>0.03184563881490771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00543334834364355</v>
+        <v>0.004735735966550561</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003361468760838934</v>
+        <v>0.008275843744386073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03521077467523286</v>
+        <v>0.04679706108334989</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02463599510883876</v>
+        <v>0.01380593726630637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01625566339520967</v>
+        <v>0.04326169121899563</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0504390674620705</v>
+        <v>0.0499193626487415</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03616498281069513</v>
+        <v>0.008206076627811233</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05121078210072828</v>
+        <v>0.05934052952328348</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01125263977132679</v>
+        <v>0.00619290250162105</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06494793560265349</v>
+        <v>0.06551962760342829</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02195392817019259</v>
+        <v>0.04075855667211036</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06119836969894737</v>
+        <v>0.07050899488767207</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06525013559319404</v>
+        <v>0.04761143130560976</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04282713195447865</v>
+        <v>0.05316417204079693</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03707211957000941</v>
+        <v>0.01620493119896856</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03699906286090639</v>
+        <v>0.03376033972828985</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05721206580531266</v>
+        <v>0.05209958609265757</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05728677203273537</v>
+        <v>0.06862469072113211</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05054049314419619</v>
+        <v>0.03860526270722021</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06196152222034983</v>
+        <v>0.06376599789384887</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03443501073692438</v>
+        <v>0.01902231309549397</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02257625586132668</v>
+        <v>0.06307671563342625</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.006719364207434052</v>
+        <v>0.008752214470911637</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03035002186317722</v>
+        <v>0.0139640214175768</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1227212499333056</v>
+        <v>0.1176377051393795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08561223548816603</v>
+        <v>0.06170937344068921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00841837348984586</v>
+        <v>0.02976952810459149</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03034491498399296</v>
+        <v>0.02048535572368873</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0348531449423586</v>
+        <v>0.03517952726591317</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00314150732214181</v>
+        <v>0.02190508772436803</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003641262506545151</v>
+        <v>0.06260078407448245</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0124178338809441</v>
+        <v>0.05947190491315925</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08091354851923521</v>
+        <v>0.06727504701268056</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06997086636640014</v>
+        <v>0.04323906252252985</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07742694826495544</v>
+        <v>0.06099830803161893</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04638222097795925</v>
+        <v>0.02673644894011177</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03722579843027701</v>
+        <v>0.05195461736290364</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02331763642226903</v>
+        <v>0.008898124042832713</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003411770296904684</v>
+        <v>0.006438934726399824</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002108219725727484</v>
+        <v>0.05362489284054509</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0438261234983659</v>
+        <v>0.01599272983038322</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03429987635241753</v>
+        <v>0.02877991869750929</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07719775314667596</v>
+        <v>0.06175445632860673</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02798489902800754</v>
+        <v>0.005707074972757931</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01311596600285274</v>
+        <v>0.05021261762017448</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.000224855041581126</v>
+        <v>0.02315132276483026</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08377589083292385</v>
+        <v>0.07092034760282495</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08725775243956709</v>
+        <v>0.0392264889473254</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.07309437534821994</v>
+        <v>0.01039544152211556</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01457327785164287</v>
+        <v>0.002785869748819431</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02083026152681872</v>
+        <v>0.03366860256248595</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.004846710480507129</v>
+        <v>0.03546957577052727</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.003063113088587486</v>
+        <v>0.01164855690512491</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.05455485841272146</v>
+        <v>0.07123469294217934</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.111640461513203</v>
+        <v>0.1107154504038993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004669717143181932</v>
+        <v>0.0300168323616393</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05036234705950812</v>
+        <v>0.01878818480976528</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06039626784111518</v>
+        <v>0.04478221217984309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00773796325649408</v>
+        <v>0.0479550306405715</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05400451780384574</v>
+        <v>0.01188508579140954</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001331266040514083</v>
+        <v>0.0001283897424583877</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03484668988675386</v>
+        <v>0.03612429752096862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02547726565043627</v>
+        <v>0.02119026960058583</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05032910977467061</v>
+        <v>0.01289774199441193</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008123819092274475</v>
+        <v>0.01381338685973345</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03174869932930992</v>
+        <v>0.07965512740226363</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.07098870325735573</v>
+        <v>0.004242007804258147</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03721395771265624</v>
+        <v>0.0465248862517512</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003940763448807655</v>
+        <v>0.01301079650565957</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06044580373041019</v>
+        <v>0.08109197337470719</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009573566581213288</v>
+        <v>0.01351117127490429</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0591950088254139</v>
+        <v>0.008109413094005754</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02332277095143784</v>
+        <v>0.07104803594474828</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06000186834601049</v>
+        <v>0.03607257246775972</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01007350106178871</v>
+        <v>0.02165384784790446</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01424534188948795</v>
+        <v>0.01815283049263941</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07005197943125975</v>
+        <v>0.05459292026470006</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05970885704720346</v>
+        <v>0.07853203298520071</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05629887346961816</v>
+        <v>0.04634050099514034</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01438817189822292</v>
+        <v>0.07440374193814402</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03070126136409066</v>
+        <v>0.0101614412212833</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05988083623101746</v>
+        <v>0.07370453432188771</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.03094107187590128</v>
+        <v>0.03161073431165527</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1048109176324852</v>
+        <v>-0.1540462429413415</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1431043392480827</v>
+        <v>0.1401855577166382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08465193994392632</v>
+        <v>0.07309261758450551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01788437231184412</v>
+        <v>0.003596623730763266</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05576776138284381</v>
+        <v>0.01021979030209946</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002070605473681576</v>
+        <v>0.01931211757733194</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07421902024001055</v>
+        <v>0.05760862368731585</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07969884663694436</v>
+        <v>0.07763081446658714</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01920274647484097</v>
+        <v>0.01358753524987906</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001117824649925691</v>
+        <v>0.0212803374756263</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002964209879428365</v>
+        <v>0.08557486441095644</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009132902112258765</v>
+        <v>0.006924334808668601</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02275333411158215</v>
+        <v>9.589098950475363e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03412156775543043</v>
+        <v>0.0005322949132044843</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02968026561370301</v>
+        <v>0.03645361899428746</v>
       </c>
       <c r="S7" t="n">
-        <v>0.009880393169135523</v>
+        <v>0.08040340329901494</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02323891639294351</v>
+        <v>0.03184416772968623</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01608597478559512</v>
+        <v>0.06355057361806944</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05453757058366172</v>
+        <v>0.05855869627937162</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04634980311200714</v>
+        <v>0.09157304974381628</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001572721611984761</v>
+        <v>0.01329903819821819</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04031777229576614</v>
+        <v>0.01741533335711953</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06082874879288801</v>
+        <v>0.06064231187510619</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06754334469974754</v>
+        <v>0.08348935267203417</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02016540581084261</v>
+        <v>0.007387707574220311</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.07063452030567953</v>
+        <v>0.009667824935641743</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.04326623665450378</v>
+        <v>0.007660369425922436</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.08153738881823956</v>
+        <v>0.0005806226244688574</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01207769674904442</v>
+        <v>0.02727034928358722</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01869810963154051</v>
+        <v>0.04074773519299239</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.1319170789947643</v>
+        <v>-0.07592735945351084</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1366927309164782</v>
+        <v>0.14550347413784</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01890804814812359</v>
+        <v>0.02475627278880186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07475993272409534</v>
+        <v>0.05320148521150899</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008235382505184124</v>
+        <v>0.004238245396866995</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02071522471184457</v>
+        <v>0.01458811894409532</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04243849036468767</v>
+        <v>0.07872495956155103</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005489032964949914</v>
+        <v>0.01117539406085383</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001896862557313741</v>
+        <v>0.07159881895110169</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06330502619361336</v>
+        <v>0.005915503142021388</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04797279920194827</v>
+        <v>0.01560971778779989</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03511273424730967</v>
+        <v>0.01284519554280475</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02826545157781565</v>
+        <v>0.03987985647651204</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06317287612051137</v>
+        <v>0.003935139676820545</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004604313941147763</v>
+        <v>0.07418128840253854</v>
       </c>
       <c r="S8" t="n">
-        <v>0.007465618217928401</v>
+        <v>0.015213749414663</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08586041747410776</v>
+        <v>0.04559104510922164</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01941947238107419</v>
+        <v>0.009726300496680806</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03273269260984572</v>
+        <v>0.05292760894227726</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08685555134550939</v>
+        <v>0.03748470490811227</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08097989378257645</v>
+        <v>0.03172804098930855</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05543627319904132</v>
+        <v>0.07061963270878319</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.009349161386141093</v>
+        <v>0.05113005676909809</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04860927558943187</v>
+        <v>0.04507199076949387</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.03208183958488971</v>
+        <v>0.04258747320265484</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02091317180798323</v>
+        <v>0.003404258255162433</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.02452331058652335</v>
+        <v>0.004199269533789713</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002576286837185976</v>
+        <v>0.02862110738962305</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03058886077692467</v>
+        <v>0.07893970725937441</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05514384341695742</v>
+        <v>0.07210505830847998</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.1800608686217423</v>
+        <v>-0.2188718529334285</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2897512604012385</v>
+        <v>0.1634714850294364</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07032017350144723</v>
+        <v>0.1054322585376637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008197161817721323</v>
+        <v>0.01197700141765132</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01715046074232718</v>
+        <v>0.01197770906531651</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03415230238102206</v>
+        <v>0.0291920954315423</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08615576394503803</v>
+        <v>0.03175444861295219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08688105528205008</v>
+        <v>0.01698696746996689</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004288570989990441</v>
+        <v>0.004500957995658987</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01548804754978282</v>
+        <v>0.0224648638279617</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03664641897350914</v>
+        <v>0.02460174209134368</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07329426135129113</v>
+        <v>0.02395980436666142</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01763942504432985</v>
+        <v>0.02233529267068782</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06208556413804365</v>
+        <v>0.1035347356671097</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07351946577952356</v>
+        <v>0.08231156684620071</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08721592098099154</v>
+        <v>0.03845058461559854</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01080461961640948</v>
+        <v>0.0327921007216074</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01507417197260732</v>
+        <v>0.001678070316554317</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03202385803276379</v>
+        <v>0.01249642268536081</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0528696001444338</v>
+        <v>0.03605027415744341</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02918987379788839</v>
+        <v>0.07158813007500618</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01492342018754182</v>
+        <v>0.07150576840477313</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01027450900367646</v>
+        <v>0.03030913650550875</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01446930814590023</v>
+        <v>0.03779119773277986</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0483704978345775</v>
+        <v>0.008160320927208182</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.02250731173318444</v>
+        <v>0.0309068493456422</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.005558573008375678</v>
+        <v>0.001304526809816969</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0308601590584104</v>
+        <v>0.04268714451950014</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.008814750777254346</v>
+        <v>0.02464382274394099</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03122475420990846</v>
+        <v>0.06860620643854221</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3661641660498532</v>
+        <v>-0.3033111385678904</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2416699312788938</v>
+        <v>0.2493116775955867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04876987935214919</v>
+        <v>0.02516593906386855</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04163650758851617</v>
+        <v>0.01672870071215645</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01280213727948316</v>
+        <v>0.0004821119722174022</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00282467230684116</v>
+        <v>0.0367977899454037</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07128654293403446</v>
+        <v>0.03786323485301658</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005238474860499494</v>
+        <v>0.05773729987856316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003919402262361557</v>
+        <v>0.02327282485614546</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01981691538986443</v>
+        <v>0.06652462175279425</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01107497925427772</v>
+        <v>0.01528017108898308</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007155712654297286</v>
+        <v>0.002088244253943435</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05082310035202908</v>
+        <v>0.01351077810830784</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04236462250453026</v>
+        <v>0.03129049586357454</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06783667824679918</v>
+        <v>0.052150545730887</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05685263902235199</v>
+        <v>0.01777467877695237</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07097392758092691</v>
+        <v>0.05990306449214815</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004079314963333184</v>
+        <v>0.007047161961130565</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03540216449537018</v>
+        <v>0.03105053068223478</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04700876871817822</v>
+        <v>0.06949231953445535</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03165092292083631</v>
+        <v>0.01028656121323075</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01583245483795138</v>
+        <v>0.00679367856003356</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03274248428552666</v>
+        <v>0.04761415825207274</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03811234946075722</v>
+        <v>0.07901998786448204</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08239005792201816</v>
+        <v>0.08723970159470014</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01563490657439206</v>
+        <v>0.01263153145413662</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006472070371993405</v>
+        <v>0.01416766419997461</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.06794486174838386</v>
+        <v>0.0651674101939254</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03302572128144773</v>
+        <v>0.08179815785313686</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07632773083084975</v>
+        <v>0.03112063528752485</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.02419820766949371</v>
+        <v>-0.01685330631372322</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2690299498145571</v>
+        <v>0.2614450516240389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03380331053583394</v>
+        <v>0.002647066893413333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06864634904809477</v>
+        <v>0.08100551101932961</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0370740634486961</v>
+        <v>0.01581981109985875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007639399122133006</v>
+        <v>0.01205964535312043</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01909666568132958</v>
+        <v>0.01803224028309633</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07397625362468732</v>
+        <v>0.006629737303037322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02038488955841564</v>
+        <v>0.001090670885733052</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04787570874337011</v>
+        <v>0.02392635723042</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002170581647490196</v>
+        <v>0.02309592617065859</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01593040197072978</v>
+        <v>0.006040182628343015</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06917795986747209</v>
+        <v>0.08028949954745959</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01307442046806394</v>
+        <v>0.02462356470533576</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07250706243478189</v>
+        <v>0.06827291052768654</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007644951956288483</v>
+        <v>0.0563980600284567</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04267870102066138</v>
+        <v>0.05528601049482627</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04268733646481808</v>
+        <v>0.07053296142161371</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04206448218501391</v>
+        <v>0.01669895755456855</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05012582898365502</v>
+        <v>0.07654414174507301</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01316715939109021</v>
+        <v>0.01080842954808064</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02210781142062274</v>
+        <v>0.005646733676754067</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00516211320648328</v>
+        <v>0.0002476565448714344</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.07171795152577952</v>
+        <v>0.08126037506646107</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03729806562245593</v>
+        <v>0.0334726820104651</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05127661943726167</v>
+        <v>0.06392657242399753</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0007407856010417429</v>
+        <v>0.02295350079040424</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01201543711700422</v>
+        <v>0.003440931601132852</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0451260456255142</v>
+        <v>0.07149511362515172</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.07482964429121133</v>
+        <v>0.06775474982065079</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.009903786348385563</v>
+        <v>-0.01782258904769769</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2716027951957679</v>
+        <v>0.2692819327365134</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07154983792296953</v>
+        <v>0.0389541124765606</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01225982936616146</v>
+        <v>0.08611725628886295</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005741945606984902</v>
+        <v>0.03629164529442332</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02464276185201389</v>
+        <v>0.006297302471479292</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03773493708007638</v>
+        <v>0.03291157084384514</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01462846805991053</v>
+        <v>0.01129032170894861</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04168845727730488</v>
+        <v>0.04848006124648675</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04006846749262348</v>
+        <v>0.01913603795348951</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01013096463192377</v>
+        <v>0.007854233780840093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004282361094922584</v>
+        <v>0.01525351116807617</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02510330718053588</v>
+        <v>0.008280811723375683</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06083288167635942</v>
+        <v>0.001676631836693579</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07172944296475263</v>
+        <v>0.02423722962921922</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04419695306282248</v>
+        <v>0.004818184139949838</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009845422914028189</v>
+        <v>0.07706289298437781</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001503245404418478</v>
+        <v>0.005599021836120332</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06086306450167855</v>
+        <v>0.07608275243277655</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05348213657238014</v>
+        <v>0.09273396191289431</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01583781137767032</v>
+        <v>0.02408286058781806</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07301157665313275</v>
+        <v>0.06230206514388971</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.009626116223612502</v>
+        <v>0.0160136592061476</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.009860462638099853</v>
+        <v>0.04603077448603195</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07702314265681019</v>
+        <v>0.0441444555298559</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01381767513681969</v>
+        <v>0.006553203864156068</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.003929604496874834</v>
+        <v>0.06212865727394362</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06316181325345183</v>
+        <v>0.04812976275599497</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06443993120293606</v>
+        <v>0.03531881494882455</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.07900738169872486</v>
+        <v>0.06221820647491787</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.214179197163701</v>
+        <v>0.1997671648356183</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.339222838786656</v>
+        <v>0.3427611868504175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0794921318737859</v>
+        <v>0.04624475895503252</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07299850318779856</v>
+        <v>0.04372252138660497</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01484220407528634</v>
+        <v>0.02113030156252974</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01436866281512288</v>
+        <v>0.008454495714186732</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05703551223704191</v>
+        <v>0.03729221736788103</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06997403911546714</v>
+        <v>0.06588249884067336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02929778467515535</v>
+        <v>0.02545343126746368</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02630085869356005</v>
+        <v>0.01035987813179074</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005543876394531563</v>
+        <v>0.02865050210426582</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07131452263495557</v>
+        <v>0.08016232498084554</v>
       </c>
       <c r="P13" t="n">
-        <v>0.003222583759221337</v>
+        <v>0.07230252231273886</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.009761785832740871</v>
+        <v>0.01912994021656646</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05344835897984052</v>
+        <v>0.08073354497732683</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01761393306541213</v>
+        <v>0.01156498728593245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02493528272138036</v>
+        <v>0.008760372151859349</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08233669235555303</v>
+        <v>0.07881242988556658</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02377191128224618</v>
+        <v>0.04552647277292134</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06501243036516011</v>
+        <v>0.01270818925774714</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001525573702450486</v>
+        <v>0.003329889000808267</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0134315250617443</v>
+        <v>0.04901122979748146</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01455999230707963</v>
+        <v>0.000760592095285097</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05346349896630565</v>
+        <v>0.07521966604009939</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.002882689751379954</v>
+        <v>0.01167727804712173</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02987077699434473</v>
+        <v>0.05240237790768789</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.04258292262006142</v>
+        <v>0.001567013462140433</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.07688128574523452</v>
+        <v>0.008882743843959651</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01997921994631981</v>
+        <v>0.02799456936355298</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.02355144084081981</v>
+        <v>0.07226325126993011</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.238676055861065</v>
+        <v>0.2466165245753381</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2601937528802273</v>
+        <v>0.2626633483430729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07547470465257945</v>
+        <v>0.01042568878921721</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09113716940395608</v>
+        <v>0.0701213116166866</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008780572023477486</v>
+        <v>0.01237814350138375</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03583890154185765</v>
+        <v>0.005564730860032099</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02482726309407175</v>
+        <v>0.02890184617873164</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007667806652323036</v>
+        <v>0.04870440072031457</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004986038370555003</v>
+        <v>0.01018610485723584</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01547502915715679</v>
+        <v>0.07350108916834329</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006524992205024612</v>
+        <v>0.03017718438605444</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01470258213318284</v>
+        <v>0.001580847905574276</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04235079936982581</v>
+        <v>0.01889323113869281</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02453014083574356</v>
+        <v>0.01447048953112135</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08485590847977599</v>
+        <v>0.04679717276580111</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03402440746655129</v>
+        <v>0.02392419204282148</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03002871214397693</v>
+        <v>0.07088241174430687</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007169982546486839</v>
+        <v>0.004999943130267088</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0891937213835754</v>
+        <v>0.08100062198480405</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07136728542694692</v>
+        <v>0.07673944987548112</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03021730686581756</v>
+        <v>0.04789890817181366</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05759867512991794</v>
+        <v>0.03516646539141814</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02353552591210974</v>
+        <v>0.02911491734192373</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04977043384890292</v>
+        <v>0.04633554545439147</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05902175732537741</v>
+        <v>0.0593118289676968</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.009022009641057337</v>
+        <v>0.01105938781574594</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01074954216096186</v>
+        <v>0.01842435769229801</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0388580529517084</v>
+        <v>0.02862774320859641</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.002722018506484297</v>
+        <v>0.04729159797282213</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.06095712129118535</v>
+        <v>0.04752038778642419</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.05187426505134286</v>
+        <v>-0.07377592133293376</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3118738893945945</v>
+        <v>0.3168050576193152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07115394357859839</v>
+        <v>0.0723151437085541</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06311305564983709</v>
+        <v>0.01061205635986474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05928780060723118</v>
+        <v>0.06386482253150398</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01538295469671715</v>
+        <v>0.06510189134347687</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009888902252261736</v>
+        <v>0.01135005076992943</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06183050747782337</v>
+        <v>0.070219267521092</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02941278963174034</v>
+        <v>0.01464759980733363</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03543679055848477</v>
+        <v>0.0224300218500619</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06098183449711398</v>
+        <v>0.0007872454363906159</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0618475648705572</v>
+        <v>0.05691062165862992</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01982425698782073</v>
+        <v>0.07367972074644939</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003636686673184467</v>
+        <v>0.03954348709884765</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05183716922100504</v>
+        <v>0.05826916771423133</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07874252352225067</v>
+        <v>0.02060144418045735</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0693119403215333</v>
+        <v>0.0234447047784259</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01046836822585639</v>
+        <v>0.0002854425775494908</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02040875029263097</v>
+        <v>0.03498522688621481</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03974190474163375</v>
+        <v>0.02423513185038969</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01967872884639457</v>
+        <v>0.06008477463898889</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.007614687333968999</v>
+        <v>0.00953720559524332</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04283504093664104</v>
+        <v>0.006283787600486092</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05076089588052612</v>
+        <v>0.0364482041004997</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.005841149420574594</v>
+        <v>0.01955149643732543</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001817609049743403</v>
+        <v>0.04502856778381817</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.003272591059086498</v>
+        <v>0.02568807881744763</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.006140182088624971</v>
+        <v>0.04798445161037927</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.05863926897496707</v>
+        <v>0.06199925712098768</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04109210260319212</v>
+        <v>0.02411112947542102</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.07286455742536553</v>
+        <v>-0.05251792841898704</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2698783939305499</v>
+        <v>0.2672503127081636</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03768632977820006</v>
+        <v>0.009377643911067714</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05146068959903415</v>
+        <v>0.0496245758189509</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003572455850789717</v>
+        <v>0.0225385431992386</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002738781867472095</v>
+        <v>0.03019935166052543</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02096580235994763</v>
+        <v>0.00448394312028811</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009816050683073081</v>
+        <v>0.01469746896895578</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06024196221129603</v>
+        <v>0.01665765573449123</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05357578581740623</v>
+        <v>0.01059561704727304</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03523557146422966</v>
+        <v>0.001961169055179463</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04081803039016293</v>
+        <v>0.009024748485964195</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04579540740732591</v>
+        <v>0.03190159621779082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01611223419338033</v>
+        <v>0.007818697965085821</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0534329186178469</v>
+        <v>0.04348865144151411</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0191197571002029</v>
+        <v>0.04923745027193338</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05216608812309029</v>
+        <v>0.07706756411997011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004596812612824346</v>
+        <v>0.0238557248035868</v>
       </c>
       <c r="V16" t="n">
-        <v>0.06563555643530121</v>
+        <v>0.0675875548795891</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07217767472599161</v>
+        <v>0.04527501853244591</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05821201857312383</v>
+        <v>0.0506173229454</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06442468099231861</v>
+        <v>0.04573309255910717</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01814063879987113</v>
+        <v>0.01441007625588248</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003928086121368446</v>
+        <v>0.06339811501603793</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05691217126918554</v>
+        <v>0.05764591335706876</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.03310132967225154</v>
+        <v>0.07109804287354413</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.02285360999662788</v>
+        <v>0.003189223181260144</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0057072709353288</v>
+        <v>0.04825924709529596</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04204044489388011</v>
+        <v>0.0605689430991254</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05274704977417986</v>
+        <v>0.06968704838342753</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1647650441919473</v>
+        <v>0.1596809718707339</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3285485916214193</v>
+        <v>0.3016214585703063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07596898328580504</v>
+        <v>0.0677223803424577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07448545959658763</v>
+        <v>0.0491867863583659</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07720969515444025</v>
+        <v>0.0756747385827827</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003666475690771916</v>
+        <v>0.02220468255451147</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01283372050436513</v>
+        <v>0.00437442217694886</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0780067684328941</v>
+        <v>0.07381471286247492</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0133110879829416</v>
+        <v>0.05075376330748705</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02096122057384393</v>
+        <v>0.006210419506038919</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01675346050848767</v>
+        <v>0.05327556802745443</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05610734542347973</v>
+        <v>0.02689598538422548</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06642946587321064</v>
+        <v>0.0006928763129854613</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00267763677366813</v>
+        <v>0.001219677991059602</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03134171407498248</v>
+        <v>0.06358238302121087</v>
       </c>
       <c r="S17" t="n">
-        <v>0.003779612651020305</v>
+        <v>0.003093694645835026</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02424238863355615</v>
+        <v>0.06010512933033337</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02248886031883696</v>
+        <v>0.002292702880489323</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01210214543343936</v>
+        <v>0.06478841210207041</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05497685668457868</v>
+        <v>0.05937407249139242</v>
       </c>
       <c r="X17" t="n">
-        <v>0.07755145395689066</v>
+        <v>0.05543137945558645</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.001662528563393719</v>
+        <v>0.02285828585269065</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05497036067629413</v>
+        <v>0.05987151475432125</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06567364023641417</v>
+        <v>0.02446203215944476</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.001807841315181461</v>
+        <v>0.01033152248758811</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03070968749913354</v>
+        <v>0.01264000155164256</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01573720983978586</v>
+        <v>0.005280810326815747</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.05088151036674606</v>
+        <v>0.0257872248341259</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.03974526350860699</v>
+        <v>0.03439697020757757</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01391760644064355</v>
+        <v>0.06367785049208315</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2019365582916892</v>
+        <v>0.1719701244552567</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1742826223260606</v>
+        <v>0.1742126393935051</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0140435471066418</v>
+        <v>0.00913933253083868</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00177715715177073</v>
+        <v>0.06609485808250759</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002465250436933981</v>
+        <v>0.00744634821001164</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01513827064081772</v>
+        <v>0.05341343905424097</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007472382065951959</v>
+        <v>0.01303058738880419</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005499105093390127</v>
+        <v>0.05145197930150882</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06281173927764304</v>
+        <v>0.008888146341622214</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06798550442217939</v>
+        <v>0.05536591262016177</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01217982113193472</v>
+        <v>0.07104370396388866</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01329796349715088</v>
+        <v>0.008485052185261981</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04510300739354361</v>
+        <v>0.006176194939775526</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03319412292319268</v>
+        <v>0.00438596206118811</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07179163102256685</v>
+        <v>0.0375459909964841</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03322844395392321</v>
+        <v>0.009277677369756413</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06267973967324107</v>
+        <v>0.06597269922612028</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003825991524426624</v>
+        <v>0.009627648511245932</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04052682283377063</v>
+        <v>0.05323350567362074</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03408169799126396</v>
+        <v>0.05525575018843384</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03774753864539213</v>
+        <v>0.03417718238259768</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06177912791255386</v>
+        <v>0.03654199920495093</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.008911520709082818</v>
+        <v>0.0321421254992465</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.03342213621936559</v>
+        <v>0.06135527265094842</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07206420914193494</v>
+        <v>0.04036875372895853</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.07775202238194948</v>
+        <v>0.0569798595809167</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.004746247829725765</v>
+        <v>0.002949852830457068</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07339605032414603</v>
+        <v>0.05215871627443806</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.04154938484932399</v>
+        <v>0.02770907249539449</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.06152956384618232</v>
+        <v>0.06978237670662026</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03927001774928537</v>
+        <v>0.0555653284199867</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.223051540111383</v>
+        <v>0.1939488958798326</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07975579754485199</v>
+        <v>0.04985199477864405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008768677940518228</v>
+        <v>0.00846918270905205</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01750634443758883</v>
+        <v>0.007044536243355225</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03470059186197083</v>
+        <v>0.03342439269373677</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07539232441200665</v>
+        <v>0.03954583111788638</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07555450477590131</v>
+        <v>0.07784288283121014</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01067066693443821</v>
+        <v>0.03032238007807899</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07360848548542623</v>
+        <v>0.02504261568417027</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03559199170979059</v>
+        <v>0.04102216658421074</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01551248937371463</v>
+        <v>0.02472878646638184</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04279469540180512</v>
+        <v>0.01086372637405082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04761297758381592</v>
+        <v>0.01527479021335798</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005257605233717579</v>
+        <v>0.06888774627618943</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01215032552666726</v>
+        <v>0.003925248620278609</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00403686423226308</v>
+        <v>0.00271478760254157</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04177850711011836</v>
+        <v>0.003864373375134437</v>
       </c>
       <c r="V19" t="n">
-        <v>0.03560315125177831</v>
+        <v>0.06131175121540876</v>
       </c>
       <c r="W19" t="n">
-        <v>0.048650242050884</v>
+        <v>0.07302836143147137</v>
       </c>
       <c r="X19" t="n">
-        <v>0.06117422929352701</v>
+        <v>0.04547214171107552</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07099015230466715</v>
+        <v>0.03099592541226998</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.004129314618107162</v>
+        <v>0.03442818670324256</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01585252065192418</v>
+        <v>0.07248832333729543</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.001478039418469867</v>
+        <v>0.03617016077525663</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0641762093984259</v>
+        <v>0.07010604569137302</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02748255520211008</v>
+        <v>0.03792601423057482</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03299839086757287</v>
+        <v>0.08197298800466836</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.03241988871282046</v>
+        <v>0.0001494047702973475</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.02435245666511823</v>
+        <v>0.01312525506878685</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07010917651836181</v>
+        <v>0.06316901527490057</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1266028475203295</v>
+        <v>0.1265414295023276</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001207253967627124</v>
+        <v>0.03339358172783639</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07064962829676459</v>
+        <v>0.02076923729389812</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007702823873948721</v>
+        <v>0.008385339300506863</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004675442092790301</v>
+        <v>0.01497578248468086</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02199437782140539</v>
+        <v>0.009860252695798625</v>
       </c>
       <c r="K20" t="n">
-        <v>0.008875038774934811</v>
+        <v>0.02549512513921038</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03087527208217436</v>
+        <v>0.01425698086409759</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07812481713323682</v>
+        <v>0.05528632559485388</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02677014452961641</v>
+        <v>0.01331751733869425</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04242552570218781</v>
+        <v>0.004776690196087301</v>
       </c>
       <c r="P20" t="n">
-        <v>0.003293990078449467</v>
+        <v>0.03024311594792905</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02240943839932967</v>
+        <v>0.06240854073077496</v>
       </c>
       <c r="R20" t="n">
-        <v>0.02508293778303883</v>
+        <v>0.05482648829885103</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02691900828110798</v>
+        <v>0.01302276822704444</v>
       </c>
       <c r="T20" t="n">
-        <v>0.007790779101227803</v>
+        <v>0.07096429445378682</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0479908716135786</v>
+        <v>0.03815672441630982</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07382337583866816</v>
+        <v>0.07768331110997945</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06470997789332182</v>
+        <v>0.03161192554627151</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01834385460239776</v>
+        <v>0.02789706686489571</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02743636994891504</v>
+        <v>0.003528293981668547</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01234463922627399</v>
+        <v>0.063247775749551</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04386144408951669</v>
+        <v>0.006262291294116267</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06597874283373402</v>
+        <v>0.05971995857574124</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02440140386703829</v>
+        <v>0.07162277257682015</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.02703908200010611</v>
+        <v>0.03155376423280325</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.07735582530763199</v>
+        <v>0.07797603008369454</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.05708608482017252</v>
+        <v>0.004252056156375632</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.08083185004080477</v>
+        <v>0.07450598911772224</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.01122103053295644</v>
+        <v>0.001705204562111364</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1427549277396658</v>
+        <v>0.154526339835962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01130687224560062</v>
+        <v>0.07151524905016794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02720742327685327</v>
+        <v>0.0626724048152397</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04944052089647019</v>
+        <v>0.01148841027379703</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03628213625641693</v>
+        <v>0.0721578116880619</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01744327469121069</v>
+        <v>0.03674338782820886</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0625152506466268</v>
+        <v>0.07959916323502136</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01304437928066362</v>
+        <v>0.01405727528491599</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07737772949672529</v>
+        <v>0.01829239791323686</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01719260871824922</v>
+        <v>0.003971135053898787</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0182762720868289</v>
+        <v>0.0007954750220809177</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01785660743226716</v>
+        <v>0.001553091194625965</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07337755563388502</v>
+        <v>0.03193050957050371</v>
       </c>
       <c r="R21" t="n">
-        <v>0.004726916378899109</v>
+        <v>0.006211796119094258</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04256588829463689</v>
+        <v>0.005336100110925175</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01082600761191682</v>
+        <v>0.04583917037842906</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003349657958797319</v>
+        <v>0.02157004681156836</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07862052007673341</v>
+        <v>0.08644424026131235</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07872997661288671</v>
+        <v>0.04292486701886673</v>
       </c>
       <c r="X21" t="n">
-        <v>0.003054527684476881</v>
+        <v>0.04384991959288938</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02340218349720363</v>
+        <v>0.01840833641521583</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02034499125214384</v>
+        <v>0.00162583841900608</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03647090872567273</v>
+        <v>0.07033074367976044</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04772043360440263</v>
+        <v>0.01034206423763882</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0005191478220077417</v>
+        <v>0.07167883274136701</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07338915488428024</v>
+        <v>0.08826887452215981</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.06043543989875785</v>
+        <v>0.04266736020004916</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02601400852970681</v>
+        <v>0.02975692135561316</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.06850960650567982</v>
+        <v>0.009968577206345235</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.01640663985101027</v>
+        <v>-0.02984487959186669</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.154873423733785</v>
+        <v>0.1539651363121869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05181288897111196</v>
+        <v>0.01322975546509031</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01318142741273263</v>
+        <v>0.06359298288187315</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0123280344730799</v>
+        <v>0.02387757614451611</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04294677777391157</v>
+        <v>0.00411809252730316</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004553988052512909</v>
+        <v>0.0009808654463161035</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01194992422854298</v>
+        <v>0.006552080195388549</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02877755445109293</v>
+        <v>0.01142806767948104</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05839963614796001</v>
+        <v>0.02906151956695485</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003984374804639802</v>
+        <v>0.06687902692689432</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01544108433577644</v>
+        <v>0.003889364723378341</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04904870532492376</v>
+        <v>0.04332966891469392</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005092572216125005</v>
+        <v>0.005030617425696219</v>
       </c>
       <c r="R22" t="n">
-        <v>0.053827288768915</v>
+        <v>0.04728380264119684</v>
       </c>
       <c r="S22" t="n">
-        <v>0.008660956358380921</v>
+        <v>0.03218133925353456</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001537676135933937</v>
+        <v>0.06776597155618116</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001871823616029438</v>
+        <v>0.01214305787034943</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0386573785727282</v>
+        <v>0.05644979189681491</v>
       </c>
       <c r="W22" t="n">
-        <v>0.05923797450065508</v>
+        <v>0.06782877409950577</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03874061148960322</v>
+        <v>0.06703372190730028</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0343680937905179</v>
+        <v>0.0690297744010475</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.005892454381000643</v>
+        <v>0.02343086984578674</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0226550022036221</v>
+        <v>0.01325885157602228</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.07591819901036753</v>
+        <v>0.05307580055850404</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07931350343795103</v>
+        <v>0.03311389276712494</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.06269005162731427</v>
+        <v>0.07048955512059579</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.07765282175572351</v>
+        <v>0.02846121554082811</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.07687825007168973</v>
+        <v>0.01814064922697398</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.0645809460871578</v>
+        <v>0.06834331384064768</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05524924805868024</v>
+        <v>0.07881842909534316</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1776758915135586</v>
+        <v>0.1755114229916559</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07789320899059776</v>
+        <v>0.07541115660854404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006303891907176127</v>
+        <v>0.01793097732984689</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04652595193310918</v>
+        <v>0.04213990459345311</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003839212768460172</v>
+        <v>0.05245850123292125</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09246128782890684</v>
+        <v>0.02963349861389675</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04336650554131091</v>
+        <v>0.07073755516248195</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04282622135336402</v>
+        <v>0.009606967405463053</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01649427910572272</v>
+        <v>0.06258080225028544</v>
       </c>
       <c r="N23" t="n">
-        <v>0.009581418062163389</v>
+        <v>0.02880099528942685</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02820682907874941</v>
+        <v>0.008602685223288272</v>
       </c>
       <c r="P23" t="n">
-        <v>0.08734122842840597</v>
+        <v>0.03369408792208609</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0094994100817507</v>
+        <v>0.01467843678851254</v>
       </c>
       <c r="R23" t="n">
-        <v>0.087028525051231</v>
+        <v>0.06230243877218947</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05573267757008779</v>
+        <v>0.07418505364698989</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04781285862392972</v>
+        <v>0.04697077151374412</v>
       </c>
       <c r="U23" t="n">
-        <v>0.005015630527920145</v>
+        <v>0.01195302081313132</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0004797250235092937</v>
+        <v>0.04125619251536436</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07541634829914927</v>
+        <v>0.06553683836002949</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007895653402720231</v>
+        <v>0.01184208947654923</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.037053998001823</v>
+        <v>0.003480206111202163</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.003988804272937641</v>
+        <v>0.01149512563729939</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.002197736357439118</v>
+        <v>0.02994602982146639</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02658970387281313</v>
+        <v>0.04032268235758722</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01621185664969383</v>
+        <v>0.01200855563912825</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.09450653858024398</v>
+        <v>0.05328077591082765</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.02091026478103926</v>
+        <v>0.01035595564493621</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.04395862530428105</v>
+        <v>0.07558569516811256</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.01086160860146442</v>
+        <v>0.003203000191235963</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.07510548127100788</v>
+        <v>0.07171703472764612</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.145111523654933</v>
+        <v>0.1455581035271735</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04540765582489337</v>
+        <v>0.01817326299691968</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02898658976493729</v>
+        <v>0.05072849413608264</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01624144085724074</v>
+        <v>0.002238296545564471</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004043958701426924</v>
+        <v>0.003271550883740699</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0182414896000918</v>
+        <v>0.02902978770811904</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007985764315526812</v>
+        <v>0.02927646861894051</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008075799813346838</v>
+        <v>0.02193574933365257</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008889524715029729</v>
+        <v>0.008372886160764374</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03845413353113197</v>
+        <v>0.02205997293157196</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01059560982030369</v>
+        <v>0.008420439913288686</v>
       </c>
       <c r="P24" t="n">
-        <v>0.005302984315395804</v>
+        <v>0.0715016699112599</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007234086868220134</v>
+        <v>0.03037051359483549</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08541963741962219</v>
+        <v>0.01951842264125964</v>
       </c>
       <c r="S24" t="n">
-        <v>0.003729779694506089</v>
+        <v>0.01904894872137607</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03648509604213188</v>
+        <v>0.04765657168447076</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04592494471254278</v>
+        <v>0.03661780209922915</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06098383452221354</v>
+        <v>0.0732003119507144</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04724182774267173</v>
+        <v>0.07322714164539527</v>
       </c>
       <c r="X24" t="n">
-        <v>0.005992114404350543</v>
+        <v>0.05016684569753094</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06431247852925644</v>
+        <v>0.02438401143803522</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02029273508153697</v>
+        <v>0.02107633359588412</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.08318488203019792</v>
+        <v>0.03090160205075509</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.07552837394583223</v>
+        <v>0.07072019377059378</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.03547769357540168</v>
+        <v>0.06277271920887434</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.06662750983553146</v>
+        <v>0.003756916212824419</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07695417715187221</v>
+        <v>0.07366758510524904</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.06104697235504874</v>
+        <v>0.06237598834164138</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.03133890482973843</v>
+        <v>0.03552951310142632</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.03849930279400976</v>
+        <v>0.05927091326668833</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1582571348138108</v>
+        <v>0.1576895747977251</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0555762045766071</v>
+        <v>0.04524825683542506</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03366203418635375</v>
+        <v>0.08313316248959343</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007116584451801514</v>
+        <v>0.03263754963733409</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03670303256165779</v>
+        <v>0.04339361202714757</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003453331024981176</v>
+        <v>0.0186014690633906</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003876750044924627</v>
+        <v>0.002358339801361416</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008672340485666876</v>
+        <v>0.01211009295177974</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05709584766183089</v>
+        <v>0.02879565355859722</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03356101635526301</v>
+        <v>0.05544562689235164</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00526958590051439</v>
+        <v>0.009960814622986836</v>
       </c>
       <c r="P25" t="n">
-        <v>0.06322722000250933</v>
+        <v>0.08619917659738065</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08658807161216983</v>
+        <v>0.0569461818581361</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08531159206384578</v>
+        <v>0.04751755855747437</v>
       </c>
       <c r="S25" t="n">
-        <v>0.00323445812948159</v>
+        <v>0.03303494582379066</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0335599974540788</v>
+        <v>0.02863334280510534</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01244850770894678</v>
+        <v>0.02019724059179886</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0263311424539743</v>
+        <v>0.0536745148141503</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004610998475678452</v>
+        <v>0.01296007787753084</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02624921830570184</v>
+        <v>0.01103163737169284</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0003690200688436559</v>
+        <v>0.006888478700734299</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05588742780416682</v>
+        <v>0.03492786921681294</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05733318116337924</v>
+        <v>0.03731457324688377</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.06324316218790596</v>
+        <v>0.01699096808524309</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03457759354031436</v>
+        <v>0.03897775987296137</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.08651832558376216</v>
+        <v>0.02254960672148629</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0679505575603907</v>
+        <v>0.08325110553935378</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01001360545597343</v>
+        <v>0.03149652285132633</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.04536429961637625</v>
+        <v>0.04572386158817061</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.0331051179453974</v>
+        <v>0.03725331983404287</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1368495426841972</v>
+        <v>0.1381943828126556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05789435894585371</v>
+        <v>0.05079253082298291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01460809513959452</v>
+        <v>0.01988053037953047</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004103491261490438</v>
+        <v>0.0235969644416676</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02321990621398753</v>
+        <v>0.02632573819010507</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005769217507681212</v>
+        <v>0.00479138687447354</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002273389572845245</v>
+        <v>0.003408342187304886</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005168951656291803</v>
+        <v>0.01707609971150883</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003794353612443287</v>
+        <v>0.01779553782178083</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05427434376331394</v>
+        <v>0.05171140502298385</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01305445241824383</v>
+        <v>0.02818268508721331</v>
       </c>
       <c r="P26" t="n">
-        <v>0.007534036098536326</v>
+        <v>0.03274996717239517</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05987458423240886</v>
+        <v>0.03276206528876762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03866887119578381</v>
+        <v>0.02284806427513181</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02317174172567806</v>
+        <v>0.01562077421928122</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08676050236979661</v>
+        <v>0.03261699663047719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01061239079563399</v>
+        <v>0.00589475398262961</v>
       </c>
       <c r="V26" t="n">
-        <v>0.08376736550867617</v>
+        <v>0.07679714172955299</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05509055194575205</v>
+        <v>0.08875669507395607</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02578384120795361</v>
+        <v>0.01692611352777981</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06585363469289694</v>
+        <v>0.03372225840803837</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0136056495313764</v>
+        <v>0.006608041601409573</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.05887645700802604</v>
+        <v>0.06818106582037622</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07821156610920614</v>
+        <v>0.05195722603179755</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03988055718856318</v>
+        <v>0.06392810400159127</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03697255899717985</v>
+        <v>0.03000169278469125</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.07271131031368049</v>
+        <v>0.06835691714114452</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01723196153580782</v>
+        <v>0.04733483064317622</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.04123185945129815</v>
+        <v>0.06137607112825239</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1135548476747821</v>
+        <v>0.115548077803632</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1518446958111447</v>
+        <v>0.1544704892044595</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01509779340833126</v>
+        <v>0.07405438796263381</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08442725589081472</v>
+        <v>0.06027418805490924</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0113352178366145</v>
+        <v>0.06998656850973843</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01587757782377361</v>
+        <v>0.02070987341307453</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03985918064424167</v>
+        <v>0.0124309842319092</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04824608098150679</v>
+        <v>0.009980451033862478</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02363645553462694</v>
+        <v>0.0126452364804759</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01473565238107961</v>
+        <v>0.0274894216207009</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06558609245798278</v>
+        <v>0.07333996990055573</v>
       </c>
       <c r="O27" t="n">
-        <v>0.002897836165617394</v>
+        <v>0.02697497705269684</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08320386339171174</v>
+        <v>0.07921665594512318</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.005997457225578413</v>
+        <v>0.01556839535843114</v>
       </c>
       <c r="R27" t="n">
-        <v>0.008838582701421292</v>
+        <v>0.01466047733978143</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0268690802928039</v>
+        <v>0.003776303927316856</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02193404103195966</v>
+        <v>0.005871623889219402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02887447830694859</v>
+        <v>0.03384187311822388</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01469742922512729</v>
+        <v>0.003845761201282037</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0100810602397985</v>
+        <v>0.01402714598502116</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0571981283960863</v>
+        <v>0.05054178964601282</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05534510391126624</v>
+        <v>0.04496715956137801</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01955168071669218</v>
+        <v>0.04636564910158328</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04947863799438749</v>
+        <v>0.008255249912623391</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03322394834378679</v>
+        <v>0.04235550885436259</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.08139806684562786</v>
+        <v>0.06387084738183706</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01099181453641566</v>
+        <v>0.06305565244346513</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.034167355174486</v>
+        <v>0.03305404314316372</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.07659781613647589</v>
+        <v>0.02379219391849748</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.05985231240483702</v>
+        <v>0.06504761101212039</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1144263440666751</v>
+        <v>0.1163247761972346</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1433249152458072</v>
+        <v>0.1430890216858398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07933651078957946</v>
+        <v>0.04131837471338516</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0189932879502754</v>
+        <v>0.06943444656389461</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00909213014103448</v>
+        <v>0.02067244041390345</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02576402140920853</v>
+        <v>0.002605950287320886</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009291522521112551</v>
+        <v>0.0382007767477207</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01273139569037491</v>
+        <v>0.002053826551022421</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02418808760112304</v>
+        <v>0.006219817150788415</v>
       </c>
       <c r="M28" t="n">
-        <v>0.008078660202193623</v>
+        <v>0.08224971447703254</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00565396291377283</v>
+        <v>0.00476986583971803</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05012621556934237</v>
+        <v>0.02084974214836514</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05493704231085605</v>
+        <v>0.00790672571432322</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01013026229351711</v>
+        <v>0.02104262395339013</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06718633806607781</v>
+        <v>0.06157767164244118</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05836993389293287</v>
+        <v>0.01924636990171985</v>
       </c>
       <c r="T28" t="n">
-        <v>0.09173284526925933</v>
+        <v>0.08019948595157361</v>
       </c>
       <c r="U28" t="n">
-        <v>0.005932015763224508</v>
+        <v>0.005721509237282845</v>
       </c>
       <c r="V28" t="n">
-        <v>0.09187854249084187</v>
+        <v>0.07430766315574286</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01284382001132753</v>
+        <v>0.06956058961565345</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01908514522009766</v>
+        <v>0.001809025903224533</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.005649246893943758</v>
+        <v>0.02396580425040087</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08251857665350182</v>
+        <v>0.0007234448805861204</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.00745407881175083</v>
+        <v>0.03641169802978447</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.04735669260579799</v>
+        <v>0.08362273993017369</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01765352799646686</v>
+        <v>0.06517255191780348</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02296104440308581</v>
+        <v>0.06416056532701163</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0714500176971424</v>
+        <v>0.03203040544169559</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.02150664871805686</v>
+        <v>0.04442291034726416</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.06809842611410181</v>
+        <v>0.01974325990677691</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.09418036491585743</v>
+        <v>0.0907411455445794</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1721414752713824</v>
+        <v>0.1660885209300741</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06670309228171009</v>
+        <v>0.02877897469077213</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0785220157453685</v>
+        <v>0.07830881125666551</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0250870236025472</v>
+        <v>0.06267082191842729</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08442644208482063</v>
+        <v>0.04240593780563529</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002845510027059373</v>
+        <v>0.005311333272314358</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06883014146575543</v>
+        <v>0.01027803341479197</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002743791996815108</v>
+        <v>0.04614270931392375</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003565278015601921</v>
+        <v>0.01695280676722945</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03783109888310761</v>
+        <v>0.05353387402644936</v>
       </c>
       <c r="O29" t="n">
-        <v>0.003699218473930271</v>
+        <v>0.07727025473027668</v>
       </c>
       <c r="P29" t="n">
-        <v>0.09312611395687105</v>
+        <v>0.04950797398097145</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03939254957432167</v>
+        <v>0.01612463740059469</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01476923960402187</v>
+        <v>0.01319970937650736</v>
       </c>
       <c r="S29" t="n">
-        <v>0.005874610736430879</v>
+        <v>0.02467898487994448</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0295493280321557</v>
+        <v>0.02334677781735491</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07440010253071033</v>
+        <v>0.007043938318203235</v>
       </c>
       <c r="V29" t="n">
-        <v>0.008687048299995531</v>
+        <v>0.01388335544459167</v>
       </c>
       <c r="W29" t="n">
-        <v>0.05802919711426177</v>
+        <v>0.03490906068887299</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04041247155335714</v>
+        <v>0.04643193113918714</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001164894588497878</v>
+        <v>0.02334629937567854</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.04066974778771228</v>
+        <v>0.012831301215343</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.008758182778084541</v>
+        <v>0.024062350085463</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.000951660421113075</v>
+        <v>0.07364429410709686</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03188121342582573</v>
+        <v>0.0322312414347387</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.004357253707126352</v>
+        <v>0.00813837729866259</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.06304576970955827</v>
+        <v>0.04861693786213411</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01749338555420896</v>
+        <v>0.07398766091113697</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0931836180490308</v>
+        <v>0.05236161146703253</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1427677172223787</v>
+        <v>0.1248529527507469</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1001750591011355</v>
+        <v>0.1012575416870557</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0593533391384669</v>
+        <v>0.02299212631363476</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02098338705879219</v>
+        <v>0.0657824450729687</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005248988404628386</v>
+        <v>0.009147090615162615</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01297690836007067</v>
+        <v>0.01069797045561447</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02894066272901449</v>
+        <v>0.03955384533102026</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01822391372895545</v>
+        <v>0.006940912127205118</v>
       </c>
       <c r="L30" t="n">
-        <v>0.008725103533786945</v>
+        <v>0.03949112187937414</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06259511132250302</v>
+        <v>0.01870375722053772</v>
       </c>
       <c r="N30" t="n">
-        <v>0.02158010645046968</v>
+        <v>0.002945576223331138</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003353889091378453</v>
+        <v>0.00404233226669736</v>
       </c>
       <c r="P30" t="n">
-        <v>0.04389150615239742</v>
+        <v>0.07597058209752425</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0437488394509031</v>
+        <v>0.004570714244531275</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06200670803610126</v>
+        <v>0.04549429336737647</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03261559873384953</v>
+        <v>0.0383642949507217</v>
       </c>
       <c r="T30" t="n">
-        <v>0.06382027326139753</v>
+        <v>0.07614615678842436</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001884915331165273</v>
+        <v>0.02936158028383984</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03996845080538067</v>
+        <v>0.01779252332080434</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05726150693010971</v>
+        <v>0.0759796937634953</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0365968511203577</v>
+        <v>0.04108947601686729</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.03115270220422926</v>
+        <v>0.06017359358269526</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.02932395982442948</v>
+        <v>0.04561275087743136</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02944856349127322</v>
+        <v>0.005240889819683193</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.05776015318282973</v>
+        <v>0.07525169102260561</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.06007896774290232</v>
+        <v>0.002278686259160389</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0639887692329394</v>
+        <v>0.04955444486384644</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.06656580665141927</v>
+        <v>0.03376633756696507</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.01065767699836853</v>
+        <v>0.04183477133706149</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.02724734103188054</v>
+        <v>0.06122034233141999</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.06737878371594558</v>
+        <v>0.07283114963935999</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.115114072975364</v>
+        <v>0.1183883037968001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00790366920630306</v>
+        <v>0.0209568592636981</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0586373489680513</v>
+        <v>0.07155701108572424</v>
       </c>
       <c r="H31" t="n">
-        <v>1.789082071574045e-05</v>
+        <v>0.00238971491950235</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07748967961582164</v>
+        <v>0.07147523789117383</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005896150462635343</v>
+        <v>0.01963622460169009</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02698563433250159</v>
+        <v>0.01733865249886579</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03407314616144197</v>
+        <v>0.002143437617897444</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0163371362572299</v>
+        <v>0.02432241868891909</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05429419195302451</v>
+        <v>0.06375978842604348</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01037047718742772</v>
+        <v>0.03122976401341945</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0771119222745445</v>
+        <v>0.07273838813582614</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06222761666352863</v>
+        <v>0.05269344956913141</v>
       </c>
       <c r="R31" t="n">
-        <v>0.002455705534267226</v>
+        <v>0.005989473468361736</v>
       </c>
       <c r="S31" t="n">
-        <v>0.003222771458855435</v>
+        <v>0.01168085405667546</v>
       </c>
       <c r="T31" t="n">
-        <v>0.00133306396746918</v>
+        <v>0.04983933153847402</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02535430520372977</v>
+        <v>0.05133605435137564</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03246003972122292</v>
+        <v>0.001223338883853536</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02440173167408444</v>
+        <v>0.02269054203328094</v>
       </c>
       <c r="X31" t="n">
-        <v>0.05635195951667338</v>
+        <v>0.06491164960405367</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.07166751040181812</v>
+        <v>0.02813533883943995</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08018930449529389</v>
+        <v>0.03430111427259667</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06373195937568091</v>
+        <v>0.06361633006116979</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02420752945373029</v>
+        <v>0.01705909357796117</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01569978227855208</v>
+        <v>0.06420078462394976</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.05484536832224854</v>
+        <v>0.04577288916991091</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.05755537780779048</v>
+        <v>0.007746372628404724</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.01507601028491842</v>
+        <v>0.05652981643077211</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.04010271660043894</v>
+        <v>0.02472606974782842</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.05112331781694987</v>
+        <v>0.06063925763455246</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.09303105199829895</v>
+        <v>0.09492767317610742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01247946998883134</v>
+        <v>0.008945099333772728</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0356016678140864</v>
+        <v>0.002347507978352214</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01749057043765618</v>
+        <v>0.008044678656359345</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06552801998400844</v>
+        <v>0.00646533573826162</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02097348815966217</v>
+        <v>0.0418592414395126</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01621282351368182</v>
+        <v>0.007119013037761841</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02744893290883604</v>
+        <v>0.02916517443726616</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02045054234152712</v>
+        <v>0.03361154967311303</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02790147314080399</v>
+        <v>0.002015772710460917</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02376759998873055</v>
+        <v>0.0408413982458147</v>
       </c>
       <c r="P32" t="n">
-        <v>0.009783745428790284</v>
+        <v>0.05431329394964256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.004179847050524747</v>
+        <v>0.00470457208969829</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07529621985340627</v>
+        <v>0.04951510638187488</v>
       </c>
       <c r="S32" t="n">
-        <v>0.04532313672032806</v>
+        <v>0.06554145032149054</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06373449856311893</v>
+        <v>0.08449760097978494</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01970344956211099</v>
+        <v>0.02248085221776113</v>
       </c>
       <c r="V32" t="n">
-        <v>0.05964898535742422</v>
+        <v>0.04436076577713244</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04615115323040576</v>
+        <v>0.09598522160371696</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0176229869491055</v>
+        <v>0.0856636392705547</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.05077282226601768</v>
+        <v>0.07746179286065623</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.02268519404907512</v>
+        <v>0.00376221654826851</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.05654477456483135</v>
+        <v>0.03032458644751726</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.07865096980461674</v>
+        <v>0.05327164302305642</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01669052125252321</v>
+        <v>0.01661749793498644</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01236617632526919</v>
+        <v>0.02355494186633167</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.06766810044880187</v>
+        <v>0.07721965507974898</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.004479762848896337</v>
+        <v>0.006051823182113169</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.08084306744692953</v>
+        <v>0.0242585692149896</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.04782438711206987</v>
+        <v>0.03795619933500401</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1032312076268975</v>
+        <v>0.1064978926225647</v>
       </c>
       <c r="F33" t="n">
-        <v>0.008462409973726825</v>
+        <v>0.001345023025255255</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05903212233140873</v>
+        <v>0.06996192857916846</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05354327748580646</v>
+        <v>0.05497223201495591</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05632352841132378</v>
+        <v>0.07570694507722708</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03660828509890431</v>
+        <v>0.003294475513280008</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0103317584283239</v>
+        <v>0.0239195476328148</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03032703322879939</v>
+        <v>0.006586704146753514</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01784595824391662</v>
+        <v>0.02392509111961557</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04834348097629762</v>
+        <v>0.07319487462196325</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01023762356839011</v>
+        <v>0.01561678076635831</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05828792816546462</v>
+        <v>0.02348592579991762</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.07303258142220438</v>
+        <v>0.05615273467522201</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01489533929926395</v>
+        <v>0.0653454206383539</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03099886940971474</v>
+        <v>0.006472569191152496</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06983008784172026</v>
+        <v>0.07162290229116559</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006236831528051193</v>
+        <v>0.004817086500978629</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04805901470283493</v>
+        <v>0.002309816357244644</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01240684857718419</v>
+        <v>0.01422836165324045</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02164482715888021</v>
+        <v>0.034734670591006</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04583584797780357</v>
+        <v>0.004824976985873988</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.04864201593729028</v>
+        <v>0.07054293932554569</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.06475602205122337</v>
+        <v>0.01138881974795074</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02363724272088937</v>
+        <v>0.03326401865729371</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.06471015132374239</v>
+        <v>0.07927082149916037</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03600188546585101</v>
+        <v>0.05696080053215503</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.00146838339923892</v>
+        <v>0.003498957054371245</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.009201424979829618</v>
+        <v>0.04774898262644015</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.03929922029191529</v>
+        <v>0.06480659337553561</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.0800988719644439</v>
+        <v>0.07224072383406741</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.0939975736965554</v>
+        <v>0.09288518033918446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05786361577274388</v>
+        <v>0.00401303602883835</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001301348172525934</v>
+        <v>0.002420069301762994</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01819369226580835</v>
+        <v>0.03938719383892549</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01440941596760618</v>
+        <v>0.06854455973680988</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03260104996272209</v>
+        <v>0.06348601912784096</v>
       </c>
       <c r="K34" t="n">
-        <v>0.009834164298447431</v>
+        <v>0.003386911625021427</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05951231303000493</v>
+        <v>0.002160240863603387</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0356222376272204</v>
+        <v>0.07228701994797951</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02232344502635186</v>
+        <v>0.03067075548893643</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02988622079474644</v>
+        <v>0.01440223378855558</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02369125923111396</v>
+        <v>0.03411321809130072</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001612549823537795</v>
+        <v>0.002352499503306157</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04886796933924775</v>
+        <v>0.0294859217119719</v>
       </c>
       <c r="S34" t="n">
-        <v>0.006659765623938543</v>
+        <v>9.983225067000383e-05</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03592714656410693</v>
+        <v>0.06475418877049768</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04925211265526282</v>
+        <v>0.005013108128962733</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05578923279200192</v>
+        <v>0.06340743318308316</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06407748755886881</v>
+        <v>0.06376518599351995</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01028900358445891</v>
+        <v>0.01920486148264648</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04532733023239406</v>
+        <v>0.04709079435610435</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.03402521528391731</v>
+        <v>0.05687469440027422</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.05562025112985053</v>
+        <v>0.03276423148888036</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0615651453213924</v>
+        <v>0.07490313318823634</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.02845189662516027</v>
+        <v>0.06225276811427186</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.03562010217799486</v>
+        <v>0.00416961321776935</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06268730256225026</v>
+        <v>0.02723720745422851</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.03463557966801153</v>
+        <v>0.05621060311332581</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0643531469083139</v>
+        <v>0.05554266580267636</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.003934127822295623</v>
+        <v>-0.02694017671003928</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1011982709119388</v>
+        <v>0.1108661729582243</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0670395956951942</v>
+        <v>0.07131161804441905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04270812274499349</v>
+        <v>0.05501697943735993</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02306229048176591</v>
+        <v>0.0341990955697031</v>
       </c>
       <c r="I35" t="n">
-        <v>0.003284006661708215</v>
+        <v>0.01205702206289729</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01733164135987502</v>
+        <v>0.04773355401337202</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01664946017686651</v>
+        <v>0.04345582267182403</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02697869489006261</v>
+        <v>0.001226301074216408</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0290645166508576</v>
+        <v>0.006855958408493766</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06310707367038654</v>
+        <v>0.05592910284880072</v>
       </c>
       <c r="O35" t="n">
-        <v>0.007843464474539012</v>
+        <v>0.03675002138450788</v>
       </c>
       <c r="P35" t="n">
-        <v>0.06619320743197746</v>
+        <v>0.07212398482288908</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02091346758062327</v>
+        <v>0.0005769949503772817</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01961687752985095</v>
+        <v>0.02090164095261986</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01590963403071882</v>
+        <v>0.06927025724999711</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05519592654762062</v>
+        <v>0.005598729278688221</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01385564232192666</v>
+        <v>0.02189565693797278</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02263645210952513</v>
+        <v>0.001075859792157344</v>
       </c>
       <c r="W35" t="n">
-        <v>0.007797362228284215</v>
+        <v>0.0006983213189842826</v>
       </c>
       <c r="X35" t="n">
-        <v>0.006855069032064245</v>
+        <v>0.03657453764983182</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04559154536347295</v>
+        <v>0.01736828281273961</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.06221260568341196</v>
+        <v>0.05021554657165259</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04664700486128991</v>
+        <v>0.06816323697518484</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05869255748865455</v>
+        <v>0.05883624970669041</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.06262278190648338</v>
+        <v>0.01299792797830496</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0588832392130863</v>
+        <v>0.06595919063671159</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.01956882419301965</v>
+        <v>0.005859690962715043</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0582169694777847</v>
+        <v>0.07071741885531312</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.06152196619395605</v>
+        <v>0.05663099703157572</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.0149250054874009</v>
+        <v>0.02393126726749577</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.09852434577662586</v>
+        <v>0.09926254095834712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03769441533067215</v>
+        <v>0.02602537082639604</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03191749440126974</v>
+        <v>0.02841412794254636</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0445493399822296</v>
+        <v>0.002069529155632805</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04382864407236219</v>
+        <v>0.04140274677294054</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05349369909618802</v>
+        <v>0.03671338154609993</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01184254870197343</v>
+        <v>0.02014902400147082</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01416281660196114</v>
+        <v>0.04741082235435488</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01191815647575142</v>
+        <v>0.006454855595920725</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0006961402434216359</v>
+        <v>0.002862977724408737</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02122482559465361</v>
+        <v>0.04526968056455054</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0007076420948248403</v>
+        <v>0.003705083674346258</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01331585894057044</v>
+        <v>0.0382376622114795</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06344396386199685</v>
+        <v>0.05674820240803766</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0009862254399622104</v>
+        <v>0.02590529398015444</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05133526709033492</v>
+        <v>0.05475487598125459</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02060174857028787</v>
+        <v>0.02647614161428855</v>
       </c>
       <c r="V36" t="n">
-        <v>0.07309573107075139</v>
+        <v>0.05863180708682388</v>
       </c>
       <c r="W36" t="n">
-        <v>0.07470763339602983</v>
+        <v>0.07583013065863686</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01263386236353904</v>
+        <v>0.04145078787157254</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.08468687417087691</v>
+        <v>0.03136431186390976</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03364241753071419</v>
+        <v>0.01827559421501362</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.04759893271538589</v>
+        <v>0.01104940980504349</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04465769370129632</v>
+        <v>0.04521206508911651</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.02941236409427225</v>
+        <v>0.06724734197182342</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01334976101550661</v>
+        <v>0.02588299980519553</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.09251577959708239</v>
+        <v>0.05544307621247233</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.03577725696526322</v>
+        <v>0.04185467642103111</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03620290688082187</v>
+        <v>0.06515802264547849</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.01004722059642655</v>
+        <v>-0.002577753549880305</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1229737573492324</v>
+        <v>0.1137845112395323</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05951403586543845</v>
+        <v>0.07894190203242001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06184423901640498</v>
+        <v>0.02671509948800451</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0006137882057116242</v>
+        <v>0.01340565854735191</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01202308023844183</v>
+        <v>0.02481416845954108</v>
       </c>
       <c r="J37" t="n">
-        <v>0.001520005277058348</v>
+        <v>0.0345329748154168</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05914596657799756</v>
+        <v>0.05585963368164047</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0023442992744248</v>
+        <v>0.001834736624870445</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0003487236144663423</v>
+        <v>0.003398601642204785</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08294562301531912</v>
+        <v>0.04985426026018708</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04204007461645579</v>
+        <v>0.003237124571952757</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05023493179982515</v>
+        <v>0.02211470894879893</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02670264520001999</v>
+        <v>0.04947040650378182</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01657254895289698</v>
+        <v>0.01069474066016044</v>
       </c>
       <c r="S37" t="n">
-        <v>0.04422402922593057</v>
+        <v>0.06839673223792696</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03908925365605725</v>
+        <v>0.02050211739958049</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01684685426757333</v>
+        <v>0.07680809232984842</v>
       </c>
       <c r="V37" t="n">
-        <v>0.026250739459569</v>
+        <v>0.04864739429705645</v>
       </c>
       <c r="W37" t="n">
-        <v>0.009559229798338491</v>
+        <v>0.003761701301173443</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05444033249078718</v>
+        <v>0.003794598871566206</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02497641053681224</v>
+        <v>0.01293253286092026</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02249468708210551</v>
+        <v>0.02892208054519618</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04333678192740723</v>
+        <v>0.07477614290890418</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.00434716299166199</v>
+        <v>0.0233982976004561</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.08915814993412557</v>
+        <v>0.005568782562716689</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.0707847714015242</v>
+        <v>0.07837328794613133</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.03598748277179667</v>
+        <v>0.04177038166834393</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.08355468399530998</v>
+        <v>0.06589241801838081</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.01909946880653996</v>
+        <v>0.07158142321546748</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01136771671526596</v>
+        <v>-0.006956544824441795</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.114741062866491</v>
+        <v>0.1161577895704015</v>
       </c>
       <c r="F38" t="n">
-        <v>0.066323584833698</v>
+        <v>0.01713030838503439</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01071442623507199</v>
+        <v>0.01839470521896149</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04341675254299098</v>
+        <v>0.04198515404641454</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02274845507005427</v>
+        <v>0.03322612825097857</v>
       </c>
       <c r="J38" t="n">
-        <v>0.008088725603051607</v>
+        <v>0.01009871886327652</v>
       </c>
       <c r="K38" t="n">
-        <v>0.005734351599657473</v>
+        <v>0.01456406710313441</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03498869435312108</v>
+        <v>0.04979442080401594</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02841507486714311</v>
+        <v>0.03443511305986546</v>
       </c>
       <c r="N38" t="n">
-        <v>0.004176336583120001</v>
+        <v>0.01162328614611977</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03168366138980239</v>
+        <v>0.03081450139134398</v>
       </c>
       <c r="P38" t="n">
-        <v>0.02700289304599016</v>
+        <v>0.01692188126991051</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0007961137853461448</v>
+        <v>0.04613189199154141</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07761722792705718</v>
+        <v>0.05412873719955488</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03434458902310464</v>
+        <v>0.03385053245754362</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06722390339780919</v>
+        <v>0.07810406860307632</v>
       </c>
       <c r="U38" t="n">
-        <v>0.006042742361994227</v>
+        <v>0.001265608697004486</v>
       </c>
       <c r="V38" t="n">
-        <v>0.03053066373430249</v>
+        <v>0.07635348516539614</v>
       </c>
       <c r="W38" t="n">
-        <v>0.06857873227672721</v>
+        <v>0.02587232893765039</v>
       </c>
       <c r="X38" t="n">
-        <v>0.04717574600991075</v>
+        <v>0.04938345574223633</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.04314086982850997</v>
+        <v>0.03371070127586456</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.001078050344677723</v>
+        <v>0.004049636038168326</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.01184409611289151</v>
+        <v>0.05203898796083753</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05692391236619564</v>
+        <v>0.03989661650413515</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0759226556648132</v>
+        <v>0.02097696902329833</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.02480206177076972</v>
+        <v>0.06661471089837079</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.07402195669557265</v>
+        <v>0.06884624820218989</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.01628405787346707</v>
+        <v>0.007223017732891776</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.08037966470314953</v>
+        <v>0.06256471903118442</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.06838888497903489</v>
+        <v>0.07551317751573167</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1264394738341848</v>
+        <v>0.1265694188853325</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06268569106211952</v>
+        <v>0.04524368260320958</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04139418723696122</v>
+        <v>0.007441836913310719</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0007437896701990626</v>
+        <v>0.003859530893608569</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06465211865901989</v>
+        <v>0.05888079397466164</v>
       </c>
       <c r="J39" t="n">
-        <v>0.023279256043577</v>
+        <v>0.02197047642948684</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02789771022248543</v>
+        <v>0.07236054868222425</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01339588937014569</v>
+        <v>0.008703921698011098</v>
       </c>
       <c r="M39" t="n">
-        <v>0.004866008160160602</v>
+        <v>0.004942615253011704</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05908610062041991</v>
+        <v>0.05900703357472681</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02186891061938721</v>
+        <v>0.01967308994132714</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05850810417679947</v>
+        <v>0.07145790145463719</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.05799883897921395</v>
+        <v>0.07790566576034025</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01247242492355383</v>
+        <v>0.01735219514403465</v>
       </c>
       <c r="S39" t="n">
-        <v>0.002036590990995665</v>
+        <v>0.020789396277598</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02953392480538479</v>
+        <v>0.001537232475482373</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04942629026547444</v>
+        <v>0.03742580165182841</v>
       </c>
       <c r="V39" t="n">
-        <v>0.06481265240404349</v>
+        <v>0.0410392953069024</v>
       </c>
       <c r="W39" t="n">
-        <v>0.05815843369483814</v>
+        <v>0.03657321010629885</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01111144377193528</v>
+        <v>0.02076918742881313</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.05485676980112204</v>
+        <v>0.0114549393948676</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.06297627385457026</v>
+        <v>0.04405660756941195</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.06322568830011557</v>
+        <v>0.07103787280371404</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02007478212380946</v>
+        <v>0.04138332040463263</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01855815484138547</v>
+        <v>0.05650749157178105</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.02278451345648069</v>
+        <v>0.06371110134170947</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.04044746153966007</v>
+        <v>0.07070291915151608</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.04412633439449477</v>
+        <v>0.01036284909566578</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.009021656011646879</v>
+        <v>0.003849483097187928</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.01774598456903637</v>
+        <v>0.03308809686384414</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1238501599014539</v>
+        <v>0.1258774951355507</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07343031968344285</v>
+        <v>0.04594159971187731</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0235485662337976</v>
+        <v>0.0111353902083731</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04677990647675143</v>
+        <v>0.06975263153217048</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0107302446788277</v>
+        <v>0.01662780350020466</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03558092106691746</v>
+        <v>0.03784205363120828</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01645663025275422</v>
+        <v>0.01674639336983134</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00489525865803912</v>
+        <v>0.01305091529270254</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0072522850557762</v>
+        <v>0.06039560999024483</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02183418748625313</v>
+        <v>0.07473519413204725</v>
       </c>
       <c r="O40" t="n">
-        <v>0.05446016085840233</v>
+        <v>0.01569801391701583</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03413307285802775</v>
+        <v>0.07293354353335571</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01639665611397339</v>
+        <v>0.00216463170311655</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01549301328675913</v>
+        <v>0.03061681856453559</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01602539674069551</v>
+        <v>0.01207267517723187</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02210954007987743</v>
+        <v>0.03486920695832015</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003108264249963984</v>
+        <v>0.01118986383424463</v>
       </c>
       <c r="V40" t="n">
-        <v>0.08111935676542355</v>
+        <v>0.04213279920562284</v>
       </c>
       <c r="W40" t="n">
-        <v>0.09298392146524281</v>
+        <v>0.07199054278787541</v>
       </c>
       <c r="X40" t="n">
-        <v>0.04903314921863355</v>
+        <v>0.004451647026133778</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.04290311501608945</v>
+        <v>0.04690581256529047</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0008104686681266487</v>
+        <v>0.008645169632377585</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.03312261153640912</v>
+        <v>0.01533121269825059</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05655449383810272</v>
+        <v>0.06112828747923605</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.09290458437600155</v>
+        <v>0.01291250084514191</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.02148838952559942</v>
+        <v>0.06047706925856138</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.08864951460114977</v>
+        <v>0.06282593397404863</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.01552295091353512</v>
+        <v>0.02503327689572418</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.02267302029542729</v>
+        <v>0.062393402575257</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.05287613902350635</v>
+        <v>0.05757831748328093</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1291608167635946</v>
+        <v>0.1354887921714577</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01024996435114015</v>
+        <v>0.04401765736652992</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004128465658870451</v>
+        <v>0.004169803275715357</v>
       </c>
       <c r="H41" t="n">
-        <v>0.006253266461415124</v>
+        <v>0.009692349945042401</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03662486690881003</v>
+        <v>0.0546689608184432</v>
       </c>
       <c r="J41" t="n">
-        <v>0.009537792442720208</v>
+        <v>0.008917246363753954</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004410605214461444</v>
+        <v>0.01153833788712124</v>
       </c>
       <c r="L41" t="n">
-        <v>0.007728691048409497</v>
+        <v>0.02595343095250017</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01734054336521034</v>
+        <v>0.01660503913365416</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0127487035660046</v>
+        <v>0.06541809596772467</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04391456265228512</v>
+        <v>0.04162969986312073</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04665964651549127</v>
+        <v>0.03137816234981919</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07323589459097403</v>
+        <v>0.07738203666304237</v>
       </c>
       <c r="R41" t="n">
-        <v>0.003694686477586429</v>
+        <v>0.02941395665948928</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01059834801717126</v>
+        <v>0.0003507754645750424</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06947224188251398</v>
+        <v>0.06843877755782048</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01914962719731332</v>
+        <v>0.0511490428630029</v>
       </c>
       <c r="V41" t="n">
-        <v>0.06278467505261838</v>
+        <v>0.01418822779515931</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07815800381981787</v>
+        <v>0.05602137751156983</v>
       </c>
       <c r="X41" t="n">
-        <v>0.05603169364325811</v>
+        <v>0.0003030267422524545</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06951331982143276</v>
+        <v>0.0201785900848388</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.02249650416299209</v>
+        <v>0.01303215185417436</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.07125142777898573</v>
+        <v>0.08000189252360833</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0006752363840459501</v>
+        <v>0.01812777068775225</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01379624715152133</v>
+        <v>0.07596032474311898</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.07142027039569419</v>
+        <v>0.07217195391717737</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.07849231491399387</v>
+        <v>0.01497122262959253</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.06453331220296493</v>
+        <v>0.06066692636912578</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.03509908832229735</v>
+        <v>0.03365316201027503</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.04004239758564026</v>
+        <v>0.06844463873485879</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1177120149613523</v>
+        <v>0.121923109692845</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04722813149577963</v>
+        <v>0.01498100612419658</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01889507176614084</v>
+        <v>0.03898591001193746</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02794011925325446</v>
+        <v>0.05445608682800379</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01440539526234709</v>
+        <v>0.04215138615392598</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002704568349448364</v>
+        <v>0.05335374017300022</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02056002319711481</v>
+        <v>0.008391198008235486</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01699597284911906</v>
+        <v>0.03054308492666506</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01125000048353922</v>
+        <v>0.007788774377656143</v>
       </c>
       <c r="N42" t="n">
-        <v>0.09280234833947894</v>
+        <v>0.03089870237180757</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02319690337443318</v>
+        <v>0.00388645881757407</v>
       </c>
       <c r="P42" t="n">
-        <v>0.01103529223217399</v>
+        <v>0.04290547411453302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004535430071284477</v>
+        <v>0.06265642012727766</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05860310977319529</v>
+        <v>0.01309520831692594</v>
       </c>
       <c r="S42" t="n">
-        <v>0.03765434417695325</v>
+        <v>0.00555545885659976</v>
       </c>
       <c r="T42" t="n">
-        <v>0.08534856337360573</v>
+        <v>0.06655238905220232</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004214021324368677</v>
+        <v>0.01251214881017926</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06678599080850368</v>
+        <v>0.06698538121837767</v>
       </c>
       <c r="W42" t="n">
-        <v>0.08305228262506335</v>
+        <v>0.02072978558814209</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02703470116352328</v>
+        <v>0.04663524339571723</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01057029810881866</v>
+        <v>0.009011552883756067</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.008239161101933488</v>
+        <v>0.02560342643126442</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.02415400791676472</v>
+        <v>0.0489457949985669</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.08987987401215823</v>
+        <v>0.03339814435425211</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07602381706869621</v>
+        <v>0.07306654828440182</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.01776330567566922</v>
+        <v>0.01478179659945679</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.02678785857084152</v>
+        <v>0.06701663298155204</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.02209434092862792</v>
+        <v>0.03349945522767414</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0702450666971626</v>
+        <v>0.07161279096611822</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.06979011025976638</v>
+        <v>0.07930459735437771</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1435317854249726</v>
+        <v>0.164288701444419</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0009489045935972053</v>
+        <v>0.002522857916492775</v>
       </c>
       <c r="G43" t="n">
-        <v>0.007774841988411155</v>
+        <v>0.04409112951481752</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03717681996766731</v>
+        <v>0.008961827507326374</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02355174886052603</v>
+        <v>0.002800860748176294</v>
       </c>
       <c r="J43" t="n">
-        <v>0.07003006366395544</v>
+        <v>0.06648045368814513</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01232690939791837</v>
+        <v>0.02402444851225418</v>
       </c>
       <c r="L43" t="n">
-        <v>0.003834485643234984</v>
+        <v>0.03978911106296096</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01563446246094596</v>
+        <v>0.07969585945795876</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01284689791582055</v>
+        <v>0.004352744716021156</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02174978866909619</v>
+        <v>0.04241714580123525</v>
       </c>
       <c r="P43" t="n">
-        <v>0.06072075512371244</v>
+        <v>0.01750872007402095</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.007234875170789107</v>
+        <v>0.003909736570225303</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07220608964016391</v>
+        <v>0.05477725180668225</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07033168948769222</v>
+        <v>0.02425333752557404</v>
       </c>
       <c r="T43" t="n">
-        <v>0.053879129787246</v>
+        <v>0.03027834435699844</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06116125595201153</v>
+        <v>0.08135891334784875</v>
       </c>
       <c r="V43" t="n">
-        <v>0.02415385490090469</v>
+        <v>0.0112139888901264</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04000037750519379</v>
+        <v>0.04652746732500473</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0699373547118632</v>
+        <v>0.08284912699809473</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.04066346844599883</v>
+        <v>0.0681695890601014</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.05805515441850429</v>
+        <v>0.06966692871163023</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.003154921049762612</v>
+        <v>0.02696390811073925</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.04002919662478721</v>
+        <v>0.02508051949358649</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.004455274713395814</v>
+        <v>0.02364246139133103</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0648955637636128</v>
+        <v>0.06659223209811606</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.0533076917726886</v>
+        <v>0.01247755328400823</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.007379884298966989</v>
+        <v>0.02443458181788634</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.06255853947153288</v>
+        <v>0.01515890021263693</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06308566340446384</v>
+        <v>0.06216074181148436</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1109098415187674</v>
+        <v>0.1119740153123679</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007597626586520067</v>
+        <v>0.01592625828028514</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01644324834406349</v>
+        <v>0.005891297196754968</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04385267665461284</v>
+        <v>0.03996772930121686</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0405483992054551</v>
+        <v>0.02686378205669373</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02531751025210439</v>
+        <v>0.04942428935761111</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01133780364172958</v>
+        <v>0.01881618829613355</v>
       </c>
       <c r="L44" t="n">
-        <v>0.009712299586807378</v>
+        <v>0.003488549002597976</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03869381063592676</v>
+        <v>0.02014869058937009</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0520519911440205</v>
+        <v>0.06121213675225978</v>
       </c>
       <c r="O44" t="n">
-        <v>0.02289448315248932</v>
+        <v>0.009406284073350785</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02691626949731527</v>
+        <v>0.02820423859355244</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01976760467548906</v>
+        <v>0.04149375745534435</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01121715699905627</v>
+        <v>0.03608164453841517</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01480949912826675</v>
+        <v>0.05546608892279018</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06915147105836712</v>
+        <v>0.06566241134663452</v>
       </c>
       <c r="U44" t="n">
-        <v>0.005027097820058579</v>
+        <v>0.007381621605817163</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07234815980727106</v>
+        <v>0.06297389107364211</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0730903959826117</v>
+        <v>0.0238499478201879</v>
       </c>
       <c r="X44" t="n">
-        <v>0.007086947191123199</v>
+        <v>0.04203815545687197</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01738915511921758</v>
+        <v>0.001981526750213194</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.00596344616373121</v>
+        <v>0.03605177843344135</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07015219565580097</v>
+        <v>0.01444523940999393</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0670646562538372</v>
+        <v>0.06535973906753349</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0631671567972615</v>
+        <v>0.06143359779223087</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.04192317523124253</v>
+        <v>0.05407056341082681</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.04584169467545072</v>
+        <v>0.0530963493386364</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.06745579768657825</v>
+        <v>0.0460642565859885</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.05317827105359168</v>
+        <v>0.05319998749160568</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.1098642465572073</v>
+        <v>0.133801338737148</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1217789171705136</v>
+        <v>0.1266180201652082</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0009225732852874267</v>
+        <v>0.0003725552285672435</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0009268242692598406</v>
+        <v>0.00330228479981679</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03487401488552855</v>
+        <v>0.05297299789868103</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08441417559037666</v>
+        <v>0.07186878954427803</v>
       </c>
       <c r="J45" t="n">
-        <v>0.07255983652680723</v>
+        <v>0.07674144325488626</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01345346971761673</v>
+        <v>0.01496951478374964</v>
       </c>
       <c r="L45" t="n">
-        <v>0.007416616898086521</v>
+        <v>0.08669343697402759</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01311654966498792</v>
+        <v>0.009263445982799828</v>
       </c>
       <c r="N45" t="n">
-        <v>0.051391835664981</v>
+        <v>0.03571217145459532</v>
       </c>
       <c r="O45" t="n">
-        <v>0.006135092802637093</v>
+        <v>0.07327395393407354</v>
       </c>
       <c r="P45" t="n">
-        <v>0.06259493558441703</v>
+        <v>0.059996159967512</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05424570723180849</v>
+        <v>0.05695421633691511</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0006832358143209802</v>
+        <v>0.01022792071588514</v>
       </c>
       <c r="S45" t="n">
-        <v>0.001482571193170246</v>
+        <v>0.009340986350988874</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05145948320747702</v>
+        <v>0.04251211543043043</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06478443286589532</v>
+        <v>0.01732879990127183</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03061099973349695</v>
+        <v>0.01793019510451534</v>
       </c>
       <c r="W45" t="n">
-        <v>0.08219913614398705</v>
+        <v>0.06574694228711511</v>
       </c>
       <c r="X45" t="n">
-        <v>0.05419428022729644</v>
+        <v>0.07010158954508222</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03892655260677942</v>
+        <v>0.02042149855816965</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06182230804336893</v>
+        <v>0.06902904366119166</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.05538368600488817</v>
+        <v>0.006052470906195928</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.009954753242915544</v>
+        <v>0.04455350676354001</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.05380640097176694</v>
+        <v>0.04666279679173611</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.01026173859026183</v>
+        <v>0.02663671756419971</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.01061462787109857</v>
+        <v>0.003470382898960896</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.003516765094739084</v>
+        <v>0.002763263494001704</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.06824739626674273</v>
+        <v>0.005100799866813046</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1612266240784399</v>
+        <v>0.1649778194509112</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.09494900626705514</v>
+        <v>0.09291819664939899</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05914816981067741</v>
+        <v>0.04041115696052099</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01218427622960553</v>
+        <v>0.000567682666947121</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03028182605671316</v>
+        <v>0.03246216949679144</v>
       </c>
       <c r="I46" t="n">
-        <v>0.002805702179895371</v>
+        <v>0.03140147602591338</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01159839222875942</v>
+        <v>0.00915145800809321</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02132128458105009</v>
+        <v>0.0600444907556283</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02831338272915663</v>
+        <v>0.004684380129279743</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05008988278205724</v>
+        <v>0.08252970048770296</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02144436569705585</v>
+        <v>0.02706716201163737</v>
       </c>
       <c r="O46" t="n">
-        <v>0.008299929778163557</v>
+        <v>0.003087331013760582</v>
       </c>
       <c r="P46" t="n">
-        <v>0.04365146494962511</v>
+        <v>0.01894355474633198</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02819283271042259</v>
+        <v>0.00415756344169022</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0870484332712472</v>
+        <v>0.03014425846939132</v>
       </c>
       <c r="S46" t="n">
-        <v>0.04881957148005013</v>
+        <v>0.03800633425610628</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06615507858171692</v>
+        <v>0.06888345657303163</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02098236173745268</v>
+        <v>0.01002887120292926</v>
       </c>
       <c r="V46" t="n">
-        <v>0.06555611464489641</v>
+        <v>0.07222942094867194</v>
       </c>
       <c r="W46" t="n">
-        <v>0.04361986579139818</v>
+        <v>0.08568467433383592</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03013987241317672</v>
+        <v>0.00576017934687399</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05099010630445095</v>
+        <v>0.04806358732945785</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.001377176628189658</v>
+        <v>0.00078468324015733</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.007610937561351123</v>
+        <v>0.03471578743552565</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.03194825272697453</v>
+        <v>0.02046579712542459</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.08878615537719288</v>
+        <v>0.08776240184971298</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.004078957826081843</v>
+        <v>0.007325643592477395</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.02523845678489134</v>
+        <v>0.06369046764111047</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.08149655290200909</v>
+        <v>0.06206617134363961</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.02882059623573823</v>
+        <v>0.04988013956735651</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.0484101377229103</v>
+        <v>-0.02581450652603963</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1103193403262141</v>
+        <v>0.1100453161247808</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07756652763632853</v>
+        <v>0.05957290167948037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04237551443864081</v>
+        <v>0.03502699592554723</v>
       </c>
       <c r="H47" t="n">
-        <v>0.007071293036111395</v>
+        <v>0.0244714854146906</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07602204267901608</v>
+        <v>0.05905781989612153</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04746498505915247</v>
+        <v>0.0576677567418357</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04188311898233329</v>
+        <v>0.05870692631883467</v>
       </c>
       <c r="L47" t="n">
-        <v>0.06664309970439358</v>
+        <v>0.03300304728359155</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01464428508359677</v>
+        <v>0.002374462468144064</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02343758792640119</v>
+        <v>0.002929430167252089</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01667387679365315</v>
+        <v>0.01104232478497338</v>
       </c>
       <c r="P47" t="n">
-        <v>0.03369771687265742</v>
+        <v>0.04886532361704414</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.00247202241410363</v>
+        <v>0.01245764445476529</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03207082191784931</v>
+        <v>0.042484228629138</v>
       </c>
       <c r="S47" t="n">
-        <v>0.07739701195256891</v>
+        <v>0.06113123681479609</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0284867187110309</v>
+        <v>0.0297709504572072</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0009435006054491604</v>
+        <v>0.06348953390409738</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02639160562613043</v>
+        <v>0.001386995302778972</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06333376068187095</v>
+        <v>0.06544642216536863</v>
       </c>
       <c r="X47" t="n">
-        <v>0.004957783328740323</v>
+        <v>0.02425147631430933</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.002354287624751979</v>
+        <v>0.06279198428266575</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03039432539382892</v>
+        <v>0.02421349625422949</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.02749564886602684</v>
+        <v>0.02156178684513759</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01408538666041642</v>
+        <v>0.03520327317987937</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.05100159367263278</v>
+        <v>0.04083113623832003</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.07335205613667294</v>
+        <v>0.06292006979266748</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.05232550576106111</v>
+        <v>0.0004600606118389434</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.01537208419256287</v>
+        <v>0.003162390832664797</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0500858382420181</v>
+        <v>0.05571883962262038</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.01237027145871557</v>
+        <v>0.007244012978369976</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.0927868349313786</v>
+        <v>0.09230679740368251</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05929900868399345</v>
+        <v>0.02490780955339558</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05493413911364115</v>
+        <v>0.03253555266400738</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03680439927860046</v>
+        <v>0.04997184830325884</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05166379477892301</v>
+        <v>0.01024602584614993</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0009613828388185636</v>
+        <v>0.0001019089828630741</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02925373072342538</v>
+        <v>0.0222864324336824</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008343311736222291</v>
+        <v>0.02114101489962406</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06425268505802739</v>
+        <v>0.02837890208260838</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0441411068054016</v>
+        <v>0.02949646743137649</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02498142077377111</v>
+        <v>0.002446368415167724</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01702686235194363</v>
+        <v>0.0687471849845077</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04957320545360023</v>
+        <v>0.04869737947069899</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01553050302532997</v>
+        <v>0.03092353526838367</v>
       </c>
       <c r="S48" t="n">
-        <v>0.03085565404130209</v>
+        <v>0.02334511716131591</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08138120564229713</v>
+        <v>0.06684271260377789</v>
       </c>
       <c r="U48" t="n">
-        <v>0.02801553419129764</v>
+        <v>0.03826307624409218</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0476588866094412</v>
+        <v>0.0418081512552783</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07870979543520197</v>
+        <v>0.05006979549318841</v>
       </c>
       <c r="X48" t="n">
-        <v>0.004784324301507642</v>
+        <v>0.05184139937226714</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.01093486275673527</v>
+        <v>0.04979085888132163</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.02908299825747546</v>
+        <v>0.01966965991344355</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01328885465202585</v>
+        <v>0.0113186018128972</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07905794800710161</v>
+        <v>0.07151503168302854</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.04199802914853332</v>
+        <v>0.06321741517952222</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.001904802799487852</v>
+        <v>0.03308588423710981</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.02970891260562501</v>
+        <v>0.03560964607045856</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.001949949476060916</v>
+        <v>0.0009297770292469385</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.06390269145420868</v>
+        <v>0.07281244272732755</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.004998023897103469</v>
+        <v>0.01534174556852695</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.105742939339454</v>
+        <v>0.1038353257640252</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05025631022512733</v>
+        <v>0.07438217058623915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06473734705094113</v>
+        <v>0.01735473593076001</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01385456071164429</v>
+        <v>0.0366021785807093</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07445786337678677</v>
+        <v>0.0817559834232756</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0001488103917378318</v>
+        <v>0.04552591726511571</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07913732438785809</v>
+        <v>0.07486462113619972</v>
       </c>
       <c r="L49" t="n">
-        <v>9.854165127784782e-05</v>
+        <v>0.002234416170355587</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01626555504373659</v>
+        <v>0.00160895474931726</v>
       </c>
       <c r="N49" t="n">
-        <v>0.001806609991600046</v>
+        <v>0.003058575115169492</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02159977162236857</v>
+        <v>0.02536363672744666</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06202170382174906</v>
+        <v>0.05970279714315132</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0732730406184397</v>
+        <v>0.007160866982312302</v>
       </c>
       <c r="R49" t="n">
-        <v>0.009117595673234509</v>
+        <v>0.06483511167832799</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02569176085633643</v>
+        <v>0.00526478283791504</v>
       </c>
       <c r="T49" t="n">
-        <v>0.07125476045252145</v>
+        <v>0.001093732807895253</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03567681530142478</v>
+        <v>0.03895929035958974</v>
       </c>
       <c r="V49" t="n">
-        <v>0.05093641191959669</v>
+        <v>0.01950643332726743</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02984530563053045</v>
+        <v>0.07574009668166763</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04025186267706685</v>
+        <v>0.01675516562012861</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.05341643901226297</v>
+        <v>0.08197114009920201</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.07048408114436908</v>
+        <v>0.04371966852309435</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01373195219720794</v>
+        <v>0.01709432266362552</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.003618245140277653</v>
+        <v>0.02774399946947106</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.007371310435752912</v>
+        <v>0.02398390400836886</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.07110501912021695</v>
+        <v>0.01781467328048478</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.03762871443800289</v>
+        <v>0.05775621415795613</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.003384937065972413</v>
+        <v>0.00633832207370214</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.01882735004195893</v>
+        <v>0.0718082886012512</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.005637081173508109</v>
+        <v>-0.005370105665969714</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1089461936954669</v>
+        <v>0.1092049866932014</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01465872442000391</v>
+        <v>0.008030759492351679</v>
       </c>
       <c r="G50" t="n">
-        <v>0.002225354151888296</v>
+        <v>0.005585030206795272</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002386911920654514</v>
+        <v>0.07686891130021745</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06791894867626508</v>
+        <v>0.000913287229961106</v>
       </c>
       <c r="J50" t="n">
-        <v>0.003639251937578952</v>
+        <v>0.01263542865829118</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02205884612652334</v>
+        <v>0.02355784952121021</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01685775254717473</v>
+        <v>0.008466021137719789</v>
       </c>
       <c r="M50" t="n">
-        <v>0.001632649076361951</v>
+        <v>0.03150409529098418</v>
       </c>
       <c r="N50" t="n">
-        <v>0.06047136131628338</v>
+        <v>0.03702956889022226</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06060689743089091</v>
+        <v>0.01223994806307846</v>
       </c>
       <c r="P50" t="n">
-        <v>0.006539758150253143</v>
+        <v>0.04492203102613614</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04000069838429637</v>
+        <v>0.06792893080660863</v>
       </c>
       <c r="R50" t="n">
-        <v>0.02463117376255262</v>
+        <v>0.003248946113323332</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01008128509338783</v>
+        <v>0.01226296265141234</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04959909819809426</v>
+        <v>0.07384456928631804</v>
       </c>
       <c r="U50" t="n">
-        <v>0.02743128192017383</v>
+        <v>0.055570591079521</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05121064435013692</v>
+        <v>0.07623100915736786</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06823062691398599</v>
+        <v>0.06129861105164421</v>
       </c>
       <c r="X50" t="n">
-        <v>0.02005893957822943</v>
+        <v>0.04228688584246423</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02160285747084988</v>
+        <v>0.01187695568900143</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.003758767780331656</v>
+        <v>0.002693051084772592</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03402812281203331</v>
+        <v>0.07546304871017569</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0696749484929929</v>
+        <v>0.04020262470688128</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.07744421607610148</v>
+        <v>0.01004832541878927</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.06473099191291014</v>
+        <v>0.07607835889383771</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.07035491317503632</v>
+        <v>0.05350108122069692</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.04889298994559536</v>
+        <v>0.003367804814133006</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.05927198837941345</v>
+        <v>0.07234331265608478</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1264016884993795</v>
+        <v>0.1360471527627251</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1233980343022253</v>
+        <v>0.1240921251098292</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05628600279452583</v>
+        <v>0.03387532322311707</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02849721289732348</v>
+        <v>0.0406345920473335</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08019069330594929</v>
+        <v>0.0001580752373510964</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0387420939093488</v>
+        <v>0.06421834315441959</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02397703723617423</v>
+        <v>0.046505623257719</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04238958082788014</v>
+        <v>0.07754292247579431</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0435295952005109</v>
+        <v>0.02854314840670286</v>
       </c>
       <c r="M51" t="n">
-        <v>0.036653778418546</v>
+        <v>0.0108897341835245</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04569501431871425</v>
+        <v>0.08409905042151203</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0006841974218475367</v>
+        <v>0.005092154521781733</v>
       </c>
       <c r="P51" t="n">
-        <v>0.002357448349067457</v>
+        <v>0.03490147101066805</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01204616915125281</v>
+        <v>0.0312836844286401</v>
       </c>
       <c r="R51" t="n">
-        <v>0.001312538347866045</v>
+        <v>0.006659171205700034</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06040114174106909</v>
+        <v>0.04732098301676141</v>
       </c>
       <c r="T51" t="n">
-        <v>0.009740819729382122</v>
+        <v>0.03842622800844223</v>
       </c>
       <c r="U51" t="n">
-        <v>0.01932767688365998</v>
+        <v>0.008609312250404713</v>
       </c>
       <c r="V51" t="n">
-        <v>0.07165591652364793</v>
+        <v>0.05478771860732473</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01085057898657108</v>
+        <v>0.05650860634613248</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01379911022863209</v>
+        <v>0.02827469055155595</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07410662075477656</v>
+        <v>0.08418367769948407</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.07328016323948078</v>
+        <v>0.04994541909342486</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.07431201346934446</v>
+        <v>0.02835289594831811</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.03061474022558034</v>
+        <v>0.007620348218710689</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.07726137989818643</v>
+        <v>0.02921906420635318</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.005449890269664521</v>
+        <v>0.06922581331067221</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.04787255868220942</v>
+        <v>0.01909877381195221</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01470786025965106</v>
+        <v>0.01262717824071698</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.004258166929137308</v>
+        <v>0.001395997115482051</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1527640399747627</v>
+        <v>0.1272392876536723</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1208231600919332</v>
+        <v>0.1188967008832994</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01344523421540345</v>
+        <v>0.06563207018618485</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04827172182745573</v>
+        <v>0.01490956787776604</v>
       </c>
       <c r="H52" t="n">
-        <v>0.007286557319205402</v>
+        <v>0.001912064610259557</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01690994136612137</v>
+        <v>0.00659163792252136</v>
       </c>
       <c r="J52" t="n">
-        <v>0.008638940253839733</v>
+        <v>0.007548368705755404</v>
       </c>
       <c r="K52" t="n">
-        <v>0.03018075708953359</v>
+        <v>0.002701387681410443</v>
       </c>
       <c r="L52" t="n">
-        <v>0.005404736062805469</v>
+        <v>0.002988412660444076</v>
       </c>
       <c r="M52" t="n">
-        <v>0.04026161220202697</v>
+        <v>0.06556948123182038</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04258371097614044</v>
+        <v>0.06776775625571636</v>
       </c>
       <c r="O52" t="n">
-        <v>0.03161685964706132</v>
+        <v>0.04419407609154927</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06016513138264812</v>
+        <v>0.01928722562856571</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03173036111373682</v>
+        <v>0.006887480296147157</v>
       </c>
       <c r="R52" t="n">
-        <v>0.00570093246434221</v>
+        <v>0.04777047520965081</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06885467981071042</v>
+        <v>0.0333684865149101</v>
       </c>
       <c r="T52" t="n">
-        <v>0.05309460418866343</v>
+        <v>0.04383034249822543</v>
       </c>
       <c r="U52" t="n">
-        <v>0.05103833575212602</v>
+        <v>0.06283450745904927</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0585704501901287</v>
+        <v>0.07020539188692723</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05584661740476516</v>
+        <v>0.04157723263448479</v>
       </c>
       <c r="X52" t="n">
-        <v>0.001482587779578351</v>
+        <v>0.04202069459001814</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06097765672574825</v>
+        <v>0.05299639715802826</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01056731147059684</v>
+        <v>0.0001369547455459869</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0399105167194197</v>
+        <v>0.01424252588866206</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.02170193096654938</v>
+        <v>0.06638997548638535</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05577308161731455</v>
+        <v>0.0307379496230353</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.06663307065610782</v>
+        <v>0.06268285382776052</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.04541973816680598</v>
+        <v>0.05751736930655511</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.04789472727892811</v>
+        <v>0.05876181732071273</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.02003819535223676</v>
+        <v>0.0089374967019082</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.08336096721478339</v>
+        <v>0.08948338228483049</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.132959455887896</v>
+        <v>0.1381140670062394</v>
       </c>
       <c r="F53" t="n">
-        <v>0.006851219292606175</v>
+        <v>0.05492869898785289</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04717000550472494</v>
+        <v>0.05893193961856497</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01673412841970591</v>
+        <v>0.07136529320652918</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04682695428353186</v>
+        <v>0.002943727980176237</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01001907407260876</v>
+        <v>0.009499590059142514</v>
       </c>
       <c r="K53" t="n">
-        <v>0.07585804025408106</v>
+        <v>0.06399004716830954</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07747952741907312</v>
+        <v>0.07275184100541061</v>
       </c>
       <c r="M53" t="n">
-        <v>0.006986639268824732</v>
+        <v>0.004697659701577566</v>
       </c>
       <c r="N53" t="n">
-        <v>0.004656514639315551</v>
+        <v>0.02035309460215719</v>
       </c>
       <c r="O53" t="n">
-        <v>0.00605557261216724</v>
+        <v>0.01203753756811365</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02954594463468406</v>
+        <v>0.07015786075722244</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02308197736125672</v>
+        <v>0.0338807035673489</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01853334618635012</v>
+        <v>0.02796454537632013</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0292408622261645</v>
+        <v>0.04983344319710499</v>
       </c>
       <c r="T53" t="n">
-        <v>0.01468354816541051</v>
+        <v>0.05159152700152612</v>
       </c>
       <c r="U53" t="n">
-        <v>0.05518103184322042</v>
+        <v>0.04963101479598883</v>
       </c>
       <c r="V53" t="n">
-        <v>0.04619918679832134</v>
+        <v>0.03225471105099847</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04736496109374053</v>
+        <v>0.00218980581411329</v>
       </c>
       <c r="X53" t="n">
-        <v>0.001511290462046614</v>
+        <v>0.0001894769258433519</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.07991885092332184</v>
+        <v>0.08082066239496014</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08310359500490563</v>
+        <v>0.03175483224702177</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01915500990469823</v>
+        <v>0.05899643955682554</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.05735910254159973</v>
+        <v>0.07382603553599187</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.06882894233857108</v>
+        <v>0.00307649790449532</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0102791096288337</v>
+        <v>0.01231800728544076</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.02792330113192306</v>
+        <v>0.02240205356522962</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.06234066134578819</v>
+        <v>0.001280213922114326</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.02711160264252426</v>
+        <v>0.02633273920361991</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05792422465999843</v>
+        <v>0.09398543198388534</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1297490600855815</v>
+        <v>0.129093744103586</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005245515297530493</v>
+        <v>0.03357504252020795</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02570177455920331</v>
+        <v>0.02907876305879781</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03423842082955885</v>
+        <v>0.0007487495647097406</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02546971078155259</v>
+        <v>0.04669191032006847</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01458967995604622</v>
+        <v>0.02808878859531414</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0258672922157536</v>
+        <v>0.01836982665438424</v>
       </c>
       <c r="L54" t="n">
-        <v>0.004647429209590679</v>
+        <v>0.002875044161090625</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03710194532268008</v>
+        <v>0.05047474561743896</v>
       </c>
       <c r="N54" t="n">
-        <v>0.06048173337025076</v>
+        <v>0.05751449921628719</v>
       </c>
       <c r="O54" t="n">
-        <v>0.04438318536437277</v>
+        <v>0.05730606904955229</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06241534753517922</v>
+        <v>0.03666303107615732</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05083596152833644</v>
+        <v>0.05917025966647207</v>
       </c>
       <c r="R54" t="n">
-        <v>0.05213283783120665</v>
+        <v>0.06081536882199039</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01714238967130972</v>
+        <v>0.008931874388231903</v>
       </c>
       <c r="T54" t="n">
-        <v>0.04469378905381799</v>
+        <v>0.04011111218549601</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0006510450383451141</v>
+        <v>0.001424696532819329</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06605655522859755</v>
+        <v>0.06141232499399327</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04254092100532428</v>
+        <v>0.04429939753879616</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04484568778975159</v>
+        <v>0.03953882812177145</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0645147196033997</v>
+        <v>0.03593249370273462</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01349350923117977</v>
+        <v>0.007193059013486539</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.04359039448120589</v>
+        <v>0.01555374258182922</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02514535480537429</v>
+        <v>0.06310583074300775</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.01868767728214071</v>
+        <v>0.05193236814032724</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.05094347133408363</v>
+        <v>0.002186968800070218</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.06872420885005036</v>
+        <v>0.0396949180661947</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.009625818242997105</v>
+        <v>0.05326260843978781</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.04623362458116068</v>
+        <v>0.05404767842898255</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.119256905532091</v>
+        <v>-0.1473785421461656</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1602446194359689</v>
+        <v>0.1563972729874877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08093260971266351</v>
+        <v>0.09897556991594177</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05108438243015631</v>
+        <v>0.01679899032707883</v>
       </c>
       <c r="H55" t="n">
-        <v>0.05879182106889028</v>
+        <v>0.04959886343902102</v>
       </c>
       <c r="I55" t="n">
-        <v>0.004064492397397329</v>
+        <v>0.007820849654208099</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02503342762643596</v>
+        <v>0.02570014282410235</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02233348235840922</v>
+        <v>0.03013984359613104</v>
       </c>
       <c r="L55" t="n">
-        <v>0.025101952513243</v>
+        <v>0.1049802756578498</v>
       </c>
       <c r="M55" t="n">
-        <v>0.002969122495931138</v>
+        <v>0.02057118202727462</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02296318302716981</v>
+        <v>0.05706450694463602</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01140110417400831</v>
+        <v>0.002416484018681358</v>
       </c>
       <c r="P55" t="n">
-        <v>0.04756515676547306</v>
+        <v>0.06681142801483528</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.06781318609132832</v>
+        <v>0.01438530011851266</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05686351552489887</v>
+        <v>0.02498433418825346</v>
       </c>
       <c r="S55" t="n">
-        <v>0.07701587531599803</v>
+        <v>0.06433652455962116</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01541498904825734</v>
+        <v>0.0008269448305406198</v>
       </c>
       <c r="U55" t="n">
-        <v>0.02144709754643503</v>
+        <v>0.001848492341821442</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01699520395520273</v>
+        <v>0.003934330056056026</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06090539634008399</v>
+        <v>0.04812108793199464</v>
       </c>
       <c r="X55" t="n">
-        <v>0.00728991001709461</v>
+        <v>0.05572853343254559</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.04359855791742136</v>
+        <v>0.003064397330767381</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0835122818340001</v>
+        <v>0.08813692760469079</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.04163299692828597</v>
+        <v>0.06720476363410573</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.02988764129282337</v>
+        <v>0.03663122195491147</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.06051568527204065</v>
+        <v>0.02694468433242287</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.01656176717573412</v>
+        <v>0.004101145329962363</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.03375852519830939</v>
+        <v>0.03263849025593391</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.0105035424111866</v>
+        <v>0.01240258050100892</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.004043093561121568</v>
+        <v>0.03383210517709095</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.06072432133764382</v>
+        <v>-0.0385111187600477</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2192115153089966</v>
+        <v>0.2194107285588408</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001103795403146523</v>
+        <v>0.003447864440784109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04616045222395009</v>
+        <v>0.03534665486193398</v>
       </c>
       <c r="H56" t="n">
-        <v>0.005108564573777829</v>
+        <v>0.02186919631778308</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01026029216489983</v>
+        <v>0.01130269382851208</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005041728552858645</v>
+        <v>0.05957921082696951</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01177848000925655</v>
+        <v>0.005767982669535178</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0384203319807741</v>
+        <v>0.009977508572353083</v>
       </c>
       <c r="M56" t="n">
-        <v>0.00344521003791419</v>
+        <v>0.01517402137989789</v>
       </c>
       <c r="N56" t="n">
-        <v>0.06145696689150974</v>
+        <v>0.007852797532462045</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02896600925520726</v>
+        <v>0.02438925943470799</v>
       </c>
       <c r="P56" t="n">
-        <v>0.05520426446178007</v>
+        <v>0.000343107661326579</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01094715886624863</v>
+        <v>0.01283882774362922</v>
       </c>
       <c r="R56" t="n">
-        <v>0.04024197234865265</v>
+        <v>0.0199135202158205</v>
       </c>
       <c r="S56" t="n">
-        <v>0.005684504383712639</v>
+        <v>0.02151863440179569</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05473715502914444</v>
+        <v>0.0635383828315365</v>
       </c>
       <c r="U56" t="n">
-        <v>0.001142012514415967</v>
+        <v>0.01553242378694285</v>
       </c>
       <c r="V56" t="n">
-        <v>0.06114051614930987</v>
+        <v>0.07495994636922847</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05406226781003672</v>
+        <v>0.04926974162298944</v>
       </c>
       <c r="X56" t="n">
-        <v>0.06059180733032966</v>
+        <v>0.01417105716326948</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0664353620244299</v>
+        <v>0.06037644923727734</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05081864201484437</v>
+        <v>0.02375480196760865</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.02377531156893101</v>
+        <v>0.04317312048348379</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.06652252737479421</v>
+        <v>0.07014572378378342</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.04649779569344184</v>
+        <v>0.07552677235776432</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.06075261577103308</v>
+        <v>0.07515190497640691</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.05079134575657772</v>
+        <v>0.06353931537680609</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.03727352129108129</v>
+        <v>0.04984782975646749</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.04163938851794139</v>
+        <v>0.0716912503989242</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1387807207120987</v>
+        <v>0.1535480776234136</v>
       </c>
     </row>
     <row r="57">
@@ -6670,94 +6670,94 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2268974904658317</v>
+        <v>0.2484762631660445</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04143924973935851</v>
+        <v>0.07960185875457831</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09269700064627563</v>
+        <v>0.06244171417151408</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00720201325335632</v>
+        <v>0.0003251330208861745</v>
       </c>
       <c r="I57" t="n">
-        <v>0.006212951164305457</v>
+        <v>0.01414639040300779</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06830247614576049</v>
+        <v>0.0245154727131606</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04088002101334791</v>
+        <v>0.003435501579424318</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01779966653364566</v>
+        <v>0.04289207252159385</v>
       </c>
       <c r="M57" t="n">
-        <v>0.005129074998892545</v>
+        <v>0.01874347577954984</v>
       </c>
       <c r="N57" t="n">
-        <v>0.007572957016277033</v>
+        <v>0.008636830745088371</v>
       </c>
       <c r="O57" t="n">
-        <v>0.003140798195870709</v>
+        <v>0.0646609999463978</v>
       </c>
       <c r="P57" t="n">
-        <v>0.05522833172432538</v>
+        <v>0.01856992467123831</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.06064862620723223</v>
+        <v>0.005698549120002209</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02482381206155517</v>
+        <v>0.01213473139511411</v>
       </c>
       <c r="S57" t="n">
-        <v>0.02269345934903478</v>
+        <v>0.0006647474285615656</v>
       </c>
       <c r="T57" t="n">
-        <v>0.07042481577966256</v>
+        <v>0.04804169330821613</v>
       </c>
       <c r="U57" t="n">
-        <v>0.003378403687776024</v>
+        <v>0.06417909824601913</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09634709063195319</v>
+        <v>0.02526815989724938</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07214184178553747</v>
+        <v>0.01303282226946991</v>
       </c>
       <c r="X57" t="n">
-        <v>0.01227544483390246</v>
+        <v>0.04432557405096944</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02723803705225395</v>
+        <v>0.05969006621130064</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.09356633263477486</v>
+        <v>0.08074430021547233</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.01575492616545965</v>
+        <v>0.07809496352519439</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07989834415627148</v>
+        <v>0.07707802221084273</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.001950941299784248</v>
+        <v>0.005603786260761887</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.00718916870198712</v>
+        <v>0.07509818583800754</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.01051078603816481</v>
+        <v>0.03894237431582177</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.002112929069696543</v>
+        <v>0.01289447172571084</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.05344050011353794</v>
+        <v>0.02053907967484646</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.1486710974984578</v>
+        <v>0.167907724562929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09404280246217274</v>
+        <v>0.0952784284937101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01591575075190601</v>
+        <v>0.01556014385221566</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0580620297493454</v>
+        <v>0.04469093485565018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06947730865821743</v>
+        <v>0.01987810134799654</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01455321806900694</v>
+        <v>0.004178437625520027</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01515876027092202</v>
+        <v>0.02623657486602278</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008073134592603523</v>
+        <v>0.006750032678157315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01227673701835814</v>
+        <v>0.005492253053344322</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01201762043986058</v>
+        <v>0.01093912089836718</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06400092858704347</v>
+        <v>0.03962154831010721</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02181561771164014</v>
+        <v>0.01451128744326982</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0523301560781925</v>
+        <v>0.004948542187016032</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03907067287863179</v>
+        <v>0.05452728335431794</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01181322720233537</v>
+        <v>0.04649966269883916</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002890120578204009</v>
+        <v>0.07316474493814457</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07904930988096368</v>
+        <v>0.07375027049923812</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0567540214236461</v>
+        <v>0.07980692633730116</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07506578488298379</v>
+        <v>0.03768174846229756</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03789097201066965</v>
+        <v>0.03362945356159931</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06701426617895576</v>
+        <v>0.07332122222405156</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01772539339414458</v>
+        <v>0.03739161418997185</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0005803201748046985</v>
+        <v>0.003048325081821014</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01590956157026395</v>
+        <v>0.02112717219520442</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06970243302053643</v>
+        <v>0.06781691074827784</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.004028253464922099</v>
+        <v>0.02046312256697077</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.03830265581280325</v>
+        <v>0.01454110601137377</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07598199287228144</v>
+        <v>0.07656076969658659</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01518869465190735</v>
+        <v>0.06279131086803542</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04935105807484983</v>
+        <v>0.03107137944830207</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03208162110170181</v>
+        <v>0.05284525631479019</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1129460989148425</v>
+        <v>0.1021043618130642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001035156101934546</v>
+        <v>0.003376951408225536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007725403636804589</v>
+        <v>0.01190104071634795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04325815084674677</v>
+        <v>0.05037989204568742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0284617661211871</v>
+        <v>0.05150879080286724</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02215438895816073</v>
+        <v>0.04160257135553762</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07090405967336856</v>
+        <v>0.0222864613772748</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04059701436745024</v>
+        <v>0.005665930765738797</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04430405212014097</v>
+        <v>0.08298523327734254</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06154107137809869</v>
+        <v>0.08643223662814292</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08178947410014675</v>
+        <v>0.03613380920656881</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01890070669581682</v>
+        <v>0.02854623001699751</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00540424938847098</v>
+        <v>0.006079378040537793</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01589278385536353</v>
+        <v>0.009569395393329162</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003730886446497494</v>
+        <v>0.00703341174704817</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03632448312612213</v>
+        <v>0.04571381326470703</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05560886619014455</v>
+        <v>0.08694237526578164</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0478269813290005</v>
+        <v>0.08228341043720026</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04182825082676214</v>
+        <v>0.04012396050325572</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06373099852315076</v>
+        <v>0.002612246670216108</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07239860888579673</v>
+        <v>0.0717193794572305</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001338728512534855</v>
+        <v>0.008902690123434353</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06305523489586178</v>
+        <v>0.07504351233168291</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08490441582703316</v>
+        <v>0.0149653865770252</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02029465339838119</v>
+        <v>0.01308956324316731</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02338278373035472</v>
+        <v>0.03452617243590762</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02835285959885196</v>
+        <v>0.0008324329468273334</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01075200199819845</v>
+        <v>0.02668007261990922</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004501969467619077</v>
+        <v>0.05306365134200838</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.06687162342617554</v>
+        <v>0.06635313651761979</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.09092736409613292</v>
+        <v>0.09310458602723093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002807748927545603</v>
+        <v>0.0003850120459167151</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003241054592342353</v>
+        <v>0.01653327825965093</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03953809860661747</v>
+        <v>0.07725878842155266</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04055748442597483</v>
+        <v>0.03637258788044969</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03184563881490771</v>
+        <v>0.03588954374392136</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004735735966550561</v>
+        <v>0.001118174427972302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008275843744386073</v>
+        <v>0.05048657209614629</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04679706108334989</v>
+        <v>0.04850727720591973</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01380593726630637</v>
+        <v>0.05314046689836004</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04326169121899563</v>
+        <v>0.008043117464882879</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0499193626487415</v>
+        <v>0.004325133201080401</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008206076627811233</v>
+        <v>0.02156555511866494</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05934052952328348</v>
+        <v>0.002548152229973206</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00619290250162105</v>
+        <v>0.01412081188602307</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06551962760342829</v>
+        <v>0.05646543306629062</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04075855667211036</v>
+        <v>0.07765246569237584</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07050899488767207</v>
+        <v>0.07909520107961623</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04761143130560976</v>
+        <v>0.06626406121168661</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05316417204079693</v>
+        <v>0.01665687075618952</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01620493119896856</v>
+        <v>0.01008650483170491</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03376033972828985</v>
+        <v>0.003654546667126311</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05209958609265757</v>
+        <v>0.07690907813253076</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06862469072113211</v>
+        <v>0.073145911070411</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03860526270722021</v>
+        <v>0.02158845865722394</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06376599789384887</v>
+        <v>0.03095616801153176</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01902231309549397</v>
+        <v>0.01562547196012819</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.06307671563342625</v>
+        <v>0.07431813833034968</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.008752214470911637</v>
+        <v>0.02728721965232057</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0139640214175768</v>
+        <v>0.00874539400688538</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1176377051393795</v>
+        <v>0.116909601043695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06170937344068921</v>
+        <v>0.06459432518195672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02976952810459149</v>
+        <v>0.003813806442848655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02048535572368873</v>
+        <v>0.02103822781061261</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03517952726591317</v>
+        <v>0.03405452902719715</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02190508772436803</v>
+        <v>0.05430938795799119</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06260078407448245</v>
+        <v>0.01566361028145366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05947190491315925</v>
+        <v>0.03609975703044301</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06727504701268056</v>
+        <v>0.06472934399693454</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04323906252252985</v>
+        <v>0.06628358898780902</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06099830803161893</v>
+        <v>0.07341256103800815</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02673644894011177</v>
+        <v>0.03382669294946083</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05195461736290364</v>
+        <v>0.007811588897636057</v>
       </c>
       <c r="R5" t="n">
-        <v>0.008898124042832713</v>
+        <v>0.01724547784679183</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006438934726399824</v>
+        <v>0.03878704873069733</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05362489284054509</v>
+        <v>0.03059025832800947</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01599272983038322</v>
+        <v>0.02936310036006168</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02877991869750929</v>
+        <v>0.08100418775551707</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06175445632860673</v>
+        <v>0.02742147256583055</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005707074972757931</v>
+        <v>0.02379369802067488</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05021261762017448</v>
+        <v>0.07117373199412272</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02315132276483026</v>
+        <v>0.02676145799035782</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07092034760282495</v>
+        <v>0.07601568756351045</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0392264889473254</v>
+        <v>0.03476269066316547</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01039544152211556</v>
+        <v>0.03215378119976944</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002785869748819431</v>
+        <v>0.003678661172101369</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03366860256248595</v>
+        <v>0.01900810587707407</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03546957577052727</v>
+        <v>0.007588942405240487</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01164855690512491</v>
+        <v>0.00501427792472382</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.07123469294217934</v>
+        <v>0.05840167492892269</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1107154504038993</v>
+        <v>0.110627033370555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0300168323616393</v>
+        <v>0.01078030120827323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01878818480976528</v>
+        <v>0.02634010196656405</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04478221217984309</v>
+        <v>0.008024784510911072</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0479550306405715</v>
+        <v>0.0497646968536551</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01188508579140954</v>
+        <v>0.008290111030462233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001283897424583877</v>
+        <v>0.02076618497434728</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03612429752096862</v>
+        <v>0.01417233040064441</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02119026960058583</v>
+        <v>0.02344826859580772</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01289774199441193</v>
+        <v>0.06266634352229482</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01381338685973345</v>
+        <v>0.004278016610156943</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07965512740226363</v>
+        <v>0.05958580389928272</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004242007804258147</v>
+        <v>0.007249465871333717</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0465248862517512</v>
+        <v>0.04370249517316761</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01301079650565957</v>
+        <v>0.01190565803643299</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08109197337470719</v>
+        <v>0.05540478001540488</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01351117127490429</v>
+        <v>0.04909454238543183</v>
       </c>
       <c r="V6" t="n">
-        <v>0.008109413094005754</v>
+        <v>0.06951099493135655</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07104803594474828</v>
+        <v>0.07293344377081686</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03607257246775972</v>
+        <v>0.06217348991148093</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02165384784790446</v>
+        <v>0.003341709545073122</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01815283049263941</v>
+        <v>0.05438542339066007</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05459292026470006</v>
+        <v>0.01118472283948928</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07853203298520071</v>
+        <v>0.07257446260636186</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04634050099514034</v>
+        <v>0.04694257714840878</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.07440374193814402</v>
+        <v>0.04326820099824658</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0101614412212833</v>
+        <v>0.007455029133923186</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07370453432188771</v>
+        <v>0.05856919517114191</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.03161073431165527</v>
+        <v>0.04218686549887044</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1540462429413415</v>
+        <v>-0.1269181465527413</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1401855577166382</v>
+        <v>0.134507083183133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07309261758450551</v>
+        <v>0.07084121192160722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003596623730763266</v>
+        <v>0.02753740982613762</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01021979030209946</v>
+        <v>0.01834370125485151</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01931211757733194</v>
+        <v>0.02110577343999954</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05760862368731585</v>
+        <v>0.02248540150525276</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07763081446658714</v>
+        <v>0.08160220938124979</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01358753524987906</v>
+        <v>0.03934403668004358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0212803374756263</v>
+        <v>0.04844067708137064</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08557486441095644</v>
+        <v>0.02108309911255432</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006924334808668601</v>
+        <v>0.01649677209735301</v>
       </c>
       <c r="P7" t="n">
-        <v>9.589098950475363e-05</v>
+        <v>0.0001347426960984725</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0005322949132044843</v>
+        <v>0.03643851831409248</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03645361899428746</v>
+        <v>0.0458442524418694</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08040340329901494</v>
+        <v>0.01213910889057059</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03184416772968623</v>
+        <v>0.03231482980473321</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06355057361806944</v>
+        <v>0.002102646501144006</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05855869627937162</v>
+        <v>0.08039743458609171</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09157304974381628</v>
+        <v>0.04404085646674345</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01329903819821819</v>
+        <v>0.01831386323998312</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01741533335711953</v>
+        <v>0.07288864342343566</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06064231187510619</v>
+        <v>0.02358128552762855</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08348935267203417</v>
+        <v>0.07776125753828142</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.007387707574220311</v>
+        <v>0.05174366297508105</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009667824935641743</v>
+        <v>0.01602768740413783</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.007660369425922436</v>
+        <v>0.004390706869183215</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0005806226244688574</v>
+        <v>0.02118140487774275</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02727034928358722</v>
+        <v>0.07004643840714005</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.04074773519299239</v>
+        <v>0.02337236773562318</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.07592735945351084</v>
+        <v>-0.09526340321766807</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.14550347413784</v>
+        <v>0.1409723597846874</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02475627278880186</v>
+        <v>0.01577593396468568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05320148521150899</v>
+        <v>0.0621187650016467</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004238245396866995</v>
+        <v>0.01145667495960002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01458811894409532</v>
+        <v>0.004608078518061476</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07872495956155103</v>
+        <v>0.01939839508721848</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01117539406085383</v>
+        <v>0.004847748970467873</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07159881895110169</v>
+        <v>0.04216661548551192</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005915503142021388</v>
+        <v>0.03937919541235633</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01560971778779989</v>
+        <v>0.04628018317608987</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01284519554280475</v>
+        <v>0.009325962662423909</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03987985647651204</v>
+        <v>0.03208971652224713</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003935139676820545</v>
+        <v>0.07139436918346648</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07418128840253854</v>
+        <v>0.06894511544203084</v>
       </c>
       <c r="S8" t="n">
-        <v>0.015213749414663</v>
+        <v>0.02151636423222901</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04559104510922164</v>
+        <v>0.0391273561176082</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009726300496680806</v>
+        <v>0.004407474133952858</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05292760894227726</v>
+        <v>0.05011839601683687</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03748470490811227</v>
+        <v>0.04483482966308161</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03172804098930855</v>
+        <v>0.06914757074297342</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07061963270878319</v>
+        <v>0.07010108442505926</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05113005676909809</v>
+        <v>0.04163785275996885</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04507199076949387</v>
+        <v>0.0127681314326254</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04258747320265484</v>
+        <v>0.0219773793581627</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003404258255162433</v>
+        <v>0.03426347219146821</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.004199269533789713</v>
+        <v>0.01357801785777732</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02862110738962305</v>
+        <v>0.03826679818757479</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.07893970725937441</v>
+        <v>0.05969715300213251</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.07210505830847998</v>
+        <v>0.05077136549274239</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2188718529334285</v>
+        <v>-0.2051602722704262</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1634714850294364</v>
+        <v>0.2149760107121044</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1054322585376637</v>
+        <v>0.07341160197556082</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01197700141765132</v>
+        <v>0.01671590292292995</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01197770906531651</v>
+        <v>0.001074544950866224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0291920954315423</v>
+        <v>0.01628673496571467</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03175444861295219</v>
+        <v>0.0321006410138399</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01698696746996689</v>
+        <v>0.05578079303005977</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004500957995658987</v>
+        <v>0.03189324481724471</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0224648638279617</v>
+        <v>0.05689577928224629</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02460174209134368</v>
+        <v>0.03906325867334405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02395980436666142</v>
+        <v>0.02130071116977012</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02233529267068782</v>
+        <v>0.006855249776293833</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1035347356671097</v>
+        <v>0.03337570824949586</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08231156684620071</v>
+        <v>0.02122186165778871</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03845058461559854</v>
+        <v>0.01681824732734871</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0327921007216074</v>
+        <v>0.03779779162729766</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001678070316554317</v>
+        <v>0.02136647415283312</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01249642268536081</v>
+        <v>0.0457535458242118</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03605027415744341</v>
+        <v>0.0328394763142331</v>
       </c>
       <c r="X9" t="n">
-        <v>0.07158813007500618</v>
+        <v>0.0151730848550427</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07150576840477313</v>
+        <v>0.07188212491035936</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03030913650550875</v>
+        <v>0.003231101013511932</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.03779119773277986</v>
+        <v>0.06873971303895787</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.008160320927208182</v>
+        <v>0.06367178804440758</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0309068493456422</v>
+        <v>0.06009396037228843</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001304526809816969</v>
+        <v>0.002814845430819142</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04268714451950014</v>
+        <v>0.05691805353407388</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.02464382274394099</v>
+        <v>0.02419115139637242</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.06860620643854221</v>
+        <v>0.07273260967308731</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.3033111385678904</v>
+        <v>-0.2492974569804259</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2493116775955867</v>
+        <v>0.2510204206825071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02516593906386855</v>
+        <v>0.051279773082992</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01672870071215645</v>
+        <v>0.05232236359062092</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004821119722174022</v>
+        <v>0.003879043334090912</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0367977899454037</v>
+        <v>0.04822667057489531</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03786323485301658</v>
+        <v>0.0390443666361013</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05773729987856316</v>
+        <v>0.009914994802581187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02327282485614546</v>
+        <v>0.0705960267981469</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06652462175279425</v>
+        <v>0.01363208944487422</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01528017108898308</v>
+        <v>0.03334401834287369</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002088244253943435</v>
+        <v>0.0158105454810212</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01351077810830784</v>
+        <v>0.07318123635286002</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03129049586357454</v>
+        <v>0.02655061123391265</v>
       </c>
       <c r="R10" t="n">
-        <v>0.052150545730887</v>
+        <v>0.02607371383263223</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01777467877695237</v>
+        <v>0.01870082779725207</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05990306449214815</v>
+        <v>0.01840922567298647</v>
       </c>
       <c r="U10" t="n">
-        <v>0.007047161961130565</v>
+        <v>0.0007171155670394052</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03105053068223478</v>
+        <v>0.05490338236511938</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06949231953445535</v>
+        <v>0.06510343372254634</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01028656121323075</v>
+        <v>0.02811188911663286</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.00679367856003356</v>
+        <v>0.02004927972257354</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04761415825207274</v>
+        <v>0.05933001992114298</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07901998786448204</v>
+        <v>0.02817243723817988</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08723970159470014</v>
+        <v>0.04931940634105784</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01263153145413662</v>
+        <v>0.001363971909539022</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01416766419997461</v>
+        <v>0.01390658203059861</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0651674101939254</v>
+        <v>0.07384742943267024</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.08179815785313686</v>
+        <v>0.05700027997932086</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03112063528752485</v>
+        <v>0.04720926567573804</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01685330631372322</v>
+        <v>0.004801985107344942</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2614450516240389</v>
+        <v>0.3030044673427105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002647066893413333</v>
+        <v>0.03007690921923946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08100551101932961</v>
+        <v>0.06941173518658143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01581981109985875</v>
+        <v>0.08622248269743012</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01205964535312043</v>
+        <v>0.008457527361782772</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01803224028309633</v>
+        <v>0.001317641094559492</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006629737303037322</v>
+        <v>0.08615334836956431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001090670885733052</v>
+        <v>0.00285208890703767</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02392635723042</v>
+        <v>0.01214681714759718</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02309592617065859</v>
+        <v>0.01019765516413111</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006040182628343015</v>
+        <v>0.0940000446561146</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08028949954745959</v>
+        <v>0.04535637626372962</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02462356470533576</v>
+        <v>0.003063892743560124</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06827291052768654</v>
+        <v>0.01281799640843376</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0563980600284567</v>
+        <v>0.08419695727508486</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05528601049482627</v>
+        <v>0.07939117966381089</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07053296142161371</v>
+        <v>0.0146074149084423</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01669895755456855</v>
+        <v>0.06123000691234463</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07654414174507301</v>
+        <v>0.03397901602499006</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01080842954808064</v>
+        <v>0.002101571823418444</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.005646733676754067</v>
+        <v>0.01535659596671539</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0002476565448714344</v>
+        <v>0.02536018282870153</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08126037506646107</v>
+        <v>0.06488477417987575</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0334726820104651</v>
+        <v>0.01590531762727619</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06392657242399753</v>
+        <v>0.002945020557096436</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02295350079040424</v>
+        <v>0.02145367977073544</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003440931601132852</v>
+        <v>0.006705024300553314</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.07149511362515172</v>
+        <v>0.01448731256376727</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.06775474982065079</v>
+        <v>0.0953214303774258</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.01782258904769769</v>
+        <v>0.06987018697339868</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2692819327365134</v>
+        <v>0.2746431341542357</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0389541124765606</v>
+        <v>0.0668039644659431</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08611725628886295</v>
+        <v>0.04923039638954759</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03629164529442332</v>
+        <v>7.145398984900065e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006297302471479292</v>
+        <v>0.008891047412994174</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03291157084384514</v>
+        <v>0.02733717730104612</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01129032170894861</v>
+        <v>0.02277250927289902</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04848006124648675</v>
+        <v>0.01843317526314674</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01913603795348951</v>
+        <v>0.05537485789374857</v>
       </c>
       <c r="N12" t="n">
-        <v>0.007854233780840093</v>
+        <v>0.04639949990151403</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01525351116807617</v>
+        <v>0.005182075874752418</v>
       </c>
       <c r="P12" t="n">
-        <v>0.008280811723375683</v>
+        <v>0.0113565530122856</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001676631836693579</v>
+        <v>0.01433654557063535</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02423722962921922</v>
+        <v>0.06973867658514248</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004818184139949838</v>
+        <v>0.01206288819691639</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07706289298437781</v>
+        <v>0.02118417417698455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005599021836120332</v>
+        <v>0.01284237473405492</v>
       </c>
       <c r="V12" t="n">
-        <v>0.07608275243277655</v>
+        <v>0.07427866056616886</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09273396191289431</v>
+        <v>0.06461746143485304</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02408286058781806</v>
+        <v>0.03949764683673346</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06230206514388971</v>
+        <v>0.05903662955128459</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0160136592061476</v>
+        <v>0.03953375900453181</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04603077448603195</v>
+        <v>0.01008458703466306</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0441444555298559</v>
+        <v>0.04755109199456465</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006553203864156068</v>
+        <v>0.04674695487484104</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06212865727394362</v>
+        <v>0.02630559970976966</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04812976275599497</v>
+        <v>0.04901553925741623</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.03531881494882455</v>
+        <v>0.04053191379935936</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.06221820647491787</v>
+        <v>0.06078278589435396</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1997671648356183</v>
+        <v>0.2122349857374143</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3427611868504175</v>
+        <v>0.3432012058302314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04624475895503252</v>
+        <v>0.07769733637276591</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04372252138660497</v>
+        <v>0.02473726812445311</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02113030156252974</v>
+        <v>0.00151712966745972</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008454495714186732</v>
+        <v>0.01944011851965544</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03729221736788103</v>
+        <v>0.03887482429645307</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06588249884067336</v>
+        <v>0.07072689718663618</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02545343126746368</v>
+        <v>0.07574479299717049</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01035987813179074</v>
+        <v>0.005049363779291622</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02865050210426582</v>
+        <v>0.01180287017824757</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08016232498084554</v>
+        <v>0.08027200882459003</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07230252231273886</v>
+        <v>0.081216594194726</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01912994021656646</v>
+        <v>0.01691762429985347</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08073354497732683</v>
+        <v>0.03196752559624604</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01156498728593245</v>
+        <v>0.02140991349304803</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008760372151859349</v>
+        <v>0.05110533795933856</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07881242988556658</v>
+        <v>0.0760150545171247</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04552647277292134</v>
+        <v>0.00178119973098746</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01270818925774714</v>
+        <v>0.0106313189458636</v>
       </c>
       <c r="X13" t="n">
-        <v>0.003329889000808267</v>
+        <v>0.05977424137882245</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04901122979748146</v>
+        <v>0.006973256387787573</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.000760592095285097</v>
+        <v>0.003325851504287451</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07521966604009939</v>
+        <v>0.02052733526698592</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01167727804712173</v>
+        <v>0.04347596223834105</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.05240237790768789</v>
+        <v>0.03992104728096091</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001567013462140433</v>
+        <v>0.02814354698140498</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.008882743843959651</v>
+        <v>0.00617661975031419</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02799456936355298</v>
+        <v>0.02155137327758726</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07226325126993011</v>
+        <v>0.07322358724959736</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2466165245753381</v>
+        <v>0.2495890173009801</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2626633483430729</v>
+        <v>0.2684852723627572</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01042568878921721</v>
+        <v>0.03729121187460053</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0701213116166866</v>
+        <v>9.1384927749913e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01237814350138375</v>
+        <v>0.0005177384115232411</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005564730860032099</v>
+        <v>0.003964102138006605</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02890184617873164</v>
+        <v>0.0295177439320769</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04870440072031457</v>
+        <v>0.01668576561238391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01018610485723584</v>
+        <v>0.008670830493675983</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07350108916834329</v>
+        <v>0.02232014426457934</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03017718438605444</v>
+        <v>0.03955461282679529</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001580847905574276</v>
+        <v>0.04651470685941432</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01889323113869281</v>
+        <v>0.03689345840998062</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01447048953112135</v>
+        <v>0.04760765411792518</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04679717276580111</v>
+        <v>0.0802480409628844</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02392419204282148</v>
+        <v>0.02010756169563803</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07088241174430687</v>
+        <v>0.07621435692543968</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004999943130267088</v>
+        <v>0.007376973310294269</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08100062198480405</v>
+        <v>0.04544792628083869</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07673944987548112</v>
+        <v>0.06365606984853674</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04789890817181366</v>
+        <v>0.05696369314927745</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.03516646539141814</v>
+        <v>0.03564153385221788</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02911491734192373</v>
+        <v>0.004159504128895971</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04633554545439147</v>
+        <v>0.04347034689554546</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0593118289676968</v>
+        <v>0.07077873042838745</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01105938781574594</v>
+        <v>0.0225746526814472</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01842435769229801</v>
+        <v>0.003514341797542633</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02862774320859641</v>
+        <v>0.05057741894455728</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04729159797282213</v>
+        <v>0.06087743330397523</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.04752038778642419</v>
+        <v>0.06876206192580994</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.07377592133293376</v>
+        <v>-0.07548491132566248</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3168050576193152</v>
+        <v>0.3190530509010097</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0723151437085541</v>
+        <v>0.08942516607864853</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01061205635986474</v>
+        <v>0.05444539656505702</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06386482253150398</v>
+        <v>0.04329875078674301</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06510189134347687</v>
+        <v>0.04104014987099953</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01135005076992943</v>
+        <v>0.004099013515460888</v>
       </c>
       <c r="K15" t="n">
-        <v>0.070219267521092</v>
+        <v>0.07815675551294937</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01464759980733363</v>
+        <v>0.06497883185033204</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0224300218500619</v>
+        <v>0.005108494852656523</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0007872454363906159</v>
+        <v>0.04772615844577902</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05691062165862992</v>
+        <v>0.04537877257447601</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07367972074644939</v>
+        <v>0.01756694097138749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03954348709884765</v>
+        <v>0.02365740044048359</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05826916771423133</v>
+        <v>0.07255558847838683</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02060144418045735</v>
+        <v>0.06152203342710467</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0234447047784259</v>
+        <v>0.007342719162545116</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002854425775494908</v>
+        <v>0.003722533540404592</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03498522688621481</v>
+        <v>0.03355091403711714</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02423513185038969</v>
+        <v>0.009489225150820194</v>
       </c>
       <c r="X15" t="n">
-        <v>0.06008477463898889</v>
+        <v>0.06557806732000056</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.00953720559524332</v>
+        <v>0.01273996416947019</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006283787600486092</v>
+        <v>0.05755269343979864</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0364482041004997</v>
+        <v>0.03126666023275115</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01955149643732543</v>
+        <v>0.02579911573455402</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.04502856778381817</v>
+        <v>0.01491232755578805</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02568807881744763</v>
+        <v>0.04414859206543611</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.04798445161037927</v>
+        <v>0.006120396487015329</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.06199925712098768</v>
+        <v>0.01985479690734155</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02411112947542102</v>
+        <v>0.01896254082649304</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.05251792841898704</v>
+        <v>-0.05531349243235873</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2672503127081636</v>
+        <v>0.2630595815102038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009377643911067714</v>
+        <v>0.02443635370287279</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0496245758189509</v>
+        <v>0.07748881480039577</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0225385431992386</v>
+        <v>0.01190923836253651</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03019935166052543</v>
+        <v>0.0224709406024295</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00448394312028811</v>
+        <v>0.02230414922273937</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01469746896895578</v>
+        <v>0.008276987944557708</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01665765573449123</v>
+        <v>0.003885881802075284</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01059561704727304</v>
+        <v>0.004044835931352892</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001961169055179463</v>
+        <v>0.03024554086103719</v>
       </c>
       <c r="O16" t="n">
-        <v>0.009024748485964195</v>
+        <v>0.03227208851725483</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03190159621779082</v>
+        <v>0.01018096898404339</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.007818697965085821</v>
+        <v>0.0001066664034733953</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04348865144151411</v>
+        <v>0.04671244268925717</v>
       </c>
       <c r="S16" t="n">
-        <v>0.04923745027193338</v>
+        <v>0.02521440229439263</v>
       </c>
       <c r="T16" t="n">
-        <v>0.07706756411997011</v>
+        <v>0.07154598528435663</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0238557248035868</v>
+        <v>0.01630475446234679</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0675875548795891</v>
+        <v>0.02707128107916159</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04527501853244591</v>
+        <v>0.08586606709760801</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0506173229454</v>
+        <v>0.04500531324081501</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.04573309255910717</v>
+        <v>0.08245885420826847</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01441007625588248</v>
+        <v>0.01948165117791353</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06339811501603793</v>
+        <v>0.06214940754548497</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05764591335706876</v>
+        <v>0.01439796584393061</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.07109804287354413</v>
+        <v>0.008538227475371207</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003189223181260144</v>
+        <v>0.02099059362903341</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.04825924709529596</v>
+        <v>0.05931142043579405</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0605689430991254</v>
+        <v>0.08634392580918455</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06968704838342753</v>
+        <v>0.08098524059231288</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1596809718707339</v>
+        <v>0.1721277071627426</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3016214585703063</v>
+        <v>0.3253638036434864</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0677223803424577</v>
+        <v>0.09668879619126933</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0491867863583659</v>
+        <v>0.01950779090061481</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0756747385827827</v>
+        <v>0.02922133905020293</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02220468255451147</v>
+        <v>0.05742061044919883</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00437442217694886</v>
+        <v>0.02154979347809921</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07381471286247492</v>
+        <v>0.0737758403297933</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05075376330748705</v>
+        <v>0.012008633485822</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006210419506038919</v>
+        <v>0.02407796887171324</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05327556802745443</v>
+        <v>0.09791781076699327</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02689598538422548</v>
+        <v>0.06424223822604785</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0006928763129854613</v>
+        <v>0.07401732095627557</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001219677991059602</v>
+        <v>0.0314884831265687</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06358238302121087</v>
+        <v>0.01202125061710478</v>
       </c>
       <c r="S17" t="n">
-        <v>0.003093694645835026</v>
+        <v>0.004101297626931222</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06010512933033337</v>
+        <v>0.002169215676903028</v>
       </c>
       <c r="U17" t="n">
-        <v>0.002292702880489323</v>
+        <v>0.01078518506362115</v>
       </c>
       <c r="V17" t="n">
-        <v>0.06478841210207041</v>
+        <v>0.0147717281599371</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05937407249139242</v>
+        <v>0.006670948615014982</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05543137945558645</v>
+        <v>0.05649609068916255</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02285828585269065</v>
+        <v>0.02599702141143101</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05987151475432125</v>
+        <v>0.02746385477276914</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02446203215944476</v>
+        <v>0.005505939574749593</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01033152248758811</v>
+        <v>0.01210553669988924</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01264000155164256</v>
+        <v>0.005927075141575291</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.005280810326815747</v>
+        <v>0.04189767239027451</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0257872248341259</v>
+        <v>0.03263312420808166</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.03439697020757757</v>
+        <v>0.07059464536594103</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.06367785049208315</v>
+        <v>0.068942788154015</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1719701244552567</v>
+        <v>0.217817598884789</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1742126393935051</v>
+        <v>0.1737929285133687</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00913933253083868</v>
+        <v>0.03110538368291917</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06609485808250759</v>
+        <v>0.07559105750804961</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00744634821001164</v>
+        <v>0.01781597456530979</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05341343905424097</v>
+        <v>0.02710863291001966</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01303058738880419</v>
+        <v>0.02209411271046274</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05145197930150882</v>
+        <v>0.001886729274814493</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008888146341622214</v>
+        <v>0.02971261030069295</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05536591262016177</v>
+        <v>0.02292832335052203</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07104370396388866</v>
+        <v>0.03676719568792762</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008485052185261981</v>
+        <v>0.009760016679710713</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006176194939775526</v>
+        <v>0.0040517518832602</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00438596206118811</v>
+        <v>0.007025524680048656</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0375459909964841</v>
+        <v>0.06145032954402369</v>
       </c>
       <c r="S18" t="n">
-        <v>0.009277677369756413</v>
+        <v>0.0357898085005855</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06597269922612028</v>
+        <v>0.05746154273041604</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009627648511245932</v>
+        <v>0.02464621197012289</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05323350567362074</v>
+        <v>0.07497045500062031</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05525575018843384</v>
+        <v>0.07722783447307252</v>
       </c>
       <c r="X18" t="n">
-        <v>0.03417718238259768</v>
+        <v>0.07545153376686878</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03654199920495093</v>
+        <v>0.01643755560165825</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0321421254992465</v>
+        <v>0.03821570198184914</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06135527265094842</v>
+        <v>0.002048248019993837</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.04036875372895853</v>
+        <v>0.06938585881981849</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0569798595809167</v>
+        <v>0.03502170865925052</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.002949852830457068</v>
+        <v>0.03358710377171982</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05215871627443806</v>
+        <v>0.006972301004046401</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02770907249539449</v>
+        <v>0.02750836997114641</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.06978237670662026</v>
+        <v>0.07797812295106986</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0555653284199867</v>
+        <v>0.05788591202889228</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1939488958798326</v>
+        <v>0.2055327327884207</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04985199477864405</v>
+        <v>0.07852554703015091</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00846918270905205</v>
+        <v>0.01552426580242743</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007044536243355225</v>
+        <v>0.003488768010204331</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03342439269373677</v>
+        <v>0.02950740670486714</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03954583111788638</v>
+        <v>0.05296160879576417</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07784288283121014</v>
+        <v>0.08056202938290392</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03032238007807899</v>
+        <v>0.01360855967200235</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02504261568417027</v>
+        <v>0.02106080445876601</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04102216658421074</v>
+        <v>0.07812859317285073</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02472878646638184</v>
+        <v>0.005126418784415362</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01086372637405082</v>
+        <v>0.03231289634130664</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01527479021335798</v>
+        <v>0.02003001882467307</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06888774627618943</v>
+        <v>0.06781974706040754</v>
       </c>
       <c r="S19" t="n">
-        <v>0.003925248620278609</v>
+        <v>0.01849055933119141</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00271478760254157</v>
+        <v>0.03604658915923049</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003864373375134437</v>
+        <v>0.03440723230945051</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06131175121540876</v>
+        <v>0.01721335408141079</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07302836143147137</v>
+        <v>0.06045869616016727</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04547214171107552</v>
+        <v>0.01508461255669675</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03099592541226998</v>
+        <v>0.01488366585059992</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03442818670324256</v>
+        <v>0.05695203154395511</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07248832333729543</v>
+        <v>0.08161271637628595</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03617016077525663</v>
+        <v>0.001154887291325687</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07010604569137302</v>
+        <v>0.05066778792736241</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03792601423057482</v>
+        <v>0.006938878849966919</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.08197298800466836</v>
+        <v>0.01634485720552752</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0001494047702973475</v>
+        <v>0.03059046617861086</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01312525506878685</v>
+        <v>0.06049700113747866</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.06316901527490057</v>
+        <v>0.05900508851305674</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1265414295023276</v>
+        <v>0.1271310013906526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03339358172783639</v>
+        <v>0.009911816539487268</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02076923729389812</v>
+        <v>0.02173037420236837</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008385339300506863</v>
+        <v>0.01250685762572942</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01497578248468086</v>
+        <v>0.002948913409170072</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009860252695798625</v>
+        <v>0.01237438944968491</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02549512513921038</v>
+        <v>0.007583356520732053</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01425698086409759</v>
+        <v>0.03443733432069295</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05528632559485388</v>
+        <v>0.01699038937170468</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01331751733869425</v>
+        <v>0.02198216359754037</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004776690196087301</v>
+        <v>0.08351240506494044</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03024311594792905</v>
+        <v>0.08855596531655628</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06240854073077496</v>
+        <v>0.0005466519599133751</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05482648829885103</v>
+        <v>0.009594023654006171</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01302276822704444</v>
+        <v>0.0588465268380562</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07096429445378682</v>
+        <v>0.08715421183805329</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03815672441630982</v>
+        <v>0.001428996773807163</v>
       </c>
       <c r="V20" t="n">
-        <v>0.07768331110997945</v>
+        <v>0.08201509524696728</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03161192554627151</v>
+        <v>0.05385150369914635</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02789706686489571</v>
+        <v>0.08416465489360596</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.003528293981668547</v>
+        <v>0.07964025043895222</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.063247775749551</v>
+        <v>0.01902772631100693</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.006262291294116267</v>
+        <v>0.01240106520165117</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05971995857574124</v>
+        <v>0.04635545040350299</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.07162277257682015</v>
+        <v>0.01241647883396003</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03155376423280325</v>
+        <v>0.03455629048369092</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.07797603008369454</v>
+        <v>0.06655069070892206</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.004252056156375632</v>
+        <v>0.02218508675831938</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07450598911772224</v>
+        <v>0.01673133053783187</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.001705204562111364</v>
+        <v>-0.0175531673119257</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.154526339835962</v>
+        <v>0.1495533435431827</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07151524905016794</v>
+        <v>0.06728139804336888</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0626724048152397</v>
+        <v>0.005863442782247047</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01148841027379703</v>
+        <v>0.005458914598589219</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0721578116880619</v>
+        <v>0.04244870162054699</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03674338782820886</v>
+        <v>0.06457711569532351</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07959916323502136</v>
+        <v>0.06583521572521056</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01405727528491599</v>
+        <v>0.01266514154563489</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01829239791323686</v>
+        <v>0.01390849086396843</v>
       </c>
       <c r="N21" t="n">
-        <v>0.003971135053898787</v>
+        <v>0.0237985923716499</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0007954750220809177</v>
+        <v>0.01542892357903815</v>
       </c>
       <c r="P21" t="n">
-        <v>0.001553091194625965</v>
+        <v>0.05271394074970346</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03193050957050371</v>
+        <v>0.06276961795308267</v>
       </c>
       <c r="R21" t="n">
-        <v>0.006211796119094258</v>
+        <v>0.01131895385393191</v>
       </c>
       <c r="S21" t="n">
-        <v>0.005336100110925175</v>
+        <v>0.01631191392762178</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04583917037842906</v>
+        <v>0.04561726705436134</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02157004681156836</v>
+        <v>0.01529845163309434</v>
       </c>
       <c r="V21" t="n">
-        <v>0.08644424026131235</v>
+        <v>0.02113843289032004</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04292486701886673</v>
+        <v>0.05237547752206338</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04384991959288938</v>
+        <v>0.0007921901663646469</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01840833641521583</v>
+        <v>0.01688535572732197</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00162583841900608</v>
+        <v>0.01745488004337833</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07033074367976044</v>
+        <v>0.06128890148561331</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01034206423763882</v>
+        <v>0.05520835376011545</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.07167883274136701</v>
+        <v>0.06691638307413197</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.08826887452215981</v>
+        <v>0.05214694343801332</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.04266736020004916</v>
+        <v>0.05991487355005114</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02975692135561316</v>
+        <v>0.03728488052671639</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.009968577206345235</v>
+        <v>0.03729724581853707</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.02984487959186669</v>
+        <v>-0.0241411910577574</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1539651363121869</v>
+        <v>0.1541838720396518</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01322975546509031</v>
+        <v>0.01953570867696723</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06359298288187315</v>
+        <v>0.07001173015462354</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02387757614451611</v>
+        <v>0.01668387296931749</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00411809252730316</v>
+        <v>0.0223428812325314</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009808654463161035</v>
+        <v>0.004915004873760861</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006552080195388549</v>
+        <v>0.0005038229801631265</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01142806767948104</v>
+        <v>0.05763106708944308</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02906151956695485</v>
+        <v>0.05326143562095621</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06687902692689432</v>
+        <v>0.003829191093138255</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003889364723378341</v>
+        <v>0.07125423198683906</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04332966891469392</v>
+        <v>0.05034764745769231</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005030617425696219</v>
+        <v>0.04105189148129036</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04728380264119684</v>
+        <v>0.005885228955935247</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03218133925353456</v>
+        <v>0.01868883201350826</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06776597155618116</v>
+        <v>0.06266016955357452</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01214305787034943</v>
+        <v>0.01000616488544508</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05644979189681491</v>
+        <v>0.06073051943928168</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06782877409950577</v>
+        <v>0.06912738025549377</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06703372190730028</v>
+        <v>0.006146450515908934</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0690297744010475</v>
+        <v>0.03072483550143685</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02343086984578674</v>
+        <v>0.03946363242798911</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01325885157602228</v>
+        <v>0.008418413283408289</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05307580055850404</v>
+        <v>0.0720288392500313</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03311389276712494</v>
+        <v>0.01495599163182407</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.07048955512059579</v>
+        <v>0.01591080758460821</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02846121554082811</v>
+        <v>0.07045814528008612</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.01814064922697398</v>
+        <v>0.06267090916413474</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.06834331384064768</v>
+        <v>0.0407551946406108</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.07881842909534316</v>
+        <v>0.03839384992683196</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1755114229916559</v>
+        <v>0.1709466776739798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07541115660854404</v>
+        <v>0.08804253444609154</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01793097732984689</v>
+        <v>0.03625469404391401</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04213990459345311</v>
+        <v>0.01439368916662324</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05245850123292125</v>
+        <v>0.06168447849974433</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02963349861389675</v>
+        <v>0.004392456563831559</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07073755516248195</v>
+        <v>0.003709847626600953</v>
       </c>
       <c r="L23" t="n">
-        <v>0.009606967405463053</v>
+        <v>0.01034948681737262</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06258080225028544</v>
+        <v>0.03024019888311841</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02880099528942685</v>
+        <v>0.0006436460074877773</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008602685223288272</v>
+        <v>0.01592068822434491</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03369408792208609</v>
+        <v>0.06319533678270181</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01467843678851254</v>
+        <v>0.0480376976391912</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06230243877218947</v>
+        <v>0.05468485160655489</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07418505364698989</v>
+        <v>0.01932636846643148</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04697077151374412</v>
+        <v>0.03141478531206793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01195302081313132</v>
+        <v>0.03523138077086486</v>
       </c>
       <c r="V23" t="n">
-        <v>0.04125619251536436</v>
+        <v>0.02734077836150979</v>
       </c>
       <c r="W23" t="n">
-        <v>0.06553683836002949</v>
+        <v>0.06064279388664053</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01184208947654923</v>
+        <v>0.04176401188663944</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.003480206111202163</v>
+        <v>0.009546539884905022</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01149512563729939</v>
+        <v>0.03818172584780267</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02994602982146639</v>
+        <v>0.07933283942951073</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04032268235758722</v>
+        <v>0.01057370294615233</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01200855563912825</v>
+        <v>0.01135945462529161</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.05328077591082765</v>
+        <v>0.0950573345117743</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01035595564493621</v>
+        <v>0.05651901832106302</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.07558569516811256</v>
+        <v>0.04573791617725816</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.003203000191235963</v>
+        <v>0.006421743264510918</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.07171703472764612</v>
+        <v>0.06917175364252126</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1455581035271735</v>
+        <v>0.1443366721910298</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01817326299691968</v>
+        <v>0.004658379840129009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05072849413608264</v>
+        <v>0.03959252504903334</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002238296545564471</v>
+        <v>0.02926162013182772</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003271550883740699</v>
+        <v>0.01419573515692237</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02902978770811904</v>
+        <v>0.01363554247100083</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02927646861894051</v>
+        <v>0.001413166688033287</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02193574933365257</v>
+        <v>0.009539564208220474</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008372886160764374</v>
+        <v>0.005362658261235291</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02205997293157196</v>
+        <v>0.0565650681268579</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008420439913288686</v>
+        <v>0.02047242199202967</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0715016699112599</v>
+        <v>0.04664996420609125</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03037051359483549</v>
+        <v>0.03017561272002451</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01951842264125964</v>
+        <v>0.01112097605280428</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01904894872137607</v>
+        <v>0.07776715634364702</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04765657168447076</v>
+        <v>0.06255720490226163</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03661780209922915</v>
+        <v>0.01820050336607063</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0732003119507144</v>
+        <v>0.07042587728466233</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07322714164539527</v>
+        <v>0.06442803292567767</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05016684569753094</v>
+        <v>0.04237564470682743</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02438401143803522</v>
+        <v>0.06304638351603385</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02107633359588412</v>
+        <v>0.002932935322646688</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03090160205075509</v>
+        <v>0.02913975852903056</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.07072019377059378</v>
+        <v>0.05171318586643426</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.06277271920887434</v>
+        <v>0.03299660130233818</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.003756916212824419</v>
+        <v>0.0004783371651725063</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07366758510524904</v>
+        <v>0.07088701721432022</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.06237598834164138</v>
+        <v>0.06082739732639895</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.03552951310142632</v>
+        <v>0.0695807293242683</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05927091326668833</v>
+        <v>0.02783624341552676</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1576895747977251</v>
+        <v>0.1630276906869062</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04524825683542506</v>
+        <v>0.04983877818605294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08313316248959343</v>
+        <v>0.07512869533924216</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03263754963733409</v>
+        <v>0.0008173305180200261</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04339361202714757</v>
+        <v>0.01219456672534952</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0186014690633906</v>
+        <v>0.002918449655882525</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002358339801361416</v>
+        <v>0.009550041620778797</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01211009295177974</v>
+        <v>0.03181157989329817</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02879565355859722</v>
+        <v>0.08258218901135861</v>
       </c>
       <c r="N25" t="n">
-        <v>0.05544562689235164</v>
+        <v>0.05590634736634475</v>
       </c>
       <c r="O25" t="n">
-        <v>0.009960814622986836</v>
+        <v>0.01069661195162743</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08619917659738065</v>
+        <v>0.07770022628085883</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0569461818581361</v>
+        <v>0.07226461732890166</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04751755855747437</v>
+        <v>0.04271494045098487</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03303494582379066</v>
+        <v>0.05970418552892743</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02863334280510534</v>
+        <v>0.01064614653098503</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02019724059179886</v>
+        <v>0.03159241264022668</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0536745148141503</v>
+        <v>0.05700997664492961</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01296007787753084</v>
+        <v>0.08078389162477195</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01103163737169284</v>
+        <v>0.02904954969274161</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.006888478700734299</v>
+        <v>0.0475498814789185</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03492786921681294</v>
+        <v>0.00604925568925078</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03731457324688377</v>
+        <v>0.000472209608059079</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01699096808524309</v>
+        <v>0.005694596921960827</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.03897775987296137</v>
+        <v>0.0113142430706253</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02254960672148629</v>
+        <v>0.08171316010190879</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.08325110553935378</v>
+        <v>0.05018797330727455</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.03149652285132633</v>
+        <v>0.001662108288957331</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.04572386158817061</v>
+        <v>0.002446034541762255</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.03725331983404287</v>
+        <v>0.02264039875484063</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1381943828126556</v>
+        <v>0.1380443150478574</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05079253082298291</v>
+        <v>0.003533981914532388</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01988053037953047</v>
+        <v>0.08324039654324883</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0235969644416676</v>
+        <v>0.001112632555358067</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02632573819010507</v>
+        <v>0.04999650010332331</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00479138687447354</v>
+        <v>0.01460883548237895</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003408342187304886</v>
+        <v>0.001436376432056689</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01707609971150883</v>
+        <v>0.002687178738601065</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01779553782178083</v>
+        <v>0.06682968419926887</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05171140502298385</v>
+        <v>0.03856585126888219</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02818268508721331</v>
+        <v>0.001931619523717585</v>
       </c>
       <c r="P26" t="n">
-        <v>0.03274996717239517</v>
+        <v>0.008902114479838319</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03276206528876762</v>
+        <v>0.009568919582367486</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02284806427513181</v>
+        <v>0.08331886761062904</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01562077421928122</v>
+        <v>0.000822677561158994</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03261699663047719</v>
+        <v>0.0589308065996289</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00589475398262961</v>
+        <v>0.014411427518229</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07679714172955299</v>
+        <v>0.05290109714257151</v>
       </c>
       <c r="W26" t="n">
-        <v>0.08875669507395607</v>
+        <v>0.07101809852802715</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01692611352777981</v>
+        <v>0.006537823442248002</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03372225840803837</v>
+        <v>0.009630102882278786</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.006608041601409573</v>
+        <v>0.04137687469432051</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06818106582037622</v>
+        <v>0.08242868161053282</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05195722603179755</v>
+        <v>0.04629193931854026</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06392810400159127</v>
+        <v>0.04895862462506737</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03000169278469125</v>
+        <v>0.0609535726236076</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06835691714114452</v>
+        <v>0.04110154559474628</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04733483064317622</v>
+        <v>0.02834146468238869</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.06137607112825239</v>
+        <v>0.07056230474245132</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.115548077803632</v>
+        <v>0.1238873957399087</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1544704892044595</v>
+        <v>0.1585117230389107</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07405438796263381</v>
+        <v>0.08483433073029346</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06027418805490924</v>
+        <v>0.06573261904696469</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06998656850973843</v>
+        <v>0.02677253364572228</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02070987341307453</v>
+        <v>0.04108293220168292</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0124309842319092</v>
+        <v>0.01060074263985929</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009980451033862478</v>
+        <v>0.08110715185854589</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0126452364804759</v>
+        <v>0.01889595002400157</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0274894216207009</v>
+        <v>0.01222589669087964</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07333996990055573</v>
+        <v>0.05252295120790667</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02697497705269684</v>
+        <v>0.06240788529515744</v>
       </c>
       <c r="P27" t="n">
-        <v>0.07921665594512318</v>
+        <v>0.05077917012383051</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01556839535843114</v>
+        <v>0.04406213434851659</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01466047733978143</v>
+        <v>0.001271089350330719</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003776303927316856</v>
+        <v>0.0036393089174798</v>
       </c>
       <c r="T27" t="n">
-        <v>0.005871623889219402</v>
+        <v>0.06984912305710865</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03384187311822388</v>
+        <v>0.005993272529120882</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003845761201282037</v>
+        <v>0.04826100290802964</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01402714598502116</v>
+        <v>0.01449628541462519</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05054178964601282</v>
+        <v>0.04677583372271935</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04496715956137801</v>
+        <v>0.004522575891721945</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.04636564910158328</v>
+        <v>0.03198795761187272</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.008255249912623391</v>
+        <v>0.01632354550290061</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04235550885436259</v>
+        <v>0.02685830791303725</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.06387084738183706</v>
+        <v>0.0717549753515886</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.06305565244346513</v>
+        <v>0.00916706885553281</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.03305404314316372</v>
+        <v>0.06200810036504589</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02379219391849748</v>
+        <v>0.008616406459851834</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.06504761101212039</v>
+        <v>0.02745084833567312</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.1163247761972346</v>
+        <v>0.0940073442651724</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1430890216858398</v>
+        <v>0.1466184642383267</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04131837471338516</v>
+        <v>0.01391864812715286</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06943444656389461</v>
+        <v>0.07012285221795093</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02067244041390345</v>
+        <v>0.01954330745713655</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002605950287320886</v>
+        <v>0.003876264770395939</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0382007767477207</v>
+        <v>0.001762880533956187</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002053826551022421</v>
+        <v>0.002961837563806769</v>
       </c>
       <c r="L28" t="n">
-        <v>0.006219817150788415</v>
+        <v>0.03263624482008198</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08224971447703254</v>
+        <v>0.02648864183484233</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00476986583971803</v>
+        <v>0.07776061559389852</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02084974214836514</v>
+        <v>0.01892305175907987</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00790672571432322</v>
+        <v>0.01709447981961509</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02104262395339013</v>
+        <v>0.01499075042470562</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06157767164244118</v>
+        <v>0.0235054071045321</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01924636990171985</v>
+        <v>0.03882777526140255</v>
       </c>
       <c r="T28" t="n">
-        <v>0.08019948595157361</v>
+        <v>0.04985716184900936</v>
       </c>
       <c r="U28" t="n">
-        <v>0.005721509237282845</v>
+        <v>0.01282631045252726</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07430766315574286</v>
+        <v>0.04264985443525861</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06956058961565345</v>
+        <v>0.07028974688113318</v>
       </c>
       <c r="X28" t="n">
-        <v>0.001809025903224533</v>
+        <v>0.04227943840075572</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02396580425040087</v>
+        <v>0.05007695505906866</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0007234448805861204</v>
+        <v>0.01323098394327996</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03641169802978447</v>
+        <v>0.002616163824720689</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.08362273993017369</v>
+        <v>0.0604085837074586</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.06517255191780348</v>
+        <v>0.02677697181724618</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06416056532701163</v>
+        <v>0.07060865500592603</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.03203040544169559</v>
+        <v>0.05154985733858597</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04442291034726416</v>
+        <v>0.06477663554857485</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.01974325990677691</v>
+        <v>0.07963992444789765</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0907411455445794</v>
+        <v>0.0967929427008974</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1660885209300741</v>
+        <v>0.1780716017040447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02877897469077213</v>
+        <v>0.03147523771993747</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07830881125666551</v>
+        <v>0.02468506282961392</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06267082191842729</v>
+        <v>0.03782837342321396</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04240593780563529</v>
+        <v>0.07434219521292036</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005311333272314358</v>
+        <v>0.01567808123030888</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01027803341479197</v>
+        <v>0.03623919747053943</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04614270931392375</v>
+        <v>0.01524256987434909</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01695280676722945</v>
+        <v>0.03535023964385401</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05353387402644936</v>
+        <v>0.03826481318470847</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07727025473027668</v>
+        <v>0.07398679262588874</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04950797398097145</v>
+        <v>0.08143689225598706</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01612463740059469</v>
+        <v>0.02631862713240755</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01319970937650736</v>
+        <v>0.00714986088904495</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02467898487994448</v>
+        <v>0.004762945811654522</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02334677781735491</v>
+        <v>0.07548616641539542</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007043938318203235</v>
+        <v>0.04459261617356573</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01388335544459167</v>
+        <v>0.004992623178514307</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03490906068887299</v>
+        <v>0.01801328699237917</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04643193113918714</v>
+        <v>0.01284639235152193</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02334629937567854</v>
+        <v>0.002494352065099076</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.012831301215343</v>
+        <v>0.005899738878135451</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.024062350085463</v>
+        <v>0.06101748976298918</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07364429410709686</v>
+        <v>0.0738530956740464</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0322312414347387</v>
+        <v>0.05120059000968127</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.00813837729866259</v>
+        <v>0.01841369725906631</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.04861693786213411</v>
+        <v>0.01157662994693982</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.07398766091113697</v>
+        <v>0.05803639461992208</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.05236161146703253</v>
+        <v>0.05881603736831555</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1248529527507469</v>
+        <v>0.140514323725405</v>
       </c>
     </row>
     <row r="30">
@@ -3700,94 +3700,94 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1012575416870557</v>
+        <v>0.1005415023156635</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02299212631363476</v>
+        <v>0.03287476274398834</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0657824450729687</v>
+        <v>0.05395811207265782</v>
       </c>
       <c r="H30" t="n">
-        <v>0.009147090615162615</v>
+        <v>0.008439708897607177</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01069797045561447</v>
+        <v>0.05549235403163597</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03955384533102026</v>
+        <v>0.01176956613978503</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006940912127205118</v>
+        <v>0.01249275082762517</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03949112187937414</v>
+        <v>0.04697660611640167</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01870375722053772</v>
+        <v>0.0357027518111623</v>
       </c>
       <c r="N30" t="n">
-        <v>0.002945576223331138</v>
+        <v>0.04517049838412714</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00404233226669736</v>
+        <v>0.004550011024014829</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07597058209752425</v>
+        <v>0.04197270014068187</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.004570714244531275</v>
+        <v>0.01309965760417077</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04549429336737647</v>
+        <v>0.02182482202507461</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0383642949507217</v>
+        <v>0.01771367015835645</v>
       </c>
       <c r="T30" t="n">
-        <v>0.07614615678842436</v>
+        <v>0.04183885337558549</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02936158028383984</v>
+        <v>0.01757398347519379</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01779252332080434</v>
+        <v>0.06631047872796399</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0759796937634953</v>
+        <v>0.07635618009923648</v>
       </c>
       <c r="X30" t="n">
-        <v>0.04108947601686729</v>
+        <v>0.008892143936382329</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06017359358269526</v>
+        <v>0.05346069024940416</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.04561275087743136</v>
+        <v>0.04306278245160283</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.005240889819683193</v>
+        <v>0.01195250247952368</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.07525169102260561</v>
+        <v>0.06072862975235254</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.002278686259160389</v>
+        <v>0.03825349435565104</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.04955444486384644</v>
+        <v>0.0601211995164829</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.03376633756696507</v>
+        <v>0.04964609350548933</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.04183477133706149</v>
+        <v>0.01434129132032477</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.06122034233141999</v>
+        <v>0.05542370477751737</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07283114963935999</v>
+        <v>0.06041597327540683</v>
       </c>
     </row>
     <row r="31">
@@ -3810,94 +3810,94 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1183883037968001</v>
+        <v>0.1161549208290373</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0209568592636981</v>
+        <v>0.007583148665759556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07155701108572424</v>
+        <v>0.08472813571168028</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00238971491950235</v>
+        <v>0.02324171275155225</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07147523789117383</v>
+        <v>0.08798662979571278</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01963622460169009</v>
+        <v>0.0184641120496055</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01733865249886579</v>
+        <v>0.0087012840551389</v>
       </c>
       <c r="L31" t="n">
-        <v>0.002143437617897444</v>
+        <v>0.004325332212998157</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02432241868891909</v>
+        <v>0.042593302470079</v>
       </c>
       <c r="N31" t="n">
-        <v>0.06375978842604348</v>
+        <v>0.07516712859387022</v>
       </c>
       <c r="O31" t="n">
-        <v>0.03122976401341945</v>
+        <v>0.001198671384604031</v>
       </c>
       <c r="P31" t="n">
-        <v>0.07273838813582614</v>
+        <v>0.07186497808565223</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05269344956913141</v>
+        <v>0.08349788889881825</v>
       </c>
       <c r="R31" t="n">
-        <v>0.005989473468361736</v>
+        <v>0.04057222439939185</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01168085405667546</v>
+        <v>0.004600095953729507</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04983933153847402</v>
+        <v>0.04479804108045078</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05133605435137564</v>
+        <v>0.004028956003325004</v>
       </c>
       <c r="V31" t="n">
-        <v>0.001223338883853536</v>
+        <v>0.01508851921714502</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02269054203328094</v>
+        <v>0.04489006805435883</v>
       </c>
       <c r="X31" t="n">
-        <v>0.06491164960405367</v>
+        <v>0.04715805317780747</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02813533883943995</v>
+        <v>0.02924745891040441</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.03430111427259667</v>
+        <v>0.05186688047419977</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06361633006116979</v>
+        <v>0.0001633844520885074</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01705909357796117</v>
+        <v>0.01448634056145476</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.06420078462394976</v>
+        <v>0.05027437954952019</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04577288916991091</v>
+        <v>0.07421657392771516</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.007746372628404724</v>
+        <v>0.001035722550129724</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.05652981643077211</v>
+        <v>0.04461820993641422</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.02472606974782842</v>
+        <v>0.02360276707639365</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.06063925763455246</v>
+        <v>0.06462625349874659</v>
       </c>
     </row>
     <row r="32">
@@ -3920,94 +3920,94 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.09492767317610742</v>
+        <v>0.0938239880415191</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008945099333772728</v>
+        <v>0.01872627225479836</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002347507978352214</v>
+        <v>0.02638487777485741</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008044678656359345</v>
+        <v>0.003627683836821489</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00646533573826162</v>
+        <v>0.05527406216379496</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0418592414395126</v>
+        <v>0.001417909584856296</v>
       </c>
       <c r="K32" t="n">
-        <v>0.007119013037761841</v>
+        <v>0.00773951036478894</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02916517443726616</v>
+        <v>0.02644485985452971</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03361154967311303</v>
+        <v>0.06495452522857377</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002015772710460917</v>
+        <v>0.04991190066374545</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0408413982458147</v>
+        <v>0.004077131711640665</v>
       </c>
       <c r="P32" t="n">
-        <v>0.05431329394964256</v>
+        <v>0.05654038687421632</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00470457208969829</v>
+        <v>0.02514689645248671</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04951510638187488</v>
+        <v>0.07340316390548463</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06554145032149054</v>
+        <v>0.009268108668592106</v>
       </c>
       <c r="T32" t="n">
-        <v>0.08449760097978494</v>
+        <v>0.05587372536503277</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02248085221776113</v>
+        <v>0.003741928792229024</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04436076577713244</v>
+        <v>0.03084414227571007</v>
       </c>
       <c r="W32" t="n">
-        <v>0.09598522160371696</v>
+        <v>0.05794218305697947</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0856636392705547</v>
+        <v>0.03886776705770079</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07746179286065623</v>
+        <v>0.03696623953240865</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.00376221654826851</v>
+        <v>0.04553688937749719</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.03032458644751726</v>
+        <v>0.06655997710382811</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.05327164302305642</v>
+        <v>0.02573090078726096</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01661749793498644</v>
+        <v>0.06193270537081063</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.02355494186633167</v>
+        <v>0.0004131099444271973</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.07721965507974898</v>
+        <v>0.06943546664922852</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.006051823182113169</v>
+        <v>0.01615945397703615</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0242585692149896</v>
+        <v>0.06707822137066373</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.03795619933500401</v>
+        <v>0.04827771598966876</v>
       </c>
     </row>
     <row r="33">
@@ -4030,94 +4030,94 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1064978926225647</v>
+        <v>0.1073860738090655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001345023025255255</v>
+        <v>0.001844771679773619</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06996192857916846</v>
+        <v>0.0416298873466244</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05497223201495591</v>
+        <v>0.03584414234848008</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07570694507722708</v>
+        <v>0.02627142659436234</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003294475513280008</v>
+        <v>0.0262746989061053</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0239195476328148</v>
+        <v>0.006861303501907822</v>
       </c>
       <c r="L33" t="n">
-        <v>0.006586704146753514</v>
+        <v>0.005872158715033775</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02392509111961557</v>
+        <v>0.006029769434210849</v>
       </c>
       <c r="N33" t="n">
-        <v>0.07319487462196325</v>
+        <v>0.07960442206759526</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01561678076635831</v>
+        <v>0.03215060623750009</v>
       </c>
       <c r="P33" t="n">
-        <v>0.02348592579991762</v>
+        <v>0.08322941420641096</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05615273467522201</v>
+        <v>0.04795020441593874</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0653454206383539</v>
+        <v>0.009816139346515448</v>
       </c>
       <c r="S33" t="n">
-        <v>0.006472569191152496</v>
+        <v>0.07725130033110324</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07162290229116559</v>
+        <v>0.0327699749364962</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004817086500978629</v>
+        <v>0.07848889951263897</v>
       </c>
       <c r="V33" t="n">
-        <v>0.002309816357244644</v>
+        <v>0.02486682824998824</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01422836165324045</v>
+        <v>0.01658447809863184</v>
       </c>
       <c r="X33" t="n">
-        <v>0.034734670591006</v>
+        <v>0.02245903233744101</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.004824976985873988</v>
+        <v>0.0006288476039611278</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.07054293932554569</v>
+        <v>0.08215668807168044</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01138881974795074</v>
+        <v>0.06067189347262145</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03326401865729371</v>
+        <v>0.04051895789048655</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.07927082149916037</v>
+        <v>0.06747280153840293</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.05696080053215503</v>
+        <v>0.04726340050206335</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.003498957054371245</v>
+        <v>0.01288986241388757</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.04774898262644015</v>
+        <v>0.001065051847968905</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.06480659337553561</v>
+        <v>0.03153303839216944</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.07224072383406741</v>
+        <v>0.1074735038958095</v>
       </c>
     </row>
     <row r="34">
@@ -4140,94 +4140,94 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.09288518033918446</v>
+        <v>0.09232184764719224</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00401303602883835</v>
+        <v>0.02152236781144854</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002420069301762994</v>
+        <v>0.01222971788173182</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03938719383892549</v>
+        <v>0.0183638893059235</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06854455973680988</v>
+        <v>0.01965692169629043</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06348601912784096</v>
+        <v>0.05888897081676266</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003386911625021427</v>
+        <v>0.0132522932982605</v>
       </c>
       <c r="L34" t="n">
-        <v>0.002160240863603387</v>
+        <v>0.01561242674528588</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07228701994797951</v>
+        <v>0.03210902444040516</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03067075548893643</v>
+        <v>0.014008434031309</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01440223378855558</v>
+        <v>0.01214178691180514</v>
       </c>
       <c r="P34" t="n">
-        <v>0.03411321809130072</v>
+        <v>0.06826606860710384</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.002352499503306157</v>
+        <v>0.06605110486748736</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0294859217119719</v>
+        <v>0.05584381018435747</v>
       </c>
       <c r="S34" t="n">
-        <v>9.983225067000383e-05</v>
+        <v>0.006065082560463878</v>
       </c>
       <c r="T34" t="n">
-        <v>0.06475418877049768</v>
+        <v>0.01650813653500662</v>
       </c>
       <c r="U34" t="n">
-        <v>0.005013108128962733</v>
+        <v>0.04756084917063651</v>
       </c>
       <c r="V34" t="n">
-        <v>0.06340743318308316</v>
+        <v>0.08396172925936908</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06376518599351995</v>
+        <v>0.08050062802231926</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01920486148264648</v>
+        <v>0.01027184491541775</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04709079435610435</v>
+        <v>0.0840899581313293</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.05687469440027422</v>
+        <v>1.130750354874674e-05</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.03276423148888036</v>
+        <v>0.01052977947257454</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07490313318823634</v>
+        <v>0.02218186715384293</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.06225276811427186</v>
+        <v>0.0682492005011652</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.00416961321776935</v>
+        <v>0.03468390380859473</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.02723720745422851</v>
+        <v>0.05043798033349608</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.05621060311332581</v>
+        <v>0.00510766524959178</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05554266580267636</v>
+        <v>0.07189325078447212</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.02694017671003928</v>
+        <v>-0.007044728849131892</v>
       </c>
     </row>
     <row r="35">
@@ -4250,94 +4250,94 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1108661729582243</v>
+        <v>0.1133243748550257</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07131161804441905</v>
+        <v>0.07198432881964562</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05501697943735993</v>
+        <v>0.08313485502077028</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0341990955697031</v>
+        <v>0.02964638697321505</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01205702206289729</v>
+        <v>0.02430948401833398</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04773355401337202</v>
+        <v>0.0427762059434876</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04345582267182403</v>
+        <v>0.04776656263264199</v>
       </c>
       <c r="L35" t="n">
-        <v>0.001226301074216408</v>
+        <v>0.02158241335571814</v>
       </c>
       <c r="M35" t="n">
-        <v>0.006855958408493766</v>
+        <v>0.01750413697710488</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05592910284880072</v>
+        <v>0.08821038886921047</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03675002138450788</v>
+        <v>0.003107417530266083</v>
       </c>
       <c r="P35" t="n">
-        <v>0.07212398482288908</v>
+        <v>0.09366815720288572</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0005769949503772817</v>
+        <v>0.08656859975603749</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02090164095261986</v>
+        <v>0.03208964157295336</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06927025724999711</v>
+        <v>0.0003850529755334023</v>
       </c>
       <c r="T35" t="n">
-        <v>0.005598729278688221</v>
+        <v>0.03553895113550638</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02189565693797278</v>
+        <v>0.01164241601852685</v>
       </c>
       <c r="V35" t="n">
-        <v>0.001075859792157344</v>
+        <v>0.002626727673331679</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0006983213189842826</v>
+        <v>0.04311178911479657</v>
       </c>
       <c r="X35" t="n">
-        <v>0.03657453764983182</v>
+        <v>0.002186499928674871</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01736828281273961</v>
+        <v>0.0591373703969888</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.05021554657165259</v>
+        <v>0.03358011593966669</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.06816323697518484</v>
+        <v>0.01436415833147885</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05883624970669041</v>
+        <v>0.002351842227624701</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01299792797830496</v>
+        <v>0.01066293988287722</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.06595919063671159</v>
+        <v>0.07486373738699739</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.005859690962715043</v>
+        <v>0.01487954548465176</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.07071741885531312</v>
+        <v>0.04007941713044882</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.05663099703157572</v>
+        <v>0.01224085770062565</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.02393126726749577</v>
+        <v>0.05221473187266831</v>
       </c>
     </row>
     <row r="36">
@@ -4360,94 +4360,94 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.09926254095834712</v>
+        <v>0.09794372417649243</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02602537082639604</v>
+        <v>0.05907384376916392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02841412794254636</v>
+        <v>0.007624315165256361</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002069529155632805</v>
+        <v>0.02581402825438279</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04140274677294054</v>
+        <v>0.04482220673852319</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03671338154609993</v>
+        <v>0.007429756186492869</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02014902400147082</v>
+        <v>0.02002835505221662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04741082235435488</v>
+        <v>0.04597024343942809</v>
       </c>
       <c r="M36" t="n">
-        <v>0.006454855595920725</v>
+        <v>0.01581334331160654</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002862977724408737</v>
+        <v>0.01060760365587927</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04526968056455054</v>
+        <v>0.0516108394851564</v>
       </c>
       <c r="P36" t="n">
-        <v>0.003705083674346258</v>
+        <v>0.009813082506930953</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0382376622114795</v>
+        <v>0.03706050656432734</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05674820240803766</v>
+        <v>0.05882076706335438</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02590529398015444</v>
+        <v>0.005032243592476465</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05475487598125459</v>
+        <v>0.03318975349240669</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02647614161428855</v>
+        <v>0.06314573415569703</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05863180708682388</v>
+        <v>0.06714004661806912</v>
       </c>
       <c r="W36" t="n">
-        <v>0.07583013065863686</v>
+        <v>0.06951828338255511</v>
       </c>
       <c r="X36" t="n">
-        <v>0.04145078787157254</v>
+        <v>0.01294362288406665</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03136431186390976</v>
+        <v>0.05019942015972982</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01827559421501362</v>
+        <v>0.03819217731133118</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01104940980504349</v>
+        <v>0.03431971585016386</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04521206508911651</v>
+        <v>0.06412664098255891</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.06724734197182342</v>
+        <v>0.05851652704838604</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02588299980519553</v>
+        <v>0.005992932483356321</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.05544307621247233</v>
+        <v>0.02628868012984038</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.04185467642103111</v>
+        <v>0.002404659287333862</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.06515802264547849</v>
+        <v>0.07450067142930979</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.002577753549880305</v>
+        <v>-0.007416419952538732</v>
       </c>
     </row>
     <row r="37">
@@ -4470,94 +4470,94 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1137845112395323</v>
+        <v>0.1238483753661205</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07894190203242001</v>
+        <v>0.07267340969000281</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02671509948800451</v>
+        <v>0.05727593044368013</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01340565854735191</v>
+        <v>0.004133750284624136</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02481416845954108</v>
+        <v>0.0127019447806482</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0345329748154168</v>
+        <v>0.00631778267570094</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05585963368164047</v>
+        <v>0.04261504807190876</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001834736624870445</v>
+        <v>0.01451255103255478</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003398601642204785</v>
+        <v>0.01797453921552265</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04985426026018708</v>
+        <v>0.0507752730579447</v>
       </c>
       <c r="O37" t="n">
-        <v>0.003237124571952757</v>
+        <v>0.005798425136568195</v>
       </c>
       <c r="P37" t="n">
-        <v>0.02211470894879893</v>
+        <v>0.06802566802476279</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04947040650378182</v>
+        <v>0.05193902293296201</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01069474066016044</v>
+        <v>0.01914829278211603</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06839673223792696</v>
+        <v>0.05742463165437186</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02050211739958049</v>
+        <v>0.03619106820507929</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07680809232984842</v>
+        <v>0.009750597070437855</v>
       </c>
       <c r="V37" t="n">
-        <v>0.04864739429705645</v>
+        <v>0.015019360454381</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003761701301173443</v>
+        <v>0.02762440598927977</v>
       </c>
       <c r="X37" t="n">
-        <v>0.003794598871566206</v>
+        <v>0.03894116556834071</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01293253286092026</v>
+        <v>0.05385042079443415</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02892208054519618</v>
+        <v>0.0716311624347323</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07477614290890418</v>
+        <v>0.06754767476681976</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0233982976004561</v>
+        <v>0.03057263491708462</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.005568782562716689</v>
+        <v>0.06624818141853368</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07837328794613133</v>
+        <v>0.01344081012008107</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.04177038166834393</v>
+        <v>0.00144770891950373</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.06589241801838081</v>
+        <v>0.07089656958339119</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.07158142321546748</v>
+        <v>0.01552196997453269</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.006956544824441795</v>
+        <v>0.03319453452664335</v>
       </c>
     </row>
     <row r="38">
@@ -4580,94 +4580,94 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1161577895704015</v>
+        <v>0.1157406867553647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01713030838503439</v>
+        <v>0.06126979985087576</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01839470521896149</v>
+        <v>0.003927465303002453</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04198515404641454</v>
+        <v>0.01182723940648996</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03322612825097857</v>
+        <v>0.04348400526232179</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01009871886327652</v>
+        <v>0.03301331645945364</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01456406710313441</v>
+        <v>0.01509029236379619</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04979442080401594</v>
+        <v>0.0557708817086742</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03443511305986546</v>
+        <v>0.02129147304090837</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01162328614611977</v>
+        <v>0.01343098639017838</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03081450139134398</v>
+        <v>0.02643686103602189</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01692188126991051</v>
+        <v>0.006071483907906514</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04613189199154141</v>
+        <v>0.003309931909683834</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05412873719955488</v>
+        <v>0.0604701409944926</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03385053245754362</v>
+        <v>0.0152857799216112</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07810406860307632</v>
+        <v>0.05147476584071314</v>
       </c>
       <c r="U38" t="n">
-        <v>0.001265608697004486</v>
+        <v>0.04869824754870515</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07635348516539614</v>
+        <v>0.06939615947622001</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02587232893765039</v>
+        <v>0.04715016000351641</v>
       </c>
       <c r="X38" t="n">
-        <v>0.04938345574223633</v>
+        <v>0.06836514404377682</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03371070127586456</v>
+        <v>0.01978052557385882</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.004049636038168326</v>
+        <v>0.004463623123256297</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.05203898796083753</v>
+        <v>0.03974754681875542</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.03989661650413515</v>
+        <v>0.06439230444761317</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02097696902329833</v>
+        <v>0.06393266956676655</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.06661471089837079</v>
+        <v>0.01110305994937955</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.06884624820218989</v>
+        <v>0.05785165884646221</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.007223017732891776</v>
+        <v>0.02192522828558538</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.06256471903118442</v>
+        <v>0.06103924891997443</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.07551317751573167</v>
+        <v>0.06076841127601129</v>
       </c>
     </row>
     <row r="39">
@@ -4690,94 +4690,94 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1265694188853325</v>
+        <v>0.1254493379465004</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04524368260320958</v>
+        <v>0.07375900492096715</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007441836913310719</v>
+        <v>0.02683222223008619</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003859530893608569</v>
+        <v>0.00889427286075414</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05888079397466164</v>
+        <v>0.04111030576529288</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02197047642948684</v>
+        <v>0.0001257847396358586</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07236054868222425</v>
+        <v>0.005179150152689973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.008703921698011098</v>
+        <v>0.03681555377401566</v>
       </c>
       <c r="M39" t="n">
-        <v>0.004942615253011704</v>
+        <v>0.02275963885700454</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05900703357472681</v>
+        <v>0.03083822341440756</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01967308994132714</v>
+        <v>0.01914716980522375</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07145790145463719</v>
+        <v>0.0676581270642156</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.07790566576034025</v>
+        <v>0.08188213312486733</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01735219514403465</v>
+        <v>0.0347111574941493</v>
       </c>
       <c r="S39" t="n">
-        <v>0.020789396277598</v>
+        <v>0.009209816434731403</v>
       </c>
       <c r="T39" t="n">
-        <v>0.001537232475482373</v>
+        <v>0.004416757158922421</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03742580165182841</v>
+        <v>0.03865284825697406</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0410392953069024</v>
+        <v>0.08109274200735644</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03657321010629885</v>
+        <v>0.08803268132264783</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02076918742881313</v>
+        <v>0.009384447087434002</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0114549393948676</v>
+        <v>0.02345450154149026</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04405660756941195</v>
+        <v>0.02728744795787565</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07103787280371404</v>
+        <v>0.09594929317962697</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04138332040463263</v>
+        <v>0.01903408972446987</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.05650749157178105</v>
+        <v>0.02612320871276866</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.06371110134170947</v>
+        <v>0.06157123290321942</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.07070291915151608</v>
+        <v>0.01821299074598064</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.01036284909566578</v>
+        <v>0.0468754649984512</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.003849483097187928</v>
+        <v>0.0009897337647412027</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.03308809686384414</v>
+        <v>0.02154845398266372</v>
       </c>
     </row>
     <row r="40">
@@ -4800,94 +4800,94 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1258774951355507</v>
+        <v>0.1256764888712813</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04594159971187731</v>
+        <v>0.0251823843017112</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0111353902083731</v>
+        <v>0.03025751191332919</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06975263153217048</v>
+        <v>0.06665770199630076</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01662780350020466</v>
+        <v>0.00142137421027796</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03784205363120828</v>
+        <v>0.001737390482228472</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01674639336983134</v>
+        <v>0.01665844800671352</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01305091529270254</v>
+        <v>0.02878208868346133</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06039560999024483</v>
+        <v>0.04303449370628057</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07473519413204725</v>
+        <v>0.05890220851822231</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01569801391701583</v>
+        <v>0.02145585228795706</v>
       </c>
       <c r="P40" t="n">
-        <v>0.07293354353335571</v>
+        <v>0.06878747211967047</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.00216463170311655</v>
+        <v>0.009116954782997688</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03061681856453559</v>
+        <v>0.05696253409702194</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01207267517723187</v>
+        <v>0.004612723874788263</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03486920695832015</v>
+        <v>0.0236710587708373</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01118986383424463</v>
+        <v>0.03362978588324002</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04213279920562284</v>
+        <v>0.0483098543119334</v>
       </c>
       <c r="W40" t="n">
-        <v>0.07199054278787541</v>
+        <v>0.07042318831144215</v>
       </c>
       <c r="X40" t="n">
-        <v>0.004451647026133778</v>
+        <v>0.05776440769365964</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.04690581256529047</v>
+        <v>0.009053615242152513</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.008645169632377585</v>
+        <v>0.02654429027696803</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.01533121269825059</v>
+        <v>0.01213357005119572</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.06112828747923605</v>
+        <v>0.05530212579004865</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.01291250084514191</v>
+        <v>0.05495006737534641</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.06047706925856138</v>
+        <v>0.02902862162365935</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.06282593397404863</v>
+        <v>0.053063591932907</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.02503327689572418</v>
+        <v>0.02439954077715915</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.062393402575257</v>
+        <v>0.06815714297849004</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.05757831748328093</v>
+        <v>0.05334505902001968</v>
       </c>
     </row>
     <row r="41">
@@ -4910,94 +4910,94 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1354887921714577</v>
+        <v>0.1396805389037987</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04401765736652992</v>
+        <v>0.01769735753446203</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004169803275715357</v>
+        <v>0.06869390437555722</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009692349945042401</v>
+        <v>0.02296893520367107</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0546689608184432</v>
+        <v>0.005196319718691291</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008917246363753954</v>
+        <v>0.0103930158611323</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01153833788712124</v>
+        <v>0.07414332888984342</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02595343095250017</v>
+        <v>0.07442283719899276</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01660503913365416</v>
+        <v>0.002581583518327503</v>
       </c>
       <c r="N41" t="n">
-        <v>0.06541809596772467</v>
+        <v>0.01142602383196591</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04162969986312073</v>
+        <v>0.01171557350270491</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03137816234981919</v>
+        <v>0.02112413408320844</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07738203666304237</v>
+        <v>0.08181131845550053</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02941395665948928</v>
+        <v>0.03073635806716432</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0003507754645750424</v>
+        <v>0.01692848803000618</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06843877755782048</v>
+        <v>0.009999764453306866</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0511490428630029</v>
+        <v>0.01748330722083063</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01418822779515931</v>
+        <v>0.01832041229233293</v>
       </c>
       <c r="W41" t="n">
-        <v>0.05602137751156983</v>
+        <v>0.03979489091642333</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0003030267422524545</v>
+        <v>0.05177038785591875</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0201785900848388</v>
+        <v>0.04845625735710306</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.01303215185417436</v>
+        <v>0.03227419195597005</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.08000189252360833</v>
+        <v>0.07891806300022954</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01812777068775225</v>
+        <v>0.0005554540282400319</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.07596032474311898</v>
+        <v>0.08210653324471387</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.07217195391717737</v>
+        <v>0.08295499048081273</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.01497122262959253</v>
+        <v>0.07255345990513984</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.06066692636912578</v>
+        <v>0.003285511521435853</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.03365316201027503</v>
+        <v>0.0116875974963147</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.06844463873485879</v>
+        <v>0.02488554277904729</v>
       </c>
     </row>
     <row r="42">
@@ -5020,94 +5020,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.121923109692845</v>
+        <v>0.1210253789631043</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01498100612419658</v>
+        <v>0.03031536954202529</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03898591001193746</v>
+        <v>0.03764269665651412</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05445608682800379</v>
+        <v>0.009050145853791887</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04215138615392598</v>
+        <v>0.05082123215649802</v>
       </c>
       <c r="J42" t="n">
-        <v>0.05335374017300022</v>
+        <v>0.008003116242980663</v>
       </c>
       <c r="K42" t="n">
-        <v>0.008391198008235486</v>
+        <v>0.01751030713269124</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03054308492666506</v>
+        <v>0.02965484623778636</v>
       </c>
       <c r="M42" t="n">
-        <v>0.007788774377656143</v>
+        <v>0.003904186001858887</v>
       </c>
       <c r="N42" t="n">
-        <v>0.03089870237180757</v>
+        <v>0.02384610360992289</v>
       </c>
       <c r="O42" t="n">
-        <v>0.00388645881757407</v>
+        <v>0.03630645162593023</v>
       </c>
       <c r="P42" t="n">
-        <v>0.04290547411453302</v>
+        <v>0.004863677531210132</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06265642012727766</v>
+        <v>0.02938420503727914</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01309520831692594</v>
+        <v>0.002559601093871128</v>
       </c>
       <c r="S42" t="n">
-        <v>0.00555545885659976</v>
+        <v>0.002101142622616555</v>
       </c>
       <c r="T42" t="n">
-        <v>0.06655238905220232</v>
+        <v>0.07323565100846417</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01251214881017926</v>
+        <v>0.007737598978728173</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06698538121837767</v>
+        <v>0.08626060059841234</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02072978558814209</v>
+        <v>0.09145062754055619</v>
       </c>
       <c r="X42" t="n">
-        <v>0.04663524339571723</v>
+        <v>0.03188662225546436</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.009011552883756067</v>
+        <v>0.03235513009868012</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.02560342643126442</v>
+        <v>0.04292553281660071</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0489457949985669</v>
+        <v>0.007205686635014495</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.03339814435425211</v>
+        <v>0.08954458036940253</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07306654828440182</v>
+        <v>0.03728145187566261</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.01478179659945679</v>
+        <v>0.03384729538247877</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.06701663298155204</v>
+        <v>0.03616809786451254</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.03349945522767414</v>
+        <v>0.05370222124958812</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.07161279096611822</v>
+        <v>0.09043582198145814</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.07930459735437771</v>
+        <v>0.089238308656619</v>
       </c>
     </row>
     <row r="43">
@@ -5130,94 +5130,94 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.164288701444419</v>
+        <v>0.1529424142443458</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002522857916492775</v>
+        <v>0.01445992658630365</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04409112951481752</v>
+        <v>0.01857716920803068</v>
       </c>
       <c r="H43" t="n">
-        <v>0.008961827507326374</v>
+        <v>0.009077044239900514</v>
       </c>
       <c r="I43" t="n">
-        <v>0.002800860748176294</v>
+        <v>0.06505954853013327</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06648045368814513</v>
+        <v>0.0605059745434936</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02402444851225418</v>
+        <v>0.008580633044594306</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03978911106296096</v>
+        <v>0.07124110216419065</v>
       </c>
       <c r="M43" t="n">
-        <v>0.07969585945795876</v>
+        <v>0.004872737695133774</v>
       </c>
       <c r="N43" t="n">
-        <v>0.004352744716021156</v>
+        <v>0.01580416485906417</v>
       </c>
       <c r="O43" t="n">
-        <v>0.04241714580123525</v>
+        <v>0.05168690852873607</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01750872007402095</v>
+        <v>0.03657195249979398</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.003909736570225303</v>
+        <v>0.04261466684352485</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05477725180668225</v>
+        <v>0.01452797231194777</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02425333752557404</v>
+        <v>0.007345563797242706</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03027834435699844</v>
+        <v>0.06432642539024347</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08135891334784875</v>
+        <v>0.06542542293425498</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0112139888901264</v>
+        <v>0.01445462405094528</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04652746732500473</v>
+        <v>0.0004349343868729404</v>
       </c>
       <c r="X43" t="n">
-        <v>0.08284912699809473</v>
+        <v>0.000818919953321767</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0681695890601014</v>
+        <v>0.07908962151231458</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.06966692871163023</v>
+        <v>0.06031528059815377</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.02696390811073925</v>
+        <v>0.05449959164300281</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02508051949358649</v>
+        <v>0.002514829039409865</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02364246139133103</v>
+        <v>0.03593393657459403</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.06659223209811606</v>
+        <v>0.09003223723228804</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.01247755328400823</v>
+        <v>0.06776158151349863</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.02443458181788634</v>
+        <v>0.01372143271666609</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.01515890021263693</v>
+        <v>0.02974579760234359</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06216074181148436</v>
+        <v>0.07048724515789156</v>
       </c>
     </row>
     <row r="44">
@@ -5240,94 +5240,94 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1119740153123679</v>
+        <v>0.1119759427158051</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01592625828028514</v>
+        <v>0.0459963091400768</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005891297196754968</v>
+        <v>0.02201259828396769</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03996772930121686</v>
+        <v>0.05699721191901955</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02686378205669373</v>
+        <v>0.01199910353492788</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04942428935761111</v>
+        <v>0.04807112019848995</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01881618829613355</v>
+        <v>0.02328933196169539</v>
       </c>
       <c r="L44" t="n">
-        <v>0.003488549002597976</v>
+        <v>0.009943752114678902</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02014869058937009</v>
+        <v>0.02643527017881201</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06121213675225978</v>
+        <v>0.03403837819739115</v>
       </c>
       <c r="O44" t="n">
-        <v>0.009406284073350785</v>
+        <v>0.004819448199885663</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02820423859355244</v>
+        <v>0.02984732133003545</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04149375745534435</v>
+        <v>0.04713670830872792</v>
       </c>
       <c r="R44" t="n">
-        <v>0.03608164453841517</v>
+        <v>0.0007183715323337103</v>
       </c>
       <c r="S44" t="n">
-        <v>0.05546608892279018</v>
+        <v>0.02606990393586768</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06566241134663452</v>
+        <v>0.02602546610805491</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007381621605817163</v>
+        <v>0.006746436967556389</v>
       </c>
       <c r="V44" t="n">
-        <v>0.06297389107364211</v>
+        <v>0.07814349536904477</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0238499478201879</v>
+        <v>0.05128771647687052</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04203815545687197</v>
+        <v>0.03599790543251145</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.001981526750213194</v>
+        <v>0.01769699591873996</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03605177843344135</v>
+        <v>0.0175235492372004</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.01444523940999393</v>
+        <v>0.06098829508363579</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.06535973906753349</v>
+        <v>0.0666466814235596</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.06143359779223087</v>
+        <v>0.0730748564542969</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.05407056341082681</v>
+        <v>0.02511215716637392</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0530963493386364</v>
+        <v>0.01199063868908926</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.0460642565859885</v>
+        <v>0.06205082084941362</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.05319998749160568</v>
+        <v>0.07934015598774272</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.133801338737148</v>
+        <v>0.122626020667023</v>
       </c>
     </row>
     <row r="45">
@@ -5350,94 +5350,94 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1266180201652082</v>
+        <v>0.117560582430288</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0003725552285672435</v>
+        <v>0.02178552357663785</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00330228479981679</v>
+        <v>0.004065937375515112</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05297299789868103</v>
+        <v>0.02547932361516675</v>
       </c>
       <c r="I45" t="n">
-        <v>0.07186878954427803</v>
+        <v>0.0830715785756676</v>
       </c>
       <c r="J45" t="n">
-        <v>0.07674144325488626</v>
+        <v>0.07978871789702477</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01496951478374964</v>
+        <v>0.03659211877812411</v>
       </c>
       <c r="L45" t="n">
-        <v>0.08669343697402759</v>
+        <v>0.007707520966137756</v>
       </c>
       <c r="M45" t="n">
-        <v>0.009263445982799828</v>
+        <v>0.04058990536025653</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03571217145459532</v>
+        <v>0.01805941702532573</v>
       </c>
       <c r="O45" t="n">
-        <v>0.07327395393407354</v>
+        <v>0.001809090845443992</v>
       </c>
       <c r="P45" t="n">
-        <v>0.059996159967512</v>
+        <v>0.02159084241576485</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05695421633691511</v>
+        <v>0.03320623733188834</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01022792071588514</v>
+        <v>0.0009679243261501453</v>
       </c>
       <c r="S45" t="n">
-        <v>0.009340986350988874</v>
+        <v>0.02198873705995394</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04251211543043043</v>
+        <v>0.02850955045304603</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01732879990127183</v>
+        <v>0.0005509089265680709</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01793019510451534</v>
+        <v>0.03237268070424728</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06574694228711511</v>
+        <v>0.05615463446813711</v>
       </c>
       <c r="X45" t="n">
-        <v>0.07010158954508222</v>
+        <v>0.02612452646009004</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02042149855816965</v>
+        <v>0.07263611908001023</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06902904366119166</v>
+        <v>0.0330110724553872</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.006052470906195928</v>
+        <v>0.005357853012251111</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.04455350676354001</v>
+        <v>0.08413079135640468</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.04666279679173611</v>
+        <v>0.05702186634502162</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.02663671756419971</v>
+        <v>0.07588816352616068</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.003470382898960896</v>
+        <v>0.05612592518555429</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.002763263494001704</v>
+        <v>0.02764526431401218</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.005100799866813046</v>
+        <v>0.04776776856405204</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.1649778194509112</v>
+        <v>0.1524901168519333</v>
       </c>
     </row>
     <row r="46">
@@ -5460,94 +5460,94 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.09291819664939899</v>
+        <v>0.09426604408464891</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04041115696052099</v>
+        <v>0.06650372561922535</v>
       </c>
       <c r="G46" t="n">
-        <v>0.000567682666947121</v>
+        <v>0.03621302086195139</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03246216949679144</v>
+        <v>0.02992755756042823</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03140147602591338</v>
+        <v>0.02883079144418677</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00915145800809321</v>
+        <v>0.01179812165278803</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0600444907556283</v>
+        <v>0.01914868002667232</v>
       </c>
       <c r="L46" t="n">
-        <v>0.004684380129279743</v>
+        <v>0.07320179635591056</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08252970048770296</v>
+        <v>0.003656588055718025</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02706716201163737</v>
+        <v>0.02090676362505086</v>
       </c>
       <c r="O46" t="n">
-        <v>0.003087331013760582</v>
+        <v>0.01471151528490858</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01894355474633198</v>
+        <v>0.01423549289969818</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.00415756344169022</v>
+        <v>0.01884294802922377</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03014425846939132</v>
+        <v>0.06448819075313057</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03800633425610628</v>
+        <v>0.03197157201313194</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06888345657303163</v>
+        <v>0.06655807212975814</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01002887120292926</v>
+        <v>0.0007592557554910889</v>
       </c>
       <c r="V46" t="n">
-        <v>0.07222942094867194</v>
+        <v>0.06591163237402592</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08568467433383592</v>
+        <v>0.03379400798979503</v>
       </c>
       <c r="X46" t="n">
-        <v>0.00576017934687399</v>
+        <v>0.03149610600962346</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.04806358732945785</v>
+        <v>0.07121674493335775</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.00078468324015733</v>
+        <v>0.003915762208989116</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.03471578743552565</v>
+        <v>0.03793039868748407</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.02046579712542459</v>
+        <v>0.05378396530545675</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.08776240184971298</v>
+        <v>0.0697424471911505</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.007325643592477395</v>
+        <v>0.007404661515610205</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.06369046764111047</v>
+        <v>0.02618795478270799</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.06206617134363961</v>
+        <v>0.06130866528931916</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.04988013956735651</v>
+        <v>0.03555356164520624</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.02581450652603963</v>
+        <v>-0.02727374462774964</v>
       </c>
     </row>
     <row r="47">
@@ -5570,94 +5570,94 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1100453161247808</v>
+        <v>0.1082906497636311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05957290167948037</v>
+        <v>0.06897719988935798</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03502699592554723</v>
+        <v>0.05460709870090503</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0244714854146906</v>
+        <v>0.05643566650050427</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05905781989612153</v>
+        <v>0.1023474674255642</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0576677567418357</v>
+        <v>0.0514652035176152</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05870692631883467</v>
+        <v>0.04324859493743417</v>
       </c>
       <c r="L47" t="n">
-        <v>0.03300304728359155</v>
+        <v>0.003480006420312362</v>
       </c>
       <c r="M47" t="n">
-        <v>0.002374462468144064</v>
+        <v>0.0432389668424344</v>
       </c>
       <c r="N47" t="n">
-        <v>0.002929430167252089</v>
+        <v>0.005287282446447735</v>
       </c>
       <c r="O47" t="n">
-        <v>0.01104232478497338</v>
+        <v>0.0006508790613364235</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04886532361704414</v>
+        <v>0.02035379919264915</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01245764445476529</v>
+        <v>0.0008717872951591215</v>
       </c>
       <c r="R47" t="n">
-        <v>0.042484228629138</v>
+        <v>0.04017915119385654</v>
       </c>
       <c r="S47" t="n">
-        <v>0.06113123681479609</v>
+        <v>0.06662974451907328</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0297709504572072</v>
+        <v>0.09085372242513598</v>
       </c>
       <c r="U47" t="n">
-        <v>0.06348953390409738</v>
+        <v>0.05922497301839885</v>
       </c>
       <c r="V47" t="n">
-        <v>0.001386995302778972</v>
+        <v>0.008306577037682811</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06544642216536863</v>
+        <v>0.03895459749310152</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02425147631430933</v>
+        <v>0.001208685590838765</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.06279198428266575</v>
+        <v>0.002958836461884117</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.02421349625422949</v>
+        <v>0.002904823658110955</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.02156178684513759</v>
+        <v>0.02848204342418609</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03520327317987937</v>
+        <v>0.0006231053523720074</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.04083113623832003</v>
+        <v>0.08323978395320611</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.06292006979266748</v>
+        <v>0.008313030960603419</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0004600606118389434</v>
+        <v>0.01819286904736109</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.003162390832664797</v>
+        <v>0.01352348158284689</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.05571883962262038</v>
+        <v>0.08544062205162174</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.007244012978369976</v>
+        <v>-0.01016103504948941</v>
       </c>
     </row>
     <row r="48">
@@ -5680,94 +5680,94 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.09230679740368251</v>
+        <v>0.09116734883782279</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02490780955339558</v>
+        <v>0.04565158508044326</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03253555266400738</v>
+        <v>0.001348437587163017</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04997184830325884</v>
+        <v>0.05219789387746226</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01024602584614993</v>
+        <v>0.009434059434785943</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0001019089828630741</v>
+        <v>0.01107827617825605</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0222864324336824</v>
+        <v>0.02533802433517016</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02114101489962406</v>
+        <v>0.0206330108699767</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02837890208260838</v>
+        <v>0.07209646344871451</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02949646743137649</v>
+        <v>0.07284874305312225</v>
       </c>
       <c r="O48" t="n">
-        <v>0.002446368415167724</v>
+        <v>0.02767964954202085</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0687471849845077</v>
+        <v>0.03193106674290966</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04869737947069899</v>
+        <v>0.01253388126497356</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03092353526838367</v>
+        <v>0.01897398516968359</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02334511716131591</v>
+        <v>0.04504621657067052</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06684271260377789</v>
+        <v>0.0657153367854323</v>
       </c>
       <c r="U48" t="n">
-        <v>0.03826307624409218</v>
+        <v>0.02669169506197449</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0418081512552783</v>
+        <v>0.06962361053884579</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05006979549318841</v>
+        <v>0.06269238130021618</v>
       </c>
       <c r="X48" t="n">
-        <v>0.05184139937226714</v>
+        <v>0.04230130317678894</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.04979085888132163</v>
+        <v>0.02966499421889301</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.01966965991344355</v>
+        <v>0.001131024342012239</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0113186018128972</v>
+        <v>0.0009597910484486506</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07151503168302854</v>
+        <v>0.05415959965322791</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06321741517952222</v>
+        <v>0.04440354903093178</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.03308588423710981</v>
+        <v>0.02718596220203246</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.03560964607045856</v>
+        <v>0.04036826487122624</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.0009297770292469385</v>
+        <v>0.02780912093769442</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.07281244272732755</v>
+        <v>0.06050207367692333</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.01534174556852695</v>
+        <v>0.005392831972776166</v>
       </c>
     </row>
     <row r="49">
@@ -5790,94 +5790,94 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1038353257640252</v>
+        <v>0.1064343918243197</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07438217058623915</v>
+        <v>0.08363916414039411</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01735473593076001</v>
+        <v>0.0663896610834222</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0366021785807093</v>
+        <v>0.0645933791466225</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0817559834232756</v>
+        <v>0.0837225644670439</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04552591726511571</v>
+        <v>0.05932760260037837</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07486462113619972</v>
+        <v>0.04046069680525526</v>
       </c>
       <c r="L49" t="n">
-        <v>0.002234416170355587</v>
+        <v>0.02833995567393194</v>
       </c>
       <c r="M49" t="n">
-        <v>0.00160895474931726</v>
+        <v>0.03715504231584302</v>
       </c>
       <c r="N49" t="n">
-        <v>0.003058575115169492</v>
+        <v>0.02247615096413108</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02536363672744666</v>
+        <v>0.01630928833051411</v>
       </c>
       <c r="P49" t="n">
-        <v>0.05970279714315132</v>
+        <v>4.030649811544471e-05</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.007160866982312302</v>
+        <v>0.006134482076879381</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06483511167832799</v>
+        <v>0.007211550198151321</v>
       </c>
       <c r="S49" t="n">
-        <v>0.00526478283791504</v>
+        <v>0.03000082974605857</v>
       </c>
       <c r="T49" t="n">
-        <v>0.001093732807895253</v>
+        <v>0.06176477324288064</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03895929035958974</v>
+        <v>0.03118545786734778</v>
       </c>
       <c r="V49" t="n">
-        <v>0.01950643332726743</v>
+        <v>0.02549192662726139</v>
       </c>
       <c r="W49" t="n">
-        <v>0.07574009668166763</v>
+        <v>0.0644251548572779</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01675516562012861</v>
+        <v>0.03933056413569468</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.08197114009920201</v>
+        <v>0.03947120377494781</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.04371966852309435</v>
+        <v>0.0846678735651374</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01709432266362552</v>
+        <v>0.01206045091698842</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.02774399946947106</v>
+        <v>0.0007411043625616325</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.02398390400836886</v>
+        <v>0.01606224142531057</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.01781467328048478</v>
+        <v>0.01537290453678868</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.05775621415795613</v>
+        <v>0.01252704135852236</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.00633832207370214</v>
+        <v>0.007756209708385385</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0718082886012512</v>
+        <v>0.0433424195741541</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.005370105665969714</v>
+        <v>-0.007504836087789579</v>
       </c>
     </row>
     <row r="50">
@@ -5900,94 +5900,94 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1092049866932014</v>
+        <v>0.1092652471376342</v>
       </c>
       <c r="F50" t="n">
-        <v>0.008030759492351679</v>
+        <v>0.05510067157502986</v>
       </c>
       <c r="G50" t="n">
-        <v>0.005585030206795272</v>
+        <v>0.06556095965933674</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07686891130021745</v>
+        <v>0.01404286364201076</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000913287229961106</v>
+        <v>0.01510035318936341</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01263542865829118</v>
+        <v>0.006284070906709936</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02355784952121021</v>
+        <v>0.007357544771275693</v>
       </c>
       <c r="L50" t="n">
-        <v>0.008466021137719789</v>
+        <v>0.01479014425068636</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03150409529098418</v>
+        <v>0.002727605292286358</v>
       </c>
       <c r="N50" t="n">
-        <v>0.03702956889022226</v>
+        <v>0.06098401716626253</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01223994806307846</v>
+        <v>0.02993395651519411</v>
       </c>
       <c r="P50" t="n">
-        <v>0.04492203102613614</v>
+        <v>0.0206074848589203</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06792893080660863</v>
+        <v>0.03449468065333661</v>
       </c>
       <c r="R50" t="n">
-        <v>0.003248946113323332</v>
+        <v>0.00689277945839372</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01226296265141234</v>
+        <v>0.02788871038688269</v>
       </c>
       <c r="T50" t="n">
-        <v>0.07384456928631804</v>
+        <v>0.03738646719501409</v>
       </c>
       <c r="U50" t="n">
-        <v>0.055570591079521</v>
+        <v>0.06337946226334132</v>
       </c>
       <c r="V50" t="n">
-        <v>0.07623100915736786</v>
+        <v>0.0637543307936239</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06129861105164421</v>
+        <v>0.03186957548648665</v>
       </c>
       <c r="X50" t="n">
-        <v>0.04228688584246423</v>
+        <v>0.008631942393746508</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.01187695568900143</v>
+        <v>0.03520827695364239</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.002693051084772592</v>
+        <v>0.02378129828059532</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.07546304871017569</v>
+        <v>0.01599029387327065</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.04020262470688128</v>
+        <v>0.07215828323739953</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.01004832541878927</v>
+        <v>0.07201451279681216</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.07607835889383771</v>
+        <v>0.06819704482203939</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.05350108122069692</v>
+        <v>0.08033297343034652</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.003367804814133006</v>
+        <v>0.02047761812280181</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.07234331265608478</v>
+        <v>0.04505207802519067</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.1360471527627251</v>
+        <v>0.131100575260493</v>
       </c>
     </row>
     <row r="51">
@@ -6010,94 +6010,94 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1240921251098292</v>
+        <v>0.1206161090914906</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03387532322311707</v>
+        <v>0.06070212524524091</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0406345920473335</v>
+        <v>0.05079360179775489</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001580752373510964</v>
+        <v>0.04177372238958234</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06421834315441959</v>
+        <v>0.01193934804786593</v>
       </c>
       <c r="J51" t="n">
-        <v>0.046505623257719</v>
+        <v>0.02709183269828743</v>
       </c>
       <c r="K51" t="n">
-        <v>0.07754292247579431</v>
+        <v>0.07246357558712223</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02854314840670286</v>
+        <v>0.0826156485122579</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0108897341835245</v>
+        <v>0.006218873536881926</v>
       </c>
       <c r="N51" t="n">
-        <v>0.08409905042151203</v>
+        <v>0.009179021619168443</v>
       </c>
       <c r="O51" t="n">
-        <v>0.005092154521781733</v>
+        <v>0.04872294737917002</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03490147101066805</v>
+        <v>0.02317631929351115</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0312836844286401</v>
+        <v>0.04076296903365395</v>
       </c>
       <c r="R51" t="n">
-        <v>0.006659171205700034</v>
+        <v>0.001937898724498743</v>
       </c>
       <c r="S51" t="n">
-        <v>0.04732098301676141</v>
+        <v>0.002178677385009127</v>
       </c>
       <c r="T51" t="n">
-        <v>0.03842622800844223</v>
+        <v>0.01103679012210191</v>
       </c>
       <c r="U51" t="n">
-        <v>0.008609312250404713</v>
+        <v>0.02086630728959456</v>
       </c>
       <c r="V51" t="n">
-        <v>0.05478771860732473</v>
+        <v>0.05284703523906085</v>
       </c>
       <c r="W51" t="n">
-        <v>0.05650860634613248</v>
+        <v>0.03622613264503128</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02827469055155595</v>
+        <v>0.00469608620719366</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.08418367769948407</v>
+        <v>0.0970837229886518</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04994541909342486</v>
+        <v>0.007311464291774503</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.02835289594831811</v>
+        <v>0.06705650751941863</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.007620348218710689</v>
+        <v>0.06171637787343805</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.02921906420635318</v>
+        <v>0.03598938448708452</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.06922581331067221</v>
+        <v>0.04306422701343018</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.01909877381195221</v>
+        <v>0.05079911670576974</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.01262717824071698</v>
+        <v>0.007372992616513967</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.001395997115482051</v>
+        <v>0.02437729375093141</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1272392876536723</v>
+        <v>0.1469873229440798</v>
       </c>
     </row>
     <row r="52">
@@ -6120,94 +6120,94 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1188967008832994</v>
+        <v>0.1196038389766698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06563207018618485</v>
+        <v>0.02741323252365372</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01490956787776604</v>
+        <v>0.06367746953673353</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001912064610259557</v>
+        <v>0.01369570312258974</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00659163792252136</v>
+        <v>0.002146374089481981</v>
       </c>
       <c r="J52" t="n">
-        <v>0.007548368705755404</v>
+        <v>0.01875785245252728</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002701387681410443</v>
+        <v>0.01429843117042657</v>
       </c>
       <c r="L52" t="n">
-        <v>0.002988412660444076</v>
+        <v>0.02061246705722706</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06556948123182038</v>
+        <v>0.05773130868447034</v>
       </c>
       <c r="N52" t="n">
-        <v>0.06776775625571636</v>
+        <v>0.06402721682998923</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04419407609154927</v>
+        <v>0.01026628160848309</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01928722562856571</v>
+        <v>0.05342462956068179</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.006887480296147157</v>
+        <v>0.05001113046833725</v>
       </c>
       <c r="R52" t="n">
-        <v>0.04777047520965081</v>
+        <v>0.02185614000246887</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0333684865149101</v>
+        <v>0.03309007190937647</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04383034249822543</v>
+        <v>0.0374154250998129</v>
       </c>
       <c r="U52" t="n">
-        <v>0.06283450745904927</v>
+        <v>0.06057560973699973</v>
       </c>
       <c r="V52" t="n">
-        <v>0.07020539188692723</v>
+        <v>0.06552518524031389</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04157723263448479</v>
+        <v>0.06821446243733724</v>
       </c>
       <c r="X52" t="n">
-        <v>0.04202069459001814</v>
+        <v>0.0004523418385702622</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05299639715802826</v>
+        <v>0.04263104498784914</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0001369547455459869</v>
+        <v>0.01492617822708592</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.01424252588866206</v>
+        <v>0.003289472657658619</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.06638997548638535</v>
+        <v>0.02836240052475713</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0307379496230353</v>
+        <v>0.006386923022564567</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.06268285382776052</v>
+        <v>0.06104397905006036</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.05751736930655511</v>
+        <v>0.06723475165390459</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.05876181732071273</v>
+        <v>0.06293781656019658</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0089374967019082</v>
+        <v>0.02999609994644209</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.08948338228483049</v>
+        <v>0.0831981119560018</v>
       </c>
     </row>
     <row r="53">
@@ -6230,94 +6230,94 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1381140670062394</v>
+        <v>0.1331852123905555</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05492869898785289</v>
+        <v>0.01529997332578332</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05893193961856497</v>
+        <v>0.002487453513695709</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07136529320652918</v>
+        <v>0.06175536792347001</v>
       </c>
       <c r="I53" t="n">
-        <v>0.002943727980176237</v>
+        <v>0.002005934118571597</v>
       </c>
       <c r="J53" t="n">
-        <v>0.009499590059142514</v>
+        <v>0.001045023678883864</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06399004716830954</v>
+        <v>0.08262590059959636</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07275184100541061</v>
+        <v>0.06160879342206878</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004697659701577566</v>
+        <v>0.05562763762547245</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02035309460215719</v>
+        <v>0.01975919174586339</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01203753756811365</v>
+        <v>0.02175678562640751</v>
       </c>
       <c r="P53" t="n">
-        <v>0.07015786075722244</v>
+        <v>0.00239568620903588</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0338807035673489</v>
+        <v>0.08948834552574945</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02796454537632013</v>
+        <v>0.03661344833574263</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04983344319710499</v>
+        <v>0.007028881360899435</v>
       </c>
       <c r="T53" t="n">
-        <v>0.05159152700152612</v>
+        <v>0.01471136532334975</v>
       </c>
       <c r="U53" t="n">
-        <v>0.04963101479598883</v>
+        <v>0.00964957844338747</v>
       </c>
       <c r="V53" t="n">
-        <v>0.03225471105099847</v>
+        <v>0.06815323928420372</v>
       </c>
       <c r="W53" t="n">
-        <v>0.00218980581411329</v>
+        <v>0.05722808012149768</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0001894769258433519</v>
+        <v>0.01373860884874076</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.08082066239496014</v>
+        <v>0.03682739106422044</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.03175483224702177</v>
+        <v>0.07339174369082575</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.05899643955682554</v>
+        <v>0.06028835165102759</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.07382603553599187</v>
+        <v>0.05998247055582979</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.00307649790449532</v>
+        <v>0.01939795151383891</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.01231800728544076</v>
+        <v>0.03268708527428664</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.02240205356522962</v>
+        <v>0.03209409104774801</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.001280213922114326</v>
+        <v>0.05398608430895899</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.02633273920361991</v>
+        <v>0.008365535860844014</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.09398543198388534</v>
+        <v>0.05132801040415862</v>
       </c>
     </row>
     <row r="54">
@@ -6340,94 +6340,94 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.129093744103586</v>
+        <v>0.1296789544942797</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03357504252020795</v>
+        <v>0.02647584778725249</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02907876305879781</v>
+        <v>0.04578989277372103</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0007487495647097406</v>
+        <v>0.04509801385181759</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04669191032006847</v>
+        <v>0.02239640016901807</v>
       </c>
       <c r="J54" t="n">
-        <v>0.02808878859531414</v>
+        <v>0.0212397455415868</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01836982665438424</v>
+        <v>0.04185271238584862</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002875044161090625</v>
+        <v>0.03702970180641665</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05047474561743896</v>
+        <v>0.05313202032111707</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05751449921628719</v>
+        <v>0.06144763207674384</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05730606904955229</v>
+        <v>0.06838686501848515</v>
       </c>
       <c r="P54" t="n">
-        <v>0.03666303107615732</v>
+        <v>0.01049357053036457</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05917025966647207</v>
+        <v>0.01478545607991715</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06081536882199039</v>
+        <v>0.05768085070114898</v>
       </c>
       <c r="S54" t="n">
-        <v>0.008931874388231903</v>
+        <v>0.008719617516528541</v>
       </c>
       <c r="T54" t="n">
-        <v>0.04011111218549601</v>
+        <v>0.03039485824590935</v>
       </c>
       <c r="U54" t="n">
-        <v>0.001424696532819329</v>
+        <v>0.001681654449925352</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06141232499399327</v>
+        <v>0.06248610006920648</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04429939753879616</v>
+        <v>0.06699178763733388</v>
       </c>
       <c r="X54" t="n">
-        <v>0.03953882812177145</v>
+        <v>0.03277663730758556</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.03593249370273462</v>
+        <v>0.03662925720972563</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.007193059013486539</v>
+        <v>0.01276027324728139</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.01555374258182922</v>
+        <v>0.0141161423500436</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.06310583074300775</v>
+        <v>0.04528141279480734</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.05193236814032724</v>
+        <v>0.02376059128577417</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.002186968800070218</v>
+        <v>0.003619216267468938</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0396949180661947</v>
+        <v>0.06019140042478821</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.05326260843978781</v>
+        <v>0.04761280700864919</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.05404767842898255</v>
+        <v>0.04716953514153434</v>
       </c>
       <c r="AH54" t="n">
-        <v>-0.1473785421461656</v>
+        <v>-0.1330672448302521</v>
       </c>
     </row>
     <row r="55">
@@ -6450,94 +6450,94 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1563972729874877</v>
+        <v>0.1402606672596089</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09897556991594177</v>
+        <v>0.08483422044179174</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01679899032707883</v>
+        <v>0.02442831749282574</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04959886343902102</v>
+        <v>0.04873858461944444</v>
       </c>
       <c r="I55" t="n">
-        <v>0.007820849654208099</v>
+        <v>0.006936044204205208</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02570014282410235</v>
+        <v>0.00749234981470762</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03013984359613104</v>
+        <v>0.009979439348464268</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1049802756578498</v>
+        <v>0.002511484095555432</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02057118202727462</v>
+        <v>0.007355231438408259</v>
       </c>
       <c r="N55" t="n">
-        <v>0.05706450694463602</v>
+        <v>0.0711976446740106</v>
       </c>
       <c r="O55" t="n">
-        <v>0.002416484018681358</v>
+        <v>0.08173305954150308</v>
       </c>
       <c r="P55" t="n">
-        <v>0.06681142801483528</v>
+        <v>0.05753118261681368</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01438530011851266</v>
+        <v>0.04540024267192776</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02498433418825346</v>
+        <v>0.05094226628933218</v>
       </c>
       <c r="S55" t="n">
-        <v>0.06433652455962116</v>
+        <v>0.01945690180135362</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0008269448305406198</v>
+        <v>0.08252175303421218</v>
       </c>
       <c r="U55" t="n">
-        <v>0.001848492341821442</v>
+        <v>0.01247035732702639</v>
       </c>
       <c r="V55" t="n">
-        <v>0.003934330056056026</v>
+        <v>0.06284127490283811</v>
       </c>
       <c r="W55" t="n">
-        <v>0.04812108793199464</v>
+        <v>0.02020391391741229</v>
       </c>
       <c r="X55" t="n">
-        <v>0.05572853343254559</v>
+        <v>0.008229131658695519</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.003064397330767381</v>
+        <v>0.0783323752279281</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.08813692760469079</v>
+        <v>0.05260732417568716</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.06720476363410573</v>
+        <v>0.02435598146145191</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03663122195491147</v>
+        <v>0.05171969204802647</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.02694468433242287</v>
+        <v>0.01812881610073446</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.004101145329962363</v>
+        <v>0.006183137452304006</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.03263849025593391</v>
+        <v>0.04430999631213262</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.01240258050100892</v>
+        <v>0.01001922988777845</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.03383210517709095</v>
+        <v>0.009540047443428833</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.0385111187600477</v>
+        <v>-0.08597899886806581</v>
       </c>
     </row>
     <row r="56">
@@ -6560,94 +6560,94 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2194107285588408</v>
+        <v>0.2211903943453324</v>
       </c>
       <c r="F56" t="n">
-        <v>0.003447864440784109</v>
+        <v>0.01790925152468708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03534665486193398</v>
+        <v>0.04705073856439097</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02186919631778308</v>
+        <v>0.01180357986399472</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01130269382851208</v>
+        <v>0.001157540432074065</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05957921082696951</v>
+        <v>0.001597183332646116</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005767982669535178</v>
+        <v>0.02608324454619454</v>
       </c>
       <c r="L56" t="n">
-        <v>0.009977508572353083</v>
+        <v>0.07031340730036953</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01517402137989789</v>
+        <v>0.02162182638139749</v>
       </c>
       <c r="N56" t="n">
-        <v>0.007852797532462045</v>
+        <v>0.03411897209646879</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02438925943470799</v>
+        <v>0.02981833994899539</v>
       </c>
       <c r="P56" t="n">
-        <v>0.000343107661326579</v>
+        <v>0.0737379183164255</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01283882774362922</v>
+        <v>0.03951083853536642</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0199135202158205</v>
+        <v>0.04223047699580526</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02151863440179569</v>
+        <v>0.01357777294318673</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0635383828315365</v>
+        <v>0.06381731911434912</v>
       </c>
       <c r="U56" t="n">
-        <v>0.01553242378694285</v>
+        <v>0.02718477144438099</v>
       </c>
       <c r="V56" t="n">
-        <v>0.07495994636922847</v>
+        <v>0.04536432473369924</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04926974162298944</v>
+        <v>0.01644110527898042</v>
       </c>
       <c r="X56" t="n">
-        <v>0.01417105716326948</v>
+        <v>0.03227409257282079</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.06037644923727734</v>
+        <v>0.04600433689042065</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.02375480196760865</v>
+        <v>0.06840477911193617</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.04317312048348379</v>
+        <v>0.009260645338250353</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.07014572378378342</v>
+        <v>0.07465428618151772</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07552677235776432</v>
+        <v>0.02355774372283324</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.07515190497640691</v>
+        <v>0.00650820975885441</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.06353931537680609</v>
+        <v>0.06553694756492562</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.04984782975646749</v>
+        <v>0.01993734129328529</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.0716912503989242</v>
+        <v>0.07052300621174344</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.1535480776234136</v>
+        <v>0.1290879263571622</v>
       </c>
     </row>
     <row r="57">
@@ -6670,97 +6670,97 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2484762631660445</v>
+        <v>0.2638350689636395</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07960185875457831</v>
+        <v>0.08431570660983849</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06244171417151408</v>
+        <v>0.03155191621759088</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0003251330208861745</v>
+        <v>0.05785183792015926</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01414639040300779</v>
+        <v>0.005378537971833465</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0245154727131606</v>
+        <v>0.008372843094805694</v>
       </c>
       <c r="K57" t="n">
-        <v>0.003435501579424318</v>
+        <v>0.06918320969519476</v>
       </c>
       <c r="L57" t="n">
-        <v>0.04289207252159385</v>
+        <v>0.01269106980284223</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01874347577954984</v>
+        <v>0.003165470165291163</v>
       </c>
       <c r="N57" t="n">
-        <v>0.008636830745088371</v>
+        <v>0.0007824071187145043</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0646609999463978</v>
+        <v>0.08570708425339031</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01856992467123831</v>
+        <v>0.08423098689443113</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.005698549120002209</v>
+        <v>0.01323595343653319</v>
       </c>
       <c r="R57" t="n">
-        <v>0.01213473139511411</v>
+        <v>0.005023183059192383</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0006647474285615656</v>
+        <v>0.06525911579286636</v>
       </c>
       <c r="T57" t="n">
-        <v>0.04804169330821613</v>
+        <v>0.0123970469609132</v>
       </c>
       <c r="U57" t="n">
-        <v>0.06417909824601913</v>
+        <v>0.02962836178345415</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02526815989724938</v>
+        <v>0.01432160011532893</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01303282226946991</v>
+        <v>0.02541315254830485</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04432557405096944</v>
+        <v>0.06684673813650505</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.05969006621130064</v>
+        <v>0.01959263895501414</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08074430021547233</v>
+        <v>0.07931105905612278</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.07809496352519439</v>
+        <v>0.05908593255533992</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.07707802221084273</v>
+        <v>0.01320261886302308</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.005603786260761887</v>
+        <v>0.06921883257296035</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.07509818583800754</v>
+        <v>0.01114503104444179</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.03894237431582177</v>
+        <v>0.009621658744331008</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.01289447172571084</v>
+        <v>0.0005124371428643586</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.02053907967484646</v>
+        <v>0.06295356948871259</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.167907724562929</v>
+        <v>0.1684307244400088</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>